--- a/SPEX HAB2 BOM.xlsx
+++ b/SPEX HAB2 BOM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew\Desktop\Excel docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew\Desktop\SPEX_HAB_Mainboard_Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10905"/>
   </bookViews>
   <sheets>
     <sheet name="Turnkey" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="196">
   <si>
     <t>Description</t>
   </si>
@@ -69,19 +69,286 @@
     <t>U3</t>
   </si>
   <si>
-    <t>LED's Total:</t>
-  </si>
-  <si>
-    <t>Power Total:</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
-    <t>Recovery Total:</t>
-  </si>
-  <si>
     <t>U6</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>U12</t>
+  </si>
+  <si>
+    <t>U2,U4,U5</t>
+  </si>
+  <si>
+    <t>MKL04Z32VLC4</t>
+  </si>
+  <si>
+    <t>MMQA6V2T1G</t>
+  </si>
+  <si>
+    <t>BME280</t>
+  </si>
+  <si>
+    <t>MCP2551-I/SN</t>
+  </si>
+  <si>
+    <t>ST1480ABDR</t>
+  </si>
+  <si>
+    <t>U13</t>
+  </si>
+  <si>
+    <t>U14</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>TH1,TH2,TH3</t>
+  </si>
+  <si>
+    <t>Q1,Q2</t>
+  </si>
+  <si>
+    <t>U105,U108</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4,Q5,Q6</t>
+  </si>
+  <si>
+    <t>Q101,Q104</t>
+  </si>
+  <si>
+    <t>Q105</t>
+  </si>
+  <si>
+    <t>Q106</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5,D6</t>
+  </si>
+  <si>
+    <t>FM5819-W</t>
+  </si>
+  <si>
+    <t>D106,D108</t>
+  </si>
+  <si>
+    <t>D109</t>
+  </si>
+  <si>
+    <t>D110</t>
+  </si>
+  <si>
+    <t>F101</t>
+  </si>
+  <si>
+    <t>K1,K2</t>
+  </si>
+  <si>
+    <t>G5LE_1A4_DC3</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3,P4,P5,P6</t>
+  </si>
+  <si>
+    <t>P7,P8,P9,P10,P11,P12,P13</t>
+  </si>
+  <si>
+    <t>R1,R9,R10,R11</t>
+  </si>
+  <si>
+    <t>1k ohm resistor</t>
+  </si>
+  <si>
+    <t>R3,R4</t>
+  </si>
+  <si>
+    <t>33 ohm resistor</t>
+  </si>
+  <si>
+    <t>R2,R12,R13,R18,R29,R30,R31,R34,R35,R36,R37,R38,R109,R126,R130,R140,R141,R145</t>
+  </si>
+  <si>
+    <t>10k ohm resistor</t>
+  </si>
+  <si>
+    <t>R14,R15,R16</t>
+  </si>
+  <si>
+    <t>12k ohm resistor</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>240 ohm resistor</t>
+  </si>
+  <si>
+    <t>R5,R6,R7,R8,R28</t>
+  </si>
+  <si>
+    <t>4.7k ohm resistor</t>
+  </si>
+  <si>
+    <t>R32,R33</t>
+  </si>
+  <si>
+    <t>120 ohm resistor</t>
+  </si>
+  <si>
+    <t>33.2k ohm resistor</t>
+  </si>
+  <si>
+    <t>R108,R146</t>
+  </si>
+  <si>
+    <t>R147</t>
+  </si>
+  <si>
+    <t>56.2k ohm resistor</t>
+  </si>
+  <si>
+    <t>R148, R150</t>
+  </si>
+  <si>
+    <t>10 ohm resistor</t>
+  </si>
+  <si>
+    <t>R149</t>
+  </si>
+  <si>
+    <t>27.4K ohm resistor</t>
+  </si>
+  <si>
+    <t>R151</t>
+  </si>
+  <si>
+    <t>10.2k ohm resistor</t>
+  </si>
+  <si>
+    <t>R152</t>
+  </si>
+  <si>
+    <t>100k ohm resistor</t>
+  </si>
+  <si>
+    <t>C1,C2,C3,C4,C18,C19,C21,C2</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>1uF capacitor</t>
+  </si>
+  <si>
+    <t>2.2uF capacitor</t>
+  </si>
+  <si>
+    <t>0.1uF capacitor</t>
+  </si>
+  <si>
+    <t>C6,C19</t>
+  </si>
+  <si>
+    <t>C9,C10,C11,C13,C15,C109,C121</t>
+  </si>
+  <si>
+    <t>100nF capacitor</t>
+  </si>
+  <si>
+    <t>10nF capacitor</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C16,C20</t>
+  </si>
+  <si>
+    <t>10uF capacitor</t>
+  </si>
+  <si>
+    <t>4.7uF capacitor</t>
+  </si>
+  <si>
+    <t>47uF capacitor</t>
+  </si>
+  <si>
+    <t>C114,C118</t>
+  </si>
+  <si>
+    <t>22uF capacitor</t>
+  </si>
+  <si>
+    <t>0.1uF capacitor (100V)</t>
+  </si>
+  <si>
+    <t>C105,C122</t>
+  </si>
+  <si>
+    <t>C119,C120,C123</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>PJRC</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>UltraFit 2pin</t>
+  </si>
+  <si>
+    <t>JST PH 4 pin</t>
   </si>
   <si>
     <r>
@@ -106,40 +373,277 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="10"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>RED</t>
+      <t>BLUE</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> for LED board.</t>
+      <t xml:space="preserve"> for Balloon board.</t>
     </r>
   </si>
   <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>U9</t>
-  </si>
-  <si>
-    <t>U10</t>
-  </si>
-  <si>
-    <t>U11</t>
-  </si>
-  <si>
-    <t>U12</t>
-  </si>
-  <si>
-    <t>U2,U4,U5</t>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>TPS769XX</t>
+  </si>
+  <si>
+    <t>MK03ZxxVFG4</t>
+  </si>
+  <si>
+    <t>BMP180</t>
+  </si>
+  <si>
+    <t>LT6105</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>IRLL3303PbF</t>
+  </si>
+  <si>
+    <t>Picoblade 6 pin</t>
+  </si>
+  <si>
+    <t>PicoBlade_53047-0610</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>2k ohm resistor</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>0 ohm resistor</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>100 ohm resistor</t>
+  </si>
+  <si>
+    <t>R6,R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>C1,C2,C5,C7</t>
+  </si>
+  <si>
+    <t>C3,C4</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>Mainboard Total:</t>
+  </si>
+  <si>
+    <t>Balloon Total:</t>
+  </si>
+  <si>
+    <t>NUP2201MR6T1G</t>
+  </si>
+  <si>
+    <t>ON Semicondutor</t>
+  </si>
+  <si>
+    <t>863-NUP2201MR6T1G</t>
+  </si>
+  <si>
+    <t>MK20DX256VLH7</t>
+  </si>
+  <si>
+    <t>841-MK20DX256VLH7</t>
+  </si>
+  <si>
+    <t>NXP / Freescale</t>
+  </si>
+  <si>
+    <t>863-MMQA6V2T1G</t>
+  </si>
+  <si>
+    <t>MCP9808T-E/MS</t>
+  </si>
+  <si>
+    <t>579-MCP9808T-E/MS</t>
+  </si>
+  <si>
+    <t>Microchip Technology</t>
+  </si>
+  <si>
+    <t>262-BME280</t>
+  </si>
+  <si>
+    <t>LSM9DS1TR</t>
+  </si>
+  <si>
+    <t>511-LSM9DS1TR</t>
+  </si>
+  <si>
+    <t>Bosch Sensortec</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>Primary Microcontroller</t>
+  </si>
+  <si>
+    <t>Secondary Microcontroller/Bootloader</t>
+  </si>
+  <si>
+    <t>ESD Protection 4 lines</t>
+  </si>
+  <si>
+    <t>ESD Protection 2 lines</t>
+  </si>
+  <si>
+    <t>Temperature Sensor</t>
+  </si>
+  <si>
+    <t>Altimeter (pressure temperature)</t>
+  </si>
+  <si>
+    <t>9DOF IMU (accel, gyro, compass)</t>
+  </si>
+  <si>
+    <t>LM4030BMF-2.5/NOPB</t>
+  </si>
+  <si>
+    <t>926-LM4030BMF25NOPB</t>
+  </si>
+  <si>
+    <t>2.5V precision voltage reference</t>
+  </si>
+  <si>
+    <t>579-MCP2551-I/SN</t>
+  </si>
+  <si>
+    <t>CAN Transceiver</t>
+  </si>
+  <si>
+    <t>511-ST1480ABDR</t>
+  </si>
+  <si>
+    <t>SCHA4B0419</t>
+  </si>
+  <si>
+    <t>688-SCHA4B0419</t>
+  </si>
+  <si>
+    <t>ALPS</t>
+  </si>
+  <si>
+    <t>MicroSD card slot</t>
+  </si>
+  <si>
+    <t>RS485 Transceiver</t>
+  </si>
+  <si>
+    <t>AT45DB641E-SHN-B</t>
+  </si>
+  <si>
+    <t>988-AT45DB641E-SHN-B</t>
+  </si>
+  <si>
+    <t>64Mbit flash storage</t>
+  </si>
+  <si>
+    <t>Adesto Technologies</t>
+  </si>
+  <si>
+    <t>TPS563200DDCR</t>
+  </si>
+  <si>
+    <t>595-TPS563200DDCR</t>
+  </si>
+  <si>
+    <t>3.3V/5V Power Regulator</t>
+  </si>
+  <si>
+    <t>CX3225GB16000D0HPQCC</t>
+  </si>
+  <si>
+    <t>581-CX3225GB16DHPQCC</t>
+  </si>
+  <si>
+    <t>16mhz cyrstal</t>
+  </si>
+  <si>
+    <t>AVX</t>
+  </si>
+  <si>
+    <t>reset button</t>
+  </si>
+  <si>
+    <t>2N7002KT1G</t>
+  </si>
+  <si>
+    <t>863-2N7002KT1G</t>
+  </si>
+  <si>
+    <t>N channel mosfet</t>
+  </si>
+  <si>
+    <t>BSS215P H6327</t>
+  </si>
+  <si>
+    <t>726-BSS215PH6327XT</t>
+  </si>
+  <si>
+    <t>Infineon Technologies</t>
+  </si>
+  <si>
+    <t>P channel mosfet</t>
+  </si>
+  <si>
+    <t>Si5468DC-T1-GE3</t>
+  </si>
+  <si>
+    <t>781-SI5468DC-GE3</t>
+  </si>
+  <si>
+    <t>N channel power mosfet</t>
+  </si>
+  <si>
+    <t>SI3407DV-T1-GE3</t>
+  </si>
+  <si>
+    <t>781-SI3407DV-GE3</t>
+  </si>
+  <si>
+    <t>Vishay Semiconductors</t>
+  </si>
+  <si>
+    <t>Thermistor</t>
   </si>
 </sst>
 </file>
@@ -171,12 +675,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -215,8 +713,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +736,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,7 +797,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -317,7 +827,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -336,30 +846,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -371,9 +874,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -395,7 +895,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -405,12 +905,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -440,7 +954,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>533764</xdr:colOff>
+      <xdr:colOff>533763</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
@@ -792,40 +1306,40 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N82"/>
+  <dimension ref="A1:N112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="4.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" customWidth="1"/>
-    <col min="5" max="5" width="25.81640625" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.1796875" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="85.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -833,9 +1347,9 @@
       <c r="G2" s="1"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -844,7 +1358,7 @@
       <c r="G3" s="1"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -852,7 +1366,7 @@
       <c r="G4" s="1"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -860,7 +1374,7 @@
       <c r="G5" s="1"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -868,7 +1382,7 @@
       <c r="G6" s="1"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -876,7 +1390,7 @@
       <c r="G7" s="1"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -884,7 +1398,7 @@
       <c r="G8" s="1"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
@@ -922,65 +1436,81 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="34">
         <v>1</v>
       </c>
       <c r="B12" s="15">
         <v>1</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22">
+        <v>15</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20">
         <f>(B12*G12)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
+      <c r="I12" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="J12" s="21"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="34">
         <v>2</v>
       </c>
       <c r="B13" s="15">
         <v>3</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22">
+        <v>23</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="20">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H13" s="20">
         <f t="shared" ref="H13:H19" si="0">(B13*G13)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="25"/>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J13" s="22"/>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="34">
         <v>3</v>
       </c>
       <c r="B14" s="15">
@@ -989,130 +1519,190 @@
       <c r="C14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22">
+      <c r="D14" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="20">
+        <v>7.07</v>
+      </c>
+      <c r="H14" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="27"/>
+        <v>7.07</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" s="24"/>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="34">
         <v>4</v>
       </c>
       <c r="B15" s="15">
         <v>1</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0.48</v>
+      </c>
+      <c r="H15" s="20">
+        <f>(B15*G15)</f>
+        <v>0.48</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" s="21"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="34">
+        <v>5</v>
+      </c>
+      <c r="B16" s="15">
+        <v>1</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="H16" s="20">
+        <f t="shared" si="0"/>
+        <v>1.22</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="34">
+        <v>6</v>
+      </c>
+      <c r="B17" s="15">
+        <v>1</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="20">
+        <v>5.66</v>
+      </c>
+      <c r="H17" s="20">
+        <f t="shared" si="0"/>
+        <v>5.66</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="17"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="34">
+        <v>7</v>
+      </c>
+      <c r="B18" s="15">
+        <v>1</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22">
-        <f>(B15*G15)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="17"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
-        <v>5</v>
-      </c>
-      <c r="B16" s="15">
-        <v>1</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22">
+      <c r="D18" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="27">
+        <v>6.21</v>
+      </c>
+      <c r="H18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
-        <v>6</v>
-      </c>
-      <c r="B17" s="15">
-        <v>1</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22">
+        <v>6.21</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="17"/>
+    </row>
+    <row r="19" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="34">
+        <v>8</v>
+      </c>
+      <c r="B19" s="15">
+        <v>1</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" s="29">
+        <v>2.12</v>
+      </c>
+      <c r="H19" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="17"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
-        <v>7</v>
-      </c>
-      <c r="B18" s="15">
-        <v>1</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="17"/>
-    </row>
-    <row r="19" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
-        <v>8</v>
-      </c>
-      <c r="B19" s="15">
-        <v>1</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="32"/>
+        <v>2.12</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>161</v>
+      </c>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>9</v>
       </c>
@@ -1120,21 +1710,31 @@
         <v>1</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22">
+        <v>21</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="20">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H20" s="20">
         <f t="shared" ref="H20:H30" si="1">(B20*G20)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="24"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" s="21"/>
       <c r="K20" s="17"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>10</v>
       </c>
@@ -1142,990 +1742,1946 @@
         <v>1</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22">
+        <v>22</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" s="20">
+        <v>1.4</v>
+      </c>
+      <c r="H21" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="24"/>
+        <v>1.4</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" s="21"/>
       <c r="K21" s="17"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>11</v>
       </c>
       <c r="B22" s="15">
         <v>1</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22">
+      <c r="C22" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="H22" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="24"/>
+        <v>0.8</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J22" s="21"/>
       <c r="K22" s="17"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>12</v>
       </c>
       <c r="B23" s="15">
         <v>1</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22">
+      <c r="C23" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" s="20">
+        <v>4</v>
+      </c>
+      <c r="H23" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="24"/>
+        <v>4</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" s="21"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>13</v>
       </c>
       <c r="B24" s="15">
-        <v>1</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22">
+        <v>2</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" s="20">
+        <v>1.45</v>
+      </c>
+      <c r="H24" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="24"/>
+        <v>2.9</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="J24" s="21"/>
       <c r="K24" s="17"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>14</v>
       </c>
       <c r="B25" s="15">
         <v>1</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="22">
+      <c r="C25" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="29">
+        <v>0.72</v>
+      </c>
+      <c r="H25" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="24"/>
+        <v>0.72</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J25" s="21"/>
       <c r="K25" s="17"/>
     </row>
-    <row r="26" spans="1:12" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>15</v>
       </c>
       <c r="B26" s="15">
         <v>1</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="C26" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="26"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22">
+      <c r="F26" s="30"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="24"/>
+      <c r="I26" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="J26" s="21"/>
       <c r="K26" s="17"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>16</v>
       </c>
       <c r="B27" s="15">
-        <v>1</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+        <v>3</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="26"/>
       <c r="E27" s="15"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22">
+      <c r="F27" s="30"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I27" s="17"/>
-      <c r="J27" s="24"/>
+      <c r="I27" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="J27" s="21"/>
       <c r="K27" s="17"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>17</v>
       </c>
       <c r="B28" s="15">
-        <v>1</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22">
+        <v>2</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="G28" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="H28" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="17"/>
-      <c r="J28" s="24"/>
+        <v>0.4</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="J28" s="21"/>
       <c r="K28" s="17"/>
     </row>
-    <row r="29" spans="1:12" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>18</v>
       </c>
       <c r="B29" s="15">
         <v>1</v>
       </c>
-      <c r="C29" s="29"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22">
+      <c r="G29" s="20"/>
+      <c r="H29" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I29" s="17"/>
-      <c r="J29" s="24"/>
+      <c r="J29" s="21"/>
       <c r="K29" s="17"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>19</v>
       </c>
       <c r="B30" s="15">
         <v>1</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22">
+      <c r="C30" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" s="20">
+        <v>0.46</v>
+      </c>
+      <c r="H30" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="17"/>
-      <c r="J30" s="24"/>
+        <v>0.46</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="J30" s="21"/>
       <c r="K30" s="17"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>20</v>
       </c>
       <c r="B31" s="15">
-        <v>1</v>
-      </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22">
-        <f t="shared" ref="H31:H50" si="2">(B31*G31)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="17"/>
-      <c r="J31" s="24"/>
+        <v>3</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" s="20">
+        <v>0.52</v>
+      </c>
+      <c r="H31" s="20">
+        <f t="shared" ref="H31:H53" si="2">(B31*G31)</f>
+        <v>1.56</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="J31" s="21"/>
       <c r="K31" s="17"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>21</v>
       </c>
       <c r="B32" s="15">
-        <v>1</v>
-      </c>
-      <c r="C32" s="29"/>
+        <v>2</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>38</v>
+      </c>
       <c r="D32" s="17"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22">
+      <c r="G32" s="20"/>
+      <c r="H32" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I32" s="17"/>
-      <c r="J32" s="24"/>
+      <c r="J32" s="21"/>
       <c r="K32" s="17"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>22</v>
       </c>
       <c r="B33" s="15">
         <v>1</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22">
+      <c r="C33" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="G33" s="20">
+        <v>0.52</v>
+      </c>
+      <c r="H33" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="17"/>
-      <c r="J33" s="24"/>
+        <v>0.52</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="J33" s="21"/>
       <c r="K33" s="17"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>23</v>
       </c>
       <c r="B34" s="15">
         <v>1</v>
       </c>
-      <c r="C34" s="29"/>
+      <c r="C34" s="26" t="s">
+        <v>40</v>
+      </c>
       <c r="D34" s="17"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22">
+      <c r="G34" s="20"/>
+      <c r="H34" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I34" s="17"/>
-      <c r="J34" s="24"/>
+      <c r="J34" s="21"/>
       <c r="K34" s="17"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>24</v>
       </c>
       <c r="B35" s="15">
         <v>1</v>
       </c>
-      <c r="C35" s="29"/>
+      <c r="C35" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="D35" s="17"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22">
+      <c r="G35" s="20"/>
+      <c r="H35" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I35" s="17"/>
-      <c r="J35" s="24"/>
+      <c r="J35" s="21"/>
       <c r="K35" s="17"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>25</v>
       </c>
       <c r="B36" s="15">
         <v>1</v>
       </c>
-      <c r="C36" s="29"/>
+      <c r="C36" s="26" t="s">
+        <v>42</v>
+      </c>
       <c r="D36" s="17"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22">
+      <c r="G36" s="20"/>
+      <c r="H36" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I36" s="17"/>
-      <c r="J36" s="24"/>
+      <c r="J36" s="21"/>
       <c r="K36" s="17"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>26</v>
       </c>
       <c r="B37" s="15">
         <v>1</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
+      <c r="C37" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
       <c r="F37" s="17"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22">
+      <c r="G37" s="20"/>
+      <c r="H37" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I37" s="17"/>
-      <c r="J37" s="24"/>
+      <c r="J37" s="21"/>
       <c r="K37" s="17"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="38">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="34">
         <v>27</v>
       </c>
       <c r="B38" s="15">
         <v>1</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17" t="s">
+        <v>44</v>
+      </c>
       <c r="D38" s="17"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22">
+      <c r="G38" s="20"/>
+      <c r="H38" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I38" s="17"/>
-      <c r="J38" s="24"/>
+      <c r="J38" s="21"/>
       <c r="K38" s="17"/>
       <c r="L38" s="2"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="38">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="34">
         <v>28</v>
       </c>
       <c r="B39" s="15">
         <v>1</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="D39" s="17"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="F39" s="15"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22">
+      <c r="G39" s="20"/>
+      <c r="H39" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I39" s="17"/>
-      <c r="J39" s="24"/>
+      <c r="J39" s="21"/>
       <c r="K39" s="17"/>
       <c r="L39" s="2"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="38">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="34">
         <v>29</v>
       </c>
       <c r="B40" s="15">
-        <v>1</v>
-      </c>
-      <c r="C40" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="13"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22">
+      <c r="G40" s="20"/>
+      <c r="H40" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I40" s="17"/>
-      <c r="J40" s="24"/>
+      <c r="J40" s="21"/>
       <c r="K40" s="17"/>
       <c r="L40" s="3"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="39">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="35">
         <v>30</v>
       </c>
       <c r="B41" s="15">
         <v>1</v>
       </c>
-      <c r="C41" s="17"/>
+      <c r="C41" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="D41" s="17"/>
       <c r="E41" s="15"/>
       <c r="F41" s="13"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22">
+      <c r="G41" s="20"/>
+      <c r="H41" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I41" s="15"/>
-      <c r="J41" s="24"/>
+      <c r="J41" s="21"/>
       <c r="K41" s="17"/>
       <c r="L41" s="3"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="38">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="34">
         <v>31</v>
       </c>
       <c r="B42" s="15">
         <v>1</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="D42" s="17"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22">
+      <c r="G42" s="20"/>
+      <c r="H42" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I42" s="17"/>
-      <c r="J42" s="24"/>
+      <c r="J42" s="21"/>
       <c r="K42" s="17"/>
       <c r="L42" s="3"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="38">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="34">
         <v>32</v>
       </c>
       <c r="B43" s="15">
         <v>1</v>
       </c>
-      <c r="C43" s="17"/>
+      <c r="C43" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="D43" s="17"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22">
+      <c r="G43" s="20"/>
+      <c r="H43" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I43" s="15"/>
-      <c r="J43" s="24"/>
+      <c r="J43" s="21"/>
       <c r="K43" s="17"/>
       <c r="L43" s="3"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="38">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="34">
         <v>33</v>
       </c>
       <c r="B44" s="15">
-        <v>1</v>
-      </c>
-      <c r="C44" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="D44" s="17"/>
-      <c r="E44" s="15"/>
+      <c r="E44" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="F44" s="15"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22">
+      <c r="G44" s="20"/>
+      <c r="H44" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I44" s="17"/>
-      <c r="J44" s="25"/>
+      <c r="J44" s="22"/>
       <c r="K44" s="17"/>
       <c r="L44" s="3"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="38">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="34">
         <v>34</v>
       </c>
       <c r="B45" s="15">
         <v>1</v>
       </c>
-      <c r="C45" s="32"/>
+      <c r="C45" s="28" t="s">
+        <v>53</v>
+      </c>
       <c r="D45" s="17"/>
       <c r="E45" s="15"/>
       <c r="F45" s="17"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22">
+      <c r="G45" s="20"/>
+      <c r="H45" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I45" s="17"/>
-      <c r="J45" s="24"/>
+      <c r="J45" s="21"/>
       <c r="K45" s="17"/>
       <c r="L45" s="3"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="38">
+    <row r="46" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="34">
         <v>35</v>
       </c>
       <c r="B46" s="15">
         <v>1</v>
       </c>
-      <c r="C46" s="17"/>
+      <c r="C46" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="D46" s="17"/>
       <c r="E46" s="15"/>
       <c r="F46" s="17"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22">
+      <c r="G46" s="20"/>
+      <c r="H46" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I46" s="17"/>
-      <c r="J46" s="24"/>
+      <c r="J46" s="21"/>
       <c r="K46" s="17"/>
       <c r="L46" s="3"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="38">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="34">
         <v>36</v>
       </c>
       <c r="B47" s="15">
-        <v>1</v>
-      </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
+        <v>4</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="28"/>
       <c r="E47" s="17"/>
       <c r="F47" s="15"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22">
+      <c r="G47" s="20"/>
+      <c r="H47" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I47" s="37"/>
-      <c r="J47" s="41"/>
+      <c r="I47" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="J47" s="37"/>
       <c r="K47" s="17"/>
       <c r="L47" s="3"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="38">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="34">
         <v>37</v>
       </c>
       <c r="B48" s="15">
-        <v>1</v>
-      </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
+        <v>7</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>106</v>
+      </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22">
+      <c r="G48" s="20"/>
+      <c r="H48" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I48" s="17"/>
+      <c r="I48" s="17" t="s">
+        <v>107</v>
+      </c>
       <c r="J48" s="17"/>
       <c r="K48" s="17"/>
       <c r="L48" s="3"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="38">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="34">
         <v>38</v>
       </c>
       <c r="B49" s="15">
-        <v>1</v>
-      </c>
-      <c r="C49" s="17"/>
+        <v>4</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="D49" s="17"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22">
+      <c r="G49" s="20"/>
+      <c r="H49" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I49" s="17"/>
+      <c r="I49" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="J49" s="15"/>
       <c r="K49" s="15"/>
       <c r="L49" s="3"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="14">
         <v>39</v>
       </c>
       <c r="B50" s="15">
-        <v>1</v>
-      </c>
-      <c r="C50" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="D50" s="17"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22">
+      <c r="G50" s="20"/>
+      <c r="H50" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="17"/>
+      <c r="I50" s="17" t="s">
+        <v>62</v>
+      </c>
       <c r="J50" s="15"/>
       <c r="K50" s="15"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
         <v>40</v>
       </c>
       <c r="B51" s="15">
-        <v>1</v>
-      </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="15"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="14">
         <v>41</v>
       </c>
       <c r="B52" s="15">
-        <v>1</v>
-      </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
+        <v>3</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="14">
+        <v>42</v>
+      </c>
+      <c r="B53" s="15">
+        <v>1</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="15"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="40">
-        <v>42</v>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="14">
+        <v>43</v>
       </c>
       <c r="B54" s="15">
-        <v>1</v>
-      </c>
-      <c r="C54" s="17"/>
+        <v>5</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="D54" s="17"/>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22">
-        <f t="shared" ref="H54:H61" si="3">(B54*G54)</f>
-        <v>0</v>
-      </c>
-      <c r="I54" s="17"/>
-      <c r="J54" s="24"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20">
+        <f t="shared" ref="H54:H91" si="3">(B54*G54)</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J54" s="21"/>
       <c r="K54" s="17"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="40">
-        <v>43</v>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="14">
+        <v>44</v>
       </c>
       <c r="B55" s="15">
-        <v>1</v>
-      </c>
-      <c r="C55" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>69</v>
+      </c>
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
       <c r="F55" s="15"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22">
+      <c r="G55" s="20"/>
+      <c r="H55" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I55" s="15"/>
+      <c r="I55" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="J55" s="15"/>
       <c r="K55" s="17"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="40">
-        <v>44</v>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="14">
+        <v>45</v>
       </c>
       <c r="B56" s="15">
-        <v>1</v>
-      </c>
-      <c r="C56" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>72</v>
+      </c>
       <c r="D56" s="17"/>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22">
+      <c r="G56" s="20"/>
+      <c r="H56" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I56" s="15"/>
+      <c r="I56" s="17" t="s">
+        <v>71</v>
+      </c>
       <c r="J56" s="15"/>
       <c r="K56" s="17"/>
-      <c r="L56" s="36"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="40">
-        <v>45</v>
+      <c r="L56" s="32"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="14">
+        <v>46</v>
       </c>
       <c r="B57" s="15">
-        <v>12</v>
-      </c>
-      <c r="C57" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>73</v>
+      </c>
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22">
+      <c r="G57" s="20"/>
+      <c r="H57" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I57" s="17"/>
-      <c r="J57" s="24"/>
+      <c r="I57" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J57" s="21"/>
       <c r="K57" s="17"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="40">
-        <v>46</v>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="14">
+        <v>47</v>
       </c>
       <c r="B58" s="15">
         <v>2</v>
       </c>
-      <c r="C58" s="17"/>
+      <c r="C58" s="17" t="s">
+        <v>75</v>
+      </c>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22">
+      <c r="G58" s="20"/>
+      <c r="H58" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I58" s="17"/>
-      <c r="J58" s="24"/>
+      <c r="I58" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J58" s="21"/>
       <c r="K58" s="17"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="40">
-        <v>47</v>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="14">
+        <v>48</v>
       </c>
       <c r="B59" s="15">
-        <v>2</v>
-      </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
       <c r="F59" s="17"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22">
+      <c r="G59" s="20"/>
+      <c r="H59" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I59" s="17"/>
-      <c r="J59" s="24"/>
+      <c r="I59" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J59" s="21"/>
       <c r="K59" s="17"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="40">
-        <v>48</v>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="14">
+        <v>49</v>
       </c>
       <c r="B60" s="15">
-        <v>2</v>
-      </c>
-      <c r="C60" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>79</v>
+      </c>
       <c r="D60" s="17"/>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22">
+      <c r="G60" s="20"/>
+      <c r="H60" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I60" s="17"/>
-      <c r="J60" s="24"/>
+      <c r="I60" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="J60" s="21"/>
       <c r="K60" s="15"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="40">
-        <v>49</v>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="14">
+        <v>50</v>
       </c>
       <c r="B61" s="15">
         <v>1</v>
       </c>
-      <c r="C61" s="17"/>
+      <c r="C61" s="17" t="s">
+        <v>81</v>
+      </c>
       <c r="D61" s="17"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22">
+      <c r="G61" s="20"/>
+      <c r="H61" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I61" s="17"/>
-      <c r="J61" s="24"/>
+      <c r="I61" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J61" s="21"/>
       <c r="K61" s="15"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="40">
-        <v>50</v>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="14">
+        <v>51</v>
       </c>
       <c r="B62" s="15">
-        <v>4</v>
-      </c>
-      <c r="C62" s="15"/>
+        <v>8</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D62" s="17"/>
-      <c r="E62" s="20"/>
+      <c r="E62" s="15"/>
       <c r="F62" s="15"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22">
-        <f t="shared" ref="H62:H65" si="4">(B62*G62)</f>
-        <v>0</v>
-      </c>
-      <c r="I62" s="17"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="2"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="40">
-        <v>51</v>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J62" s="21"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="14">
+        <v>52</v>
       </c>
       <c r="B63" s="15">
         <v>1</v>
       </c>
-      <c r="C63" s="15"/>
+      <c r="C63" s="17" t="s">
+        <v>84</v>
+      </c>
       <c r="D63" s="17"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="17"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="2"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="40">
-        <v>52</v>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="J63" s="21"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="14">
+        <v>53</v>
       </c>
       <c r="B64" s="15">
-        <v>1</v>
-      </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" s="17"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="32"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="40">
-        <v>53</v>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J64" s="21"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="14">
+        <v>54</v>
       </c>
       <c r="B65" s="15">
-        <v>1</v>
-      </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
+        <v>7</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65" s="17"/>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22">
+      <c r="G65" s="20"/>
+      <c r="H65" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="J65" s="21"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="14">
+        <v>55</v>
+      </c>
+      <c r="B66" s="15">
+        <v>1</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="17"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J66" s="21"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="14">
+        <v>56</v>
+      </c>
+      <c r="B67" s="15">
+        <v>1</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" s="17"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="J67" s="21"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="14">
+        <v>57</v>
+      </c>
+      <c r="B68" s="15">
+        <v>2</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" s="17"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="J68" s="21"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="14">
+        <v>58</v>
+      </c>
+      <c r="B69" s="15">
+        <v>2</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D69" s="17"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="J69" s="21"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="14">
+        <v>59</v>
+      </c>
+      <c r="B70" s="15">
+        <v>2</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" s="17"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="J70" s="21"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="14">
+        <v>60</v>
+      </c>
+      <c r="B71" s="15">
+        <v>3</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" s="17"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="J71" s="21"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="40"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="40"/>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="36">
+        <v>1</v>
+      </c>
+      <c r="B73" s="15">
+        <v>1</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" s="15"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="17"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="36">
+        <v>2</v>
+      </c>
+      <c r="B74" s="15">
+        <v>1</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F74" s="15"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="17"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="36">
+        <v>3</v>
+      </c>
+      <c r="B75" s="15">
+        <v>1</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F75" s="15"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="17"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="36">
+        <v>4</v>
+      </c>
+      <c r="B76" s="15">
+        <v>1</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F76" s="15"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="17"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="36">
+        <v>5</v>
+      </c>
+      <c r="B77" s="15">
+        <v>1</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F77" s="15"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="17"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="36">
+        <v>6</v>
+      </c>
+      <c r="B78" s="15">
+        <v>1</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F78" s="15"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="17"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="3"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="36">
+        <v>7</v>
+      </c>
+      <c r="B79" s="15">
+        <v>1</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" s="17"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="17"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="3"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="36">
+        <v>8</v>
+      </c>
+      <c r="B80" s="15">
+        <v>1</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F80" s="15"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="J80" s="21"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="3"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="36">
+        <v>9</v>
+      </c>
+      <c r="B81" s="15">
+        <v>1</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" s="17"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I81" s="17"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="36">
+        <v>10</v>
+      </c>
+      <c r="B82" s="15">
+        <v>1</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D82" s="17"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="21"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="36">
+        <v>11</v>
+      </c>
+      <c r="B83" s="15">
+        <v>1</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D83" s="17"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I83" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="J83" s="21"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="36">
+        <v>12</v>
+      </c>
+      <c r="B84" s="15">
+        <v>1</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D84" s="17"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I84" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="J84" s="21"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="36">
+        <v>13</v>
+      </c>
+      <c r="B85" s="15">
+        <v>1</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D85" s="17"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I85" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="J85" s="21"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" s="36">
+        <v>14</v>
+      </c>
+      <c r="B86" s="15">
+        <v>1</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D86" s="17"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J86" s="21"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" s="36">
+        <v>15</v>
+      </c>
+      <c r="B87" s="15">
+        <v>1</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D87" s="17"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I87" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="J87" s="21"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" s="36">
+        <v>16</v>
+      </c>
+      <c r="B88" s="15">
+        <v>1</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D88" s="17"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I88" s="17"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" s="36">
+        <v>17</v>
+      </c>
+      <c r="B89" s="15">
+        <v>1</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D89" s="17"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I89" s="17"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="36">
+        <v>18</v>
+      </c>
+      <c r="B90" s="15">
+        <v>1</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D90" s="17"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I90" s="17"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" s="36">
+        <v>19</v>
+      </c>
+      <c r="B91" s="15">
+        <v>1</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D91" s="17"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I91" s="17"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" s="36">
+        <v>20</v>
+      </c>
+      <c r="B92" s="15">
+        <v>1</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D92" s="17"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20">
+        <f t="shared" ref="H92:H95" si="4">(B92*G92)</f>
+        <v>0</v>
+      </c>
+      <c r="I92" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J92" s="21"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="2"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" s="36">
+        <v>21</v>
+      </c>
+      <c r="B93" s="15">
+        <v>1</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D93" s="17"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I65" s="32"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I68" s="12"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H69" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I69" s="5"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H70" s="9">
-        <f>SUM(H12:H19)</f>
-        <v>0</v>
-      </c>
-      <c r="I70" s="5"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H71" s="1"/>
-      <c r="I71" s="6"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H72" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H73" s="9">
-        <f>SUM(H20:H52)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H75" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H76" s="9">
-        <f>SUM(H54:H65)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H78" s="7" t="s">
+      <c r="I93" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="J93" s="21"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="2"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" s="36">
+        <v>22</v>
+      </c>
+      <c r="B94" s="15">
+        <v>1</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I94" s="28"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="18"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" s="36">
+        <v>23</v>
+      </c>
+      <c r="B95" s="15">
+        <v>1</v>
+      </c>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I95" s="28"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="18"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="98" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="I98" s="12"/>
+    </row>
+    <row r="99" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H99" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="I99" s="5"/>
+    </row>
+    <row r="100" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H100" s="9">
+        <f>SUM(H12:H71)</f>
+        <v>38.290000000000006</v>
+      </c>
+      <c r="I100" s="5"/>
+    </row>
+    <row r="101" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H101" s="1"/>
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H102" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I102" s="3"/>
+    </row>
+    <row r="103" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H103" s="9">
+        <f>SUM(H73:H95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H105" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H79" s="9">
-        <f>SUM(H12:H65)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H82" s="11"/>
+    <row r="106" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H106" s="9">
+        <f>SUM(H100+H103)</f>
+        <v>38.290000000000006</v>
+      </c>
+    </row>
+    <row r="112" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H112" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SPEX HAB2 BOM.xlsx
+++ b/SPEX HAB2 BOM.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Turnkey" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Turnkey!$A$1:$K$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Turnkey!$A$1:$K$56</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="338">
   <si>
     <t>Description</t>
   </si>
@@ -153,12 +153,6 @@
     <t>D2</t>
   </si>
   <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
     <t>D5,D6</t>
   </si>
   <si>
@@ -180,9 +174,6 @@
     <t>K1,K2</t>
   </si>
   <si>
-    <t>G5LE_1A4_DC3</t>
-  </si>
-  <si>
     <t>P1</t>
   </si>
   <si>
@@ -216,9 +207,6 @@
     <t>R14,R15,R16</t>
   </si>
   <si>
-    <t>12k ohm resistor</t>
-  </si>
-  <si>
     <t>R17</t>
   </si>
   <si>
@@ -285,21 +273,9 @@
     <t>2.2uF capacitor</t>
   </si>
   <si>
-    <t>0.1uF capacitor</t>
-  </si>
-  <si>
-    <t>C6,C19</t>
-  </si>
-  <si>
-    <t>C9,C10,C11,C13,C15,C109,C121</t>
-  </si>
-  <si>
     <t>100nF capacitor</t>
   </si>
   <si>
-    <t>10nF capacitor</t>
-  </si>
-  <si>
     <t>C12</t>
   </si>
   <si>
@@ -343,12 +319,6 @@
   </si>
   <si>
     <t>Molex</t>
-  </si>
-  <si>
-    <t>UltraFit 2pin</t>
-  </si>
-  <si>
-    <t>JST PH 4 pin</t>
   </si>
   <si>
     <r>
@@ -403,9 +373,6 @@
     <t>BMP180</t>
   </si>
   <si>
-    <t>LT6105</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -457,9 +424,6 @@
     <t>C1,C2,C5,C7</t>
   </si>
   <si>
-    <t>C3,C4</t>
-  </si>
-  <si>
     <t>C18</t>
   </si>
   <si>
@@ -644,6 +608,468 @@
   </si>
   <si>
     <t>Thermistor</t>
+  </si>
+  <si>
+    <t>AP1608SGC</t>
+  </si>
+  <si>
+    <t>604-AP1608SGC</t>
+  </si>
+  <si>
+    <t>Kingbright</t>
+  </si>
+  <si>
+    <t>Green LED</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/216/AP1608SGC-29521.pdf</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>583-FM5819</t>
+  </si>
+  <si>
+    <t>relay diode</t>
+  </si>
+  <si>
+    <t>DO-214AC</t>
+  </si>
+  <si>
+    <t>DIGIKEY</t>
+  </si>
+  <si>
+    <t>Z3697-ND</t>
+  </si>
+  <si>
+    <t>10A Relay</t>
+  </si>
+  <si>
+    <t>Thru Hole</t>
+  </si>
+  <si>
+    <t>172310-1102</t>
+  </si>
+  <si>
+    <t>538-172310-1102</t>
+  </si>
+  <si>
+    <t>JST (Sparkfun)</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/9916</t>
+  </si>
+  <si>
+    <t>PRT-09916 </t>
+  </si>
+  <si>
+    <t>JST PH 4 pin (full assembly)</t>
+  </si>
+  <si>
+    <t>538-172256-1102</t>
+  </si>
+  <si>
+    <t>172256-1102</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/276/1722561102_CRIMP_HOUSINGS-705529.pdf</t>
+  </si>
+  <si>
+    <t>UltraFit 2pin (female)</t>
+  </si>
+  <si>
+    <t>UltraFit 2pin Header(male)</t>
+  </si>
+  <si>
+    <t>ultrafit  contacts (20awg wire)</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/276/1722533023_sd-587746.pdf</t>
+  </si>
+  <si>
+    <t>WM11561CT-ND</t>
+  </si>
+  <si>
+    <t>Rectron</t>
+  </si>
+  <si>
+    <t>G5LE-1A4 DC3</t>
+  </si>
+  <si>
+    <t>Omron Electronics</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>SOT23-6</t>
+  </si>
+  <si>
+    <t>667-ERJ-3EKF1001V</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF1001V</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>order 100</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/315/AOA0000CE2-37512.pdf</t>
+  </si>
+  <si>
+    <t>ERJ-3GEYJ103V</t>
+  </si>
+  <si>
+    <t>667-ERJ-3GEYJ103V</t>
+  </si>
+  <si>
+    <t>71-CRCW0603-33-E3</t>
+  </si>
+  <si>
+    <t>CRCW060333R0FKEA</t>
+  </si>
+  <si>
+    <t>Vishay / Dale</t>
+  </si>
+  <si>
+    <t>754-RR0816P-123D</t>
+  </si>
+  <si>
+    <t>Susumu</t>
+  </si>
+  <si>
+    <t>RR0816P-123-D</t>
+  </si>
+  <si>
+    <t>12k ohm resistor (0.5%)</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/392/susumu_RR_Data_Sheet-358748.pdf</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>660-RK73B1JTTDD241J</t>
+  </si>
+  <si>
+    <t>KOA Speer</t>
+  </si>
+  <si>
+    <t>RK73B1JTTDD241J</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/219/RK73B-919.pdf</t>
+  </si>
+  <si>
+    <t>Blue LED</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF4701V</t>
+  </si>
+  <si>
+    <t>667-ERJ-3EKF4701V</t>
+  </si>
+  <si>
+    <t>RK73B1JTTDD121J</t>
+  </si>
+  <si>
+    <t>660-RK73B1JTTDD121J</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF3322V</t>
+  </si>
+  <si>
+    <t>667-ERJ-3EKF3322V</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/427/dcrcwe3-109170.pdf</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF5622V</t>
+  </si>
+  <si>
+    <t>667-ERJ-3EKF5622V</t>
+  </si>
+  <si>
+    <t>667-ERJ-3EKF10R0V</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF10R0V</t>
+  </si>
+  <si>
+    <t>CR0603-FX-2742ELF</t>
+  </si>
+  <si>
+    <t>652-CR0603FX-2742ELF</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/54/hpreztr-777398.pdf</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF1022V</t>
+  </si>
+  <si>
+    <t>667-ERJ-3EKF1022V</t>
+  </si>
+  <si>
+    <t>RCA0603100KJNEC</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>71-RCA0603100KJNEC</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/427/rcae3-515375.pdf</t>
+  </si>
+  <si>
+    <t>Wurth Electronics</t>
+  </si>
+  <si>
+    <t>710-885012206071</t>
+  </si>
+  <si>
+    <t>885012206071</t>
+  </si>
+  <si>
+    <t>885012106017</t>
+  </si>
+  <si>
+    <t>710-885012106017</t>
+  </si>
+  <si>
+    <t>C109</t>
+  </si>
+  <si>
+    <t>885012105016</t>
+  </si>
+  <si>
+    <t>710-885012105016</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/445/885012105016-611018.pdf</t>
+  </si>
+  <si>
+    <t>C6,C9,C10,C11,C13,C15, C19,C121</t>
+  </si>
+  <si>
+    <t>100nF capacitor (0.1uf)</t>
+  </si>
+  <si>
+    <t>CC0603MRX5R5BB225</t>
+  </si>
+  <si>
+    <t>603-CC603MRX5R5BB225</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/447/UPY-GPHC_X5R_4V-to-50V_14_0717-202131.pdf</t>
+  </si>
+  <si>
+    <t>10nF capacitor (0.01uf)</t>
+  </si>
+  <si>
+    <t>885012206040</t>
+  </si>
+  <si>
+    <t>710-885012206040</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/445/885012206040-555095.pdf</t>
+  </si>
+  <si>
+    <t>CC0603KRX5R5BB475</t>
+  </si>
+  <si>
+    <t>603-CC603KRX5R5BB475</t>
+  </si>
+  <si>
+    <t>GRM188R61A106KE69J</t>
+  </si>
+  <si>
+    <t>81-GRM188R61A106KE9J</t>
+  </si>
+  <si>
+    <t>http://www.murata.com/products/catalog/pdf/c02e.pdf</t>
+  </si>
+  <si>
+    <t>Murata Electronics</t>
+  </si>
+  <si>
+    <t>CC1206MKX5R5BB476</t>
+  </si>
+  <si>
+    <t>603-CC126MKX5R5BB476</t>
+  </si>
+  <si>
+    <t>GRM31CR61E226ME15L</t>
+  </si>
+  <si>
+    <t>81-GRM31CR61E226ME5L</t>
+  </si>
+  <si>
+    <t>VJ1206Y104JXBTW1BC</t>
+  </si>
+  <si>
+    <t>77-VJ1206Y104JXBTBC</t>
+  </si>
+  <si>
+    <t>Vishay / Vitramon</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/427/vjw1bcbascomseries-223529.pdf</t>
+  </si>
+  <si>
+    <t>CONN</t>
+  </si>
+  <si>
+    <t>SO-8</t>
+  </si>
+  <si>
+    <t>LT6105HDCB#TRMPBFTR-ND</t>
+  </si>
+  <si>
+    <t>LT6105HDCB#TRMPBF</t>
+  </si>
+  <si>
+    <t>Current Sense Op Amp</t>
+  </si>
+  <si>
+    <t>6-WFDFN</t>
+  </si>
+  <si>
+    <t>942-IRLL3303PBF</t>
+  </si>
+  <si>
+    <t>Niachrome trigger mosfet</t>
+  </si>
+  <si>
+    <t>SOT-223-4</t>
+  </si>
+  <si>
+    <t>538-53047-0610</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>CRCW04020000Z0ED</t>
+  </si>
+  <si>
+    <t>71-CRCW0402-0-E3</t>
+  </si>
+  <si>
+    <t>660-RK73B1ETTP101J</t>
+  </si>
+  <si>
+    <t>RK73B1ETTP101J</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF4701X</t>
+  </si>
+  <si>
+    <t>667-ERJ-2RKF4701X</t>
+  </si>
+  <si>
+    <t>ERJ-2GEJ202X</t>
+  </si>
+  <si>
+    <t>667-ERJ-2GEJ202X</t>
+  </si>
+  <si>
+    <t>RK73H1ETTP1200F</t>
+  </si>
+  <si>
+    <t>660-RK73H1ETTP1200F</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/219/RK73H-5715.pdf</t>
+  </si>
+  <si>
+    <t>885012105012</t>
+  </si>
+  <si>
+    <t>710-885012105012</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/445/885012105012-555006.pdf</t>
+  </si>
+  <si>
+    <t>LB Q39G-L2OO-35-1</t>
+  </si>
+  <si>
+    <t>720-LBQ39GL2N2351</t>
+  </si>
+  <si>
+    <t>OSRAM Opto</t>
+  </si>
+  <si>
+    <t>D3,D4</t>
+  </si>
+  <si>
+    <t>LS Q976-NR-1</t>
+  </si>
+  <si>
+    <t>720-LSQ976-NR-1</t>
+  </si>
+  <si>
+    <t>Red LED</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/311/LS%20Q976%20-%20CHIPLED%200603-741036.pdf</t>
+  </si>
+  <si>
+    <t>NTCLE100E3103JB0</t>
+  </si>
+  <si>
+    <t>594-2381-640-63103</t>
+  </si>
+  <si>
+    <t>Vishay / BC Components</t>
+  </si>
+  <si>
+    <t>BULK</t>
+  </si>
+  <si>
+    <t>222AMVBAR</t>
+  </si>
+  <si>
+    <t>774-222AMVBAR</t>
+  </si>
+  <si>
+    <t>CTS Electronic Components</t>
+  </si>
+  <si>
+    <t>Gull Wing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear Technology </t>
+  </si>
+  <si>
+    <t>International Rectifier</t>
   </si>
 </sst>
 </file>
@@ -797,7 +1223,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -846,7 +1272,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -904,10 +1329,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -925,6 +1346,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -954,7 +1378,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>533763</xdr:colOff>
+      <xdr:colOff>533764</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
@@ -1306,10 +1730,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N112"/>
+  <dimension ref="A1:R114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1317,29 +1741,29 @@
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.140625" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1347,9 +1771,9 @@
       <c r="G2" s="1"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1358,7 +1782,7 @@
       <c r="G3" s="1"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1366,7 +1790,7 @@
       <c r="G4" s="1"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1374,7 +1798,7 @@
       <c r="G5" s="1"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1382,7 +1806,7 @@
       <c r="G6" s="1"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1390,7 +1814,7 @@
       <c r="G7" s="1"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1398,7 +1822,7 @@
       <c r="G8" s="1"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
@@ -1435,22 +1859,25 @@
       <c r="L10" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="34">
+      <c r="R10" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="33">
         <v>1</v>
       </c>
       <c r="B12" s="15">
@@ -1460,25 +1887,29 @@
         <v>15</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20">
+      <c r="F12" s="18"/>
+      <c r="G12" s="19">
+        <v>6</v>
+      </c>
+      <c r="H12" s="19">
         <f>(B12*G12)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="34">
+        <v>141</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="33">
         <v>2</v>
       </c>
       <c r="B13" s="15">
@@ -1488,29 +1919,31 @@
         <v>23</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="20">
+        <v>125</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="19">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <f t="shared" ref="H13:H19" si="0">(B13*G13)</f>
         <v>1.6500000000000001</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="17"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="34">
+        <v>143</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="33">
         <v>3</v>
       </c>
       <c r="B14" s="15">
@@ -1520,186 +1953,200 @@
         <v>14</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" s="20">
+        <v>130</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="19">
         <v>7.07</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <f t="shared" si="0"/>
         <v>7.07</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="17"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="34">
+        <v>140</v>
+      </c>
+      <c r="J14" s="23"/>
+      <c r="K14" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="33">
         <v>4</v>
       </c>
       <c r="B15" s="15">
         <v>1</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="G15" s="20">
+        <v>131</v>
+      </c>
+      <c r="G15" s="19">
         <v>0.48</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <f>(B15*G15)</f>
         <v>0.48</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="17"/>
-    </row>
-    <row r="16" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="34">
+        <v>142</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33">
         <v>5</v>
       </c>
       <c r="B16" s="15">
         <v>1</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>146</v>
+      <c r="D16" s="25" t="s">
+        <v>134</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="G16" s="20">
+        <v>133</v>
+      </c>
+      <c r="G16" s="19">
         <v>1.22</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <f t="shared" si="0"/>
         <v>1.22</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="17"/>
+        <v>144</v>
+      </c>
+      <c r="J16" s="20"/>
+      <c r="K16" s="17" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="34">
+      <c r="A17" s="33">
         <v>6</v>
       </c>
       <c r="B17" s="15">
         <v>1</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17" s="26" t="s">
+      <c r="D17" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="25" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="20">
+        <v>135</v>
+      </c>
+      <c r="G17" s="19">
         <v>5.66</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <f t="shared" si="0"/>
         <v>5.66</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="17"/>
+        <v>145</v>
+      </c>
+      <c r="J17" s="20"/>
+      <c r="K17" s="17" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="34">
+      <c r="A18" s="33">
         <v>7</v>
       </c>
       <c r="B18" s="15">
         <v>1</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>151</v>
+      <c r="D18" s="25" t="s">
+        <v>139</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="G18" s="27">
+        <v>137</v>
+      </c>
+      <c r="G18" s="26">
         <v>6.21</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="19">
         <f t="shared" si="0"/>
         <v>6.21</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="17"/>
+        <v>146</v>
+      </c>
+      <c r="J18" s="20"/>
+      <c r="K18" s="17" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34">
+      <c r="A19" s="33">
         <v>8</v>
       </c>
       <c r="B19" s="15">
         <v>1</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="G19" s="29">
+      <c r="D19" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" s="28">
         <v>2.12</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="19">
         <f t="shared" si="0"/>
         <v>2.12</v>
       </c>
-      <c r="I19" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="I19" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1712,27 +2159,29 @@
       <c r="C20" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>146</v>
+      <c r="D20" s="25" t="s">
+        <v>134</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>27</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="G20" s="20">
+        <v>150</v>
+      </c>
+      <c r="G20" s="19">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="19">
         <f t="shared" ref="H20:H30" si="1">(B20*G20)</f>
         <v>1.1200000000000001</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="17"/>
+        <v>151</v>
+      </c>
+      <c r="J20" s="20"/>
+      <c r="K20" s="17" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
@@ -1744,27 +2193,31 @@
       <c r="C21" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>151</v>
+      <c r="D21" s="25" t="s">
+        <v>139</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="G21" s="20">
+        <v>152</v>
+      </c>
+      <c r="G21" s="19">
         <v>1.4</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="19">
         <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="17"/>
+        <v>157</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1774,30 +2227,32 @@
       <c r="B22" s="15">
         <v>1</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>167</v>
+      <c r="D22" s="25" t="s">
+        <v>155</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="G22" s="20">
+        <v>154</v>
+      </c>
+      <c r="G22" s="19">
         <v>0.8</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="19">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="17"/>
+        <v>156</v>
+      </c>
+      <c r="J22" s="20"/>
+      <c r="K22" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1807,30 +2262,32 @@
       <c r="B23" s="15">
         <v>1</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="G23" s="20">
+      <c r="D23" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="19">
         <v>4</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="19">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="J23" s="21"/>
-      <c r="K23" s="17"/>
+        <v>160</v>
+      </c>
+      <c r="J23" s="20"/>
+      <c r="K23" s="17" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
@@ -1839,30 +2296,32 @@
       <c r="B24" s="15">
         <v>2</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="26" t="s">
-        <v>103</v>
+      <c r="D24" s="25" t="s">
+        <v>95</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="G24" s="20">
+        <v>163</v>
+      </c>
+      <c r="G24" s="19">
         <v>1.45</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="19">
         <f t="shared" si="1"/>
         <v>2.9</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="17"/>
+        <v>164</v>
+      </c>
+      <c r="J24" s="20"/>
+      <c r="K24" s="17" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
@@ -1871,30 +2330,32 @@
       <c r="B25" s="15">
         <v>1</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>177</v>
+      <c r="D25" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>165</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="G25" s="29">
+        <v>166</v>
+      </c>
+      <c r="G25" s="28">
         <v>0.72</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="19">
         <f t="shared" si="1"/>
         <v>0.72</v>
       </c>
-      <c r="I25" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="17"/>
+      <c r="I25" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="J25" s="20"/>
+      <c r="K25" s="17" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
@@ -1903,46 +2364,70 @@
       <c r="B26" s="15">
         <v>1</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20">
+      <c r="D26" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0.42</v>
+      </c>
+      <c r="H26" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="17"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>16</v>
       </c>
       <c r="B27" s="15">
         <v>3</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20">
+      <c r="D27" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="G27" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="H27" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="17"/>
+        <v>183</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
@@ -1951,30 +2436,32 @@
       <c r="B28" s="15">
         <v>2</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="G28" s="20">
+        <v>170</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" s="19">
         <v>0.2</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="19">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="J28" s="21"/>
-      <c r="K28" s="17"/>
+        <v>172</v>
+      </c>
+      <c r="J28" s="20"/>
+      <c r="K28" s="17" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
@@ -1983,18 +2470,20 @@
       <c r="B29" s="15">
         <v>1</v>
       </c>
-      <c r="C29" s="26"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20">
+      <c r="G29" s="19"/>
+      <c r="H29" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I29" s="17"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="17"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="17" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
@@ -2003,30 +2492,32 @@
       <c r="B30" s="15">
         <v>1</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="G30" s="20">
+        <v>174</v>
+      </c>
+      <c r="G30" s="19">
         <v>0.46</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="19">
         <f t="shared" si="1"/>
         <v>0.46</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="J30" s="21"/>
-      <c r="K30" s="17"/>
+        <v>176</v>
+      </c>
+      <c r="J30" s="20"/>
+      <c r="K30" s="17" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
@@ -2035,30 +2526,32 @@
       <c r="B31" s="15">
         <v>3</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="25" t="s">
         <v>37</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>189</v>
+        <v>182</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="G31" s="20">
+        <v>178</v>
+      </c>
+      <c r="G31" s="19">
         <v>0.52</v>
       </c>
-      <c r="H31" s="20">
-        <f t="shared" ref="H31:H53" si="2">(B31*G31)</f>
+      <c r="H31" s="19">
+        <f t="shared" ref="H31:H52" si="2">(B31*G31)</f>
         <v>1.56</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="J31" s="21"/>
-      <c r="K31" s="17"/>
+        <v>179</v>
+      </c>
+      <c r="J31" s="20"/>
+      <c r="K31" s="17" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
@@ -2067,1621 +2560,2300 @@
       <c r="B32" s="15">
         <v>2</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20">
+      <c r="G32" s="19"/>
+      <c r="H32" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I32" s="17"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="17"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J32" s="20"/>
+      <c r="K32" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>22</v>
       </c>
       <c r="B33" s="15">
         <v>1</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="G33" s="20">
+        <v>181</v>
+      </c>
+      <c r="G33" s="19">
         <v>0.52</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="19">
         <f t="shared" si="2"/>
         <v>0.52</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="J33" s="21"/>
-      <c r="K33" s="17"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="J33" s="20"/>
+      <c r="K33" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>23</v>
       </c>
       <c r="B34" s="15">
         <v>1</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="25" t="s">
         <v>40</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20">
+      <c r="G34" s="19"/>
+      <c r="H34" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I34" s="17"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="17"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J34" s="20"/>
+      <c r="K34" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>24</v>
       </c>
       <c r="B35" s="15">
         <v>1</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20">
+      <c r="D35" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="G35" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="H35" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="17"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="17"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.13</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>25</v>
       </c>
       <c r="B36" s="15">
         <v>1</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20">
+      <c r="D36" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="G36" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="H36" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="17"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="17"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.15</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>26</v>
       </c>
       <c r="B37" s="15">
         <v>1</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="G37" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H37" s="19">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L37" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="33">
+        <v>28</v>
+      </c>
+      <c r="B38" s="15">
+        <v>2</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20">
+      <c r="D38" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="G38" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="H38" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="17"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="17"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="34">
-        <v>27</v>
-      </c>
-      <c r="B38" s="15">
-        <v>1</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="17"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="17"/>
+        <v>0.3</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="J38" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="L38" s="2"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="34">
-        <v>28</v>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="33">
+        <v>29</v>
       </c>
       <c r="B39" s="15">
-        <v>1</v>
-      </c>
-      <c r="C39" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20">
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I39" s="17"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="2"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L39" s="3"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="34">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B40" s="15">
-        <v>2</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="17"/>
       <c r="E40" s="15"/>
       <c r="F40" s="13"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20">
+      <c r="G40" s="19"/>
+      <c r="H40" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I40" s="17"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="17"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="L40" s="3"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="35">
-        <v>30</v>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="33">
+        <v>31</v>
       </c>
       <c r="B41" s="15">
         <v>1</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="15"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20">
+      <c r="F41" s="15"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I41" s="15"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="L41" s="3"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="34">
-        <v>31</v>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="33">
+        <v>32</v>
       </c>
       <c r="B42" s="15">
         <v>1</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20">
+      <c r="G42" s="19"/>
+      <c r="H42" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I42" s="17"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="17"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="L42" s="3"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="34">
-        <v>32</v>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="33">
+        <v>33</v>
       </c>
       <c r="B43" s="15">
-        <v>1</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20">
+        <v>2</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="G43" s="19">
+        <v>1.43</v>
+      </c>
+      <c r="H43" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="15"/>
+        <v>2.86</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>196</v>
+      </c>
       <c r="J43" s="21"/>
-      <c r="K43" s="17"/>
+      <c r="K43" s="17" t="s">
+        <v>197</v>
+      </c>
       <c r="L43" s="3"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="34">
-        <v>33</v>
+      <c r="R43" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="33">
+        <v>34</v>
       </c>
       <c r="B44" s="15">
-        <v>2</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>51</v>
+        <v>1</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="D44" s="17"/>
-      <c r="E44" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20">
+      <c r="E44" s="15"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I44" s="17"/>
-      <c r="J44" s="22"/>
+      <c r="J44" s="20"/>
       <c r="K44" s="17"/>
       <c r="L44" s="3"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="34">
-        <v>34</v>
+    <row r="45" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="33">
+        <v>35</v>
       </c>
       <c r="B45" s="15">
         <v>1</v>
       </c>
-      <c r="C45" s="28" t="s">
-        <v>53</v>
+      <c r="C45" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="15"/>
       <c r="F45" s="17"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20">
+      <c r="G45" s="19"/>
+      <c r="H45" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I45" s="17"/>
-      <c r="J45" s="21"/>
+      <c r="J45" s="20"/>
       <c r="K45" s="17"/>
       <c r="L45" s="3"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="34">
-        <v>35</v>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="33">
+        <v>36</v>
       </c>
       <c r="B46" s="15">
-        <v>1</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20">
+        <v>4</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" s="17"/>
+      <c r="F46" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="G46" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="H46" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="17"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="I46" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="J46" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="K46" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="34">
-        <v>36</v>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="33">
+        <v>37</v>
       </c>
       <c r="B47" s="15">
-        <v>4</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20">
+        <v>7</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G47" s="19">
+        <v>0.72</v>
+      </c>
+      <c r="H47" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="J47" s="37"/>
-      <c r="K47" s="17"/>
+        <v>5.04</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="K47" s="17" t="s">
+        <v>197</v>
+      </c>
       <c r="L47" s="3"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="34">
-        <v>37</v>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="33">
+        <v>38</v>
       </c>
       <c r="B48" s="15">
-        <v>7</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20">
+        <v>4</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="G48" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H48" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I48" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="J48" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K48" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="34">
-        <v>38</v>
+      <c r="R48" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="14">
+        <v>39</v>
       </c>
       <c r="B49" s="15">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20">
+        <v>58</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="G49" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H49" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="J49" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K49" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R49" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B50" s="15">
-        <v>18</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20">
+        <v>2</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="G50" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H50" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I50" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="J50" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K50" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B51" s="15">
-        <v>2</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="15"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="20">
+        <v>3</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="G51" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H51" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
+        <v>231</v>
+      </c>
+      <c r="J51" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L51" t="s">
+        <v>232</v>
+      </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="14">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B52" s="15">
-        <v>3</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="20">
+        <v>1</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="G52" s="19">
+        <v>0.08</v>
+      </c>
+      <c r="H52" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
+        <v>62</v>
+      </c>
+      <c r="J52" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K52" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L52" t="s">
+        <v>237</v>
+      </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B53" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C53" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="G53" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H53" s="19">
+        <f t="shared" ref="H53:H92" si="3">(B53*G53)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I53" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J53" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K53" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="14">
+        <v>44</v>
+      </c>
+      <c r="B54" s="15">
+        <v>2</v>
+      </c>
+      <c r="C54" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="17" t="s">
+      <c r="D54" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G54" s="19">
+        <v>0.08</v>
+      </c>
+      <c r="H54" s="19">
+        <f t="shared" si="3"/>
+        <v>0.16</v>
+      </c>
+      <c r="I54" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="14">
-        <v>43</v>
-      </c>
-      <c r="B54" s="15">
-        <v>5</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="17"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20">
-        <f t="shared" ref="H54:H91" si="3">(B54*G54)</f>
-        <v>0</v>
-      </c>
-      <c r="I54" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="J54" s="21"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J54" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K54" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="14">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B55" s="15">
         <v>2</v>
       </c>
       <c r="C55" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G55" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H55" s="19">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="I55" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J55" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K55" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L55" s="31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="14">
+        <v>46</v>
+      </c>
+      <c r="B56" s="15">
+        <v>1</v>
+      </c>
+      <c r="C56" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20">
+      <c r="D56" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="G56" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H56" s="19">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="I56" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="J56" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K56" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="14">
+        <v>47</v>
+      </c>
+      <c r="B57" s="15">
+        <v>2</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="G57" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H57" s="19">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="I57" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J57" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K57" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="14">
+        <v>48</v>
+      </c>
+      <c r="B58" s="15">
+        <v>1</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="G58" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H58" s="19">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="I58" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J58" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K58" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L58" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="14">
+        <v>49</v>
+      </c>
+      <c r="B59" s="15">
+        <v>1</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="G59" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H59" s="19">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="I59" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J59" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K59" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="14">
+        <v>50</v>
+      </c>
+      <c r="B60" s="15">
+        <v>1</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="G60" s="19">
+        <v>0.09</v>
+      </c>
+      <c r="H60" s="19">
+        <f t="shared" si="3"/>
+        <v>0.09</v>
+      </c>
+      <c r="I60" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J60" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K60" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="14">
+        <v>51</v>
+      </c>
+      <c r="B61" s="15">
+        <v>8</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="G61" s="19">
+        <v>0.08</v>
+      </c>
+      <c r="H61" s="19">
+        <f t="shared" si="3"/>
+        <v>0.64</v>
+      </c>
+      <c r="I61" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="J61" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K61" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62" s="14">
+        <v>52</v>
+      </c>
+      <c r="B62" s="15">
+        <v>1</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="G62" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H62" s="19">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="I62" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J62" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K62" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63" s="14">
+        <v>53</v>
+      </c>
+      <c r="B63" s="15">
+        <v>8</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="G63" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="H63" s="19">
+        <f t="shared" si="3"/>
+        <v>0.32</v>
+      </c>
+      <c r="I63" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="J63" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K63" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" s="14">
+        <v>54</v>
+      </c>
+      <c r="B64" s="15">
+        <v>1</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="G64" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="H64" s="19">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="I64" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="J64" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="K64" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A65" s="14">
+        <v>55</v>
+      </c>
+      <c r="B65" s="15">
+        <v>1</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="G65" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="H65" s="19">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="I65" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="J65" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K65" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A66" s="14">
+        <v>56</v>
+      </c>
+      <c r="B66" s="15">
+        <v>1</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G66" s="19">
+        <v>0.11</v>
+      </c>
+      <c r="H66" s="19">
+        <f t="shared" si="3"/>
+        <v>0.11</v>
+      </c>
+      <c r="I66" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="J66" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K66" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A67" s="14">
+        <v>57</v>
+      </c>
+      <c r="B67" s="15">
+        <v>2</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="G67" s="19">
+        <v>0.19</v>
+      </c>
+      <c r="H67" s="19">
+        <f t="shared" si="3"/>
+        <v>0.38</v>
+      </c>
+      <c r="I67" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J67" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K67" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A68" s="14">
+        <v>58</v>
+      </c>
+      <c r="B68" s="15">
+        <v>2</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="G68" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="H68" s="19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I68" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="J68" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="K68" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A69" s="14">
+        <v>59</v>
+      </c>
+      <c r="B69" s="15">
+        <v>2</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="G69" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="H69" s="19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I69" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J69" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="K69" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A70" s="14">
+        <v>60</v>
+      </c>
+      <c r="B70" s="15">
+        <v>3</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="G70" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H70" s="19">
+        <f t="shared" si="3"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="I70" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J70" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="K70" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A71" s="14">
+        <v>61</v>
+      </c>
+      <c r="B71" s="15">
+        <v>7</v>
+      </c>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G71" s="19">
+        <v>0.31</v>
+      </c>
+      <c r="H71" s="19">
+        <f t="shared" si="3"/>
+        <v>2.17</v>
+      </c>
+      <c r="I71" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="J71" s="20"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A72" s="14">
+        <v>62</v>
+      </c>
+      <c r="B72" s="15">
+        <v>14</v>
+      </c>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" s="15">
+        <v>1722533123</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="G72" s="19">
+        <v>0.152</v>
+      </c>
+      <c r="H72" s="19">
+        <f t="shared" si="3"/>
+        <v>2.1280000000000001</v>
+      </c>
+      <c r="I72" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="J72" s="20"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A73" s="37"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="40"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A74" s="35">
+        <v>1</v>
+      </c>
+      <c r="B74" s="15">
+        <v>1</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G74" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="H74" s="19">
+        <f t="shared" si="3"/>
+        <v>1.4</v>
+      </c>
+      <c r="I74" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J74" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="K74" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A75" s="35">
+        <v>2</v>
+      </c>
+      <c r="B75" s="15">
+        <v>1</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F75" s="15"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I55" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="J55" s="15"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="14">
-        <v>45</v>
-      </c>
-      <c r="B56" s="15">
-        <v>2</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20">
+      <c r="I75" s="17"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A76" s="35">
+        <v>3</v>
+      </c>
+      <c r="B76" s="15">
+        <v>1</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F76" s="15"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I56" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="J56" s="15"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="32"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="14">
-        <v>46</v>
-      </c>
-      <c r="B57" s="15">
-        <v>1</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20">
+      <c r="I76" s="17"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A77" s="35">
+        <v>4</v>
+      </c>
+      <c r="B77" s="15">
+        <v>1</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F77" s="15"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I57" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J57" s="21"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="14">
-        <v>47</v>
-      </c>
-      <c r="B58" s="15">
-        <v>2</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20">
+      <c r="I77" s="17"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A78" s="35">
+        <v>5</v>
+      </c>
+      <c r="B78" s="15">
+        <v>1</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="G78" s="19">
+        <v>1.56</v>
+      </c>
+      <c r="H78" s="19">
+        <f t="shared" si="3"/>
+        <v>1.56</v>
+      </c>
+      <c r="I78" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="J78" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="K78" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L78" s="3"/>
+      <c r="R78" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A79" s="35">
+        <v>6</v>
+      </c>
+      <c r="B79" s="15">
+        <v>1</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="G79" s="19">
+        <v>0.86</v>
+      </c>
+      <c r="H79" s="19">
+        <f t="shared" si="3"/>
+        <v>0.86</v>
+      </c>
+      <c r="I79" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="J79" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="K79" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L79" s="3"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A80" s="35">
+        <v>7</v>
+      </c>
+      <c r="B80" s="15">
+        <v>1</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" s="17"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I58" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J58" s="21"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="14">
-        <v>48</v>
-      </c>
-      <c r="B59" s="15">
-        <v>1</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20">
+      <c r="I80" s="17"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="3"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="35">
+        <v>8</v>
+      </c>
+      <c r="B81" s="15">
+        <v>1</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="G81" s="19">
+        <v>0.67</v>
+      </c>
+      <c r="H81" s="19">
+        <f t="shared" si="3"/>
+        <v>0.67</v>
+      </c>
+      <c r="I81" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="J81" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="K81" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="35">
+        <v>9</v>
+      </c>
+      <c r="B82" s="15">
+        <v>1</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" s="17"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I59" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="J59" s="21"/>
-      <c r="K59" s="17"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="14">
-        <v>49</v>
-      </c>
-      <c r="B60" s="15">
-        <v>1</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D60" s="17"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20">
+      <c r="I82" s="17"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="35">
+        <v>10</v>
+      </c>
+      <c r="B83" s="15">
+        <v>1</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D83" s="17"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I60" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="J60" s="21"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="14">
-        <v>50</v>
-      </c>
-      <c r="B61" s="15">
-        <v>1</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D61" s="17"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20">
+      <c r="J83" s="20"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="35">
+        <v>11</v>
+      </c>
+      <c r="B84" s="15">
+        <v>1</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="G84" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H84" s="19">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="I84" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="J84" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="K84" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="35">
+        <v>12</v>
+      </c>
+      <c r="B85" s="15">
+        <v>1</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="G85" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H85" s="19">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="I85" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="J85" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="K85" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" s="35">
+        <v>13</v>
+      </c>
+      <c r="B86" s="15">
+        <v>1</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="G86" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H86" s="19">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="I86" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="J86" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="K86" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" s="35">
+        <v>14</v>
+      </c>
+      <c r="B87" s="15">
+        <v>2</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="G87" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H87" s="19">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="I87" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J87" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="K87" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" s="35">
+        <v>15</v>
+      </c>
+      <c r="B88" s="15">
+        <v>1</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="G88" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H88" s="19">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="I88" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J88" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="K88" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" s="35">
+        <v>16</v>
+      </c>
+      <c r="B89" s="15">
+        <v>1</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D89" s="17"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I61" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="J61" s="21"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="14">
-        <v>51</v>
-      </c>
-      <c r="B62" s="15">
-        <v>8</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D62" s="17"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20">
+      <c r="I89" s="17"/>
+      <c r="J89" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="K89" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="35">
+        <v>17</v>
+      </c>
+      <c r="B90" s="15">
+        <v>1</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D90" s="17"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I62" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="J62" s="21"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="14">
-        <v>52</v>
-      </c>
-      <c r="B63" s="15">
-        <v>1</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20">
+      <c r="I90" s="17"/>
+      <c r="J90" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="K90" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" s="35">
+        <v>18</v>
+      </c>
+      <c r="B91" s="15">
+        <v>1</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D91" s="17"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I63" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="J63" s="21"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="14">
-        <v>53</v>
-      </c>
-      <c r="B64" s="15">
-        <v>2</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D64" s="17"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20">
+      <c r="I91" s="17"/>
+      <c r="J91" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="K91" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" s="35">
+        <v>19</v>
+      </c>
+      <c r="B92" s="15">
+        <v>1</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D92" s="17"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I64" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="J64" s="21"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="14">
-        <v>54</v>
-      </c>
-      <c r="B65" s="15">
-        <v>7</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D65" s="17"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I65" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="J65" s="21"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="14">
-        <v>55</v>
-      </c>
-      <c r="B66" s="15">
-        <v>1</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D66" s="17"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I66" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="J66" s="21"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="14">
-        <v>56</v>
-      </c>
-      <c r="B67" s="15">
-        <v>1</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D67" s="17"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I67" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="J67" s="21"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="14">
-        <v>57</v>
-      </c>
-      <c r="B68" s="15">
-        <v>2</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D68" s="17"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I68" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="J68" s="21"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" s="14">
-        <v>58</v>
-      </c>
-      <c r="B69" s="15">
-        <v>2</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D69" s="17"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I69" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="J69" s="21"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="14">
-        <v>59</v>
-      </c>
-      <c r="B70" s="15">
-        <v>2</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D70" s="17"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I70" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="J70" s="21"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" s="14">
-        <v>60</v>
-      </c>
-      <c r="B71" s="15">
-        <v>3</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D71" s="17"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I71" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="J71" s="21"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" s="40"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="41"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="41"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="40"/>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" s="36">
-        <v>1</v>
-      </c>
-      <c r="B73" s="15">
-        <v>1</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F73" s="15"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I73" s="17"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="36">
-        <v>2</v>
-      </c>
-      <c r="B74" s="15">
-        <v>1</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="F74" s="15"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I74" s="17"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" s="36">
-        <v>3</v>
-      </c>
-      <c r="B75" s="15">
-        <v>1</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="F75" s="15"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I75" s="17"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" s="36">
+      <c r="I92" s="17"/>
+      <c r="J92" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="K92" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" s="35">
+        <v>20</v>
+      </c>
+      <c r="B93" s="15">
         <v>4</v>
       </c>
-      <c r="B76" s="15">
-        <v>1</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="F76" s="15"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I76" s="17"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="36">
-        <v>5</v>
-      </c>
-      <c r="B77" s="15">
-        <v>1</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="F77" s="15"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I77" s="17"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" s="36">
-        <v>6</v>
-      </c>
-      <c r="B78" s="15">
-        <v>1</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="F78" s="15"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I78" s="17"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="3"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" s="36">
-        <v>7</v>
-      </c>
-      <c r="B79" s="15">
-        <v>1</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D79" s="17"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I79" s="17"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="3"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" s="36">
-        <v>8</v>
-      </c>
-      <c r="B80" s="15">
-        <v>1</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="F80" s="15"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I80" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="J80" s="21"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="3"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81" s="36">
-        <v>9</v>
-      </c>
-      <c r="B81" s="15">
-        <v>1</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D81" s="17"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I81" s="17"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82" s="36">
-        <v>10</v>
-      </c>
-      <c r="B82" s="15">
-        <v>1</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D82" s="17"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="21"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" s="36">
-        <v>11</v>
-      </c>
-      <c r="B83" s="15">
-        <v>1</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D83" s="17"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I83" s="17" t="s">
+      <c r="C93" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="J83" s="21"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A84" s="36">
-        <v>12</v>
-      </c>
-      <c r="B84" s="15">
-        <v>1</v>
-      </c>
-      <c r="C84" s="17" t="s">
+      <c r="D93" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="F93" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="G93" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="H93" s="19">
+        <f>(B93*G93)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I93" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="J93" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="K93" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" s="35">
+        <v>21</v>
+      </c>
+      <c r="B94" s="15">
+        <v>1</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="E94" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="G94" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H94" s="19">
+        <f t="shared" ref="H94:H97" si="4">(B94*G94)</f>
+        <v>0.1</v>
+      </c>
+      <c r="I94" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J94" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K94" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L94" s="2"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" s="35">
+        <v>22</v>
+      </c>
+      <c r="B95" s="15">
+        <v>1</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="E95" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="F95" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G95" s="19">
+        <v>0.11</v>
+      </c>
+      <c r="H95" s="19">
+        <f t="shared" si="4"/>
+        <v>0.11</v>
+      </c>
+      <c r="I95" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="J95" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K95" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L95" s="2"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" s="35">
+        <v>23</v>
+      </c>
+      <c r="B96" s="15">
+        <v>1</v>
+      </c>
+      <c r="C96" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="D84" s="17"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I84" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="J84" s="21"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85" s="36">
-        <v>13</v>
-      </c>
-      <c r="B85" s="15">
-        <v>1</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D85" s="17"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I85" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="J85" s="21"/>
-      <c r="K85" s="15"/>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" s="36">
-        <v>14</v>
-      </c>
-      <c r="B86" s="15">
-        <v>1</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D86" s="17"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I86" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="J86" s="21"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A87" s="36">
-        <v>15</v>
-      </c>
-      <c r="B87" s="15">
-        <v>1</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D87" s="17"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I87" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="J87" s="21"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" s="36">
-        <v>16</v>
-      </c>
-      <c r="B88" s="15">
-        <v>1</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D88" s="17"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I88" s="17"/>
-      <c r="J88" s="21"/>
-      <c r="K88" s="15"/>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89" s="36">
-        <v>17</v>
-      </c>
-      <c r="B89" s="15">
-        <v>1</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="D89" s="17"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I89" s="17"/>
-      <c r="J89" s="21"/>
-      <c r="K89" s="15"/>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" s="36">
-        <v>18</v>
-      </c>
-      <c r="B90" s="15">
-        <v>1</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D90" s="17"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I90" s="17"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="15"/>
-      <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" s="36">
-        <v>19</v>
-      </c>
-      <c r="B91" s="15">
-        <v>1</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D91" s="17"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I91" s="17"/>
-      <c r="J91" s="21"/>
-      <c r="K91" s="15"/>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92" s="36">
-        <v>20</v>
-      </c>
-      <c r="B92" s="15">
-        <v>1</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D92" s="17"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20">
-        <f t="shared" ref="H92:H95" si="4">(B92*G92)</f>
-        <v>0</v>
-      </c>
-      <c r="I92" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="J92" s="21"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="2"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93" s="36">
-        <v>21</v>
-      </c>
-      <c r="B93" s="15">
-        <v>1</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="D93" s="17"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20">
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I93" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="J93" s="21"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="2"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94" s="36">
-        <v>22</v>
-      </c>
-      <c r="B94" s="15">
-        <v>1</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20">
+      <c r="I96" s="27"/>
+      <c r="J96" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="K96" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="35">
+        <v>24</v>
+      </c>
+      <c r="B97" s="15">
+        <v>1</v>
+      </c>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I94" s="28"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A95" s="36">
-        <v>23</v>
-      </c>
-      <c r="B95" s="15">
-        <v>1</v>
-      </c>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I95" s="28"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="18"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="98" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="I98" s="12"/>
-    </row>
-    <row r="99" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H99" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="I99" s="5"/>
-    </row>
-    <row r="100" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H100" s="9">
-        <f>SUM(H12:H71)</f>
-        <v>38.290000000000006</v>
-      </c>
-      <c r="I100" s="5"/>
-    </row>
-    <row r="101" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H101" s="1"/>
-      <c r="I101" s="6"/>
-    </row>
-    <row r="102" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H102" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I102" s="3"/>
-    </row>
-    <row r="103" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H103" s="9">
-        <f>SUM(H73:H95)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H105" s="7" t="s">
+      <c r="I97" s="27"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="15"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I100" s="12"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H101" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I101" s="5"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H102" s="9">
+        <f>SUM(H12:H70)</f>
+        <v>68.20999999999998</v>
+      </c>
+      <c r="I102" s="5"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H103" s="1"/>
+      <c r="I103" s="6"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H104" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I104" s="3"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H105" s="9">
+        <f>SUM(H74:H97)</f>
+        <v>5.4999999999999991</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H107" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H106" s="9">
-        <f>SUM(H100+H103)</f>
-        <v>38.290000000000006</v>
-      </c>
-    </row>
-    <row r="112" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H112" s="11"/>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H108" s="9">
+        <f>SUM(H102+H105)</f>
+        <v>73.70999999999998</v>
+      </c>
+    </row>
+    <row r="114" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H114" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SPEX HAB2 BOM.xlsx
+++ b/SPEX HAB2 BOM.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Turnkey" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Turnkey!$A$1:$K$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Turnkey!$A$1:$K$58</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="370">
   <si>
     <t>Description</t>
   </si>
@@ -1070,6 +1070,102 @@
   </si>
   <si>
     <t>International Rectifier</t>
+  </si>
+  <si>
+    <t>MF-LSMF260X-2</t>
+  </si>
+  <si>
+    <t>652-MF-LSMF260X-2</t>
+  </si>
+  <si>
+    <t>Resetable fuse</t>
+  </si>
+  <si>
+    <t>3121</t>
+  </si>
+  <si>
+    <t>MMBT3906LT1G</t>
+  </si>
+  <si>
+    <t>863-MMBT3906LT1G</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/308/MMBT3906LT1-D-112192.pdf</t>
+  </si>
+  <si>
+    <t>BJT Transistor</t>
+  </si>
+  <si>
+    <t>SOT-23</t>
+  </si>
+  <si>
+    <t>DMG2302U-7</t>
+  </si>
+  <si>
+    <t>621-DMG2302U-7</t>
+  </si>
+  <si>
+    <t>Enable pin Nchannel Mosfet</t>
+  </si>
+  <si>
+    <t>SOT23-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diodes Incorportated </t>
+  </si>
+  <si>
+    <t>L102</t>
+  </si>
+  <si>
+    <t>L103</t>
+  </si>
+  <si>
+    <t>2.2uH Inductor</t>
+  </si>
+  <si>
+    <t>3.3uH Inductor</t>
+  </si>
+  <si>
+    <t>BZT52C16-7-F</t>
+  </si>
+  <si>
+    <t>621-BZT52C16-F</t>
+  </si>
+  <si>
+    <t>863-BAV99WT1G</t>
+  </si>
+  <si>
+    <t>BAV99WT1G</t>
+  </si>
+  <si>
+    <t>TYS50402R2N-10</t>
+  </si>
+  <si>
+    <t>875-TYS50402R2N-10</t>
+  </si>
+  <si>
+    <t>Laird Technologies</t>
+  </si>
+  <si>
+    <t>NRS8030T3R3MJGJ</t>
+  </si>
+  <si>
+    <t>Taiyo Yuden</t>
+  </si>
+  <si>
+    <t>963-NRS8030T3R3MJGJ</t>
+  </si>
+  <si>
+    <t>8030</t>
+  </si>
+  <si>
+    <t>B340-13-F</t>
+  </si>
+  <si>
+    <t>621-B340-F</t>
+  </si>
+  <si>
+    <t>input diode</t>
   </si>
 </sst>
 </file>
@@ -1730,10 +1826,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R114"/>
+  <dimension ref="A1:R116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2542,7 +2638,7 @@
         <v>0.52</v>
       </c>
       <c r="H31" s="19">
-        <f t="shared" ref="H31:H52" si="2">(B31*G31)</f>
+        <f t="shared" ref="H31:H54" si="2">(B31*G31)</f>
         <v>1.56</v>
       </c>
       <c r="I31" s="17" t="s">
@@ -2563,16 +2659,28 @@
       <c r="C32" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="19"/>
+      <c r="D32" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="G32" s="19">
+        <v>0.37</v>
+      </c>
       <c r="H32" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="17"/>
-      <c r="J32" s="20"/>
+        <v>0.74</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>350</v>
+      </c>
       <c r="K32" s="17" t="s">
         <v>190</v>
       </c>
@@ -2621,18 +2729,33 @@
       <c r="C34" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="19"/>
+      <c r="D34" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="G34" s="19">
+        <v>0.1</v>
+      </c>
       <c r="H34" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="17"/>
-      <c r="J34" s="20"/>
+        <v>0.1</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>346</v>
+      </c>
       <c r="K34" s="17" t="s">
         <v>190</v>
+      </c>
+      <c r="L34" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
@@ -2798,13 +2921,21 @@
       <c r="C39" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="19"/>
+      <c r="D39" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="G39" s="19">
+        <v>0.19</v>
+      </c>
       <c r="H39" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="20"/>
@@ -2825,10 +2956,18 @@
       <c r="C40" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="19"/>
+      <c r="D40" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="G40" s="19">
+        <v>0</v>
+      </c>
       <c r="H40" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2850,17 +2989,27 @@
         <v>1</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="19"/>
+        <v>352</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G41" s="19">
+        <v>0.38</v>
+      </c>
       <c r="H41" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="17"/>
+        <f>(B41*G41)</f>
+        <v>0.38</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>354</v>
+      </c>
       <c r="J41" s="20"/>
       <c r="K41" s="17" t="s">
         <v>190</v>
@@ -2877,18 +3026,30 @@
         <v>1</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="19"/>
+        <v>353</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="G42" s="19">
+        <v>0.48</v>
+      </c>
       <c r="H42" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="15"/>
-      <c r="J42" s="20"/>
+        <v>0.48</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="J42" s="20" t="s">
+        <v>366</v>
+      </c>
       <c r="K42" s="17" t="s">
         <v>190</v>
       </c>
@@ -2897,44 +3058,41 @@
       <c r="N42" s="1"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="33">
+      <c r="A43" s="34">
         <v>33</v>
       </c>
       <c r="B43" s="15">
-        <v>2</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>49</v>
+        <v>1</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>214</v>
+        <v>351</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>213</v>
+        <v>367</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>195</v>
+        <v>368</v>
       </c>
       <c r="G43" s="19">
-        <v>1.43</v>
+        <v>0.34</v>
       </c>
       <c r="H43" s="19">
         <f t="shared" si="2"/>
-        <v>2.86</v>
+        <v>0.34</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="J43" s="21"/>
+        <v>369</v>
+      </c>
+      <c r="J43" s="20"/>
       <c r="K43" s="17" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-      <c r="R43" s="2" t="s">
-        <v>194</v>
-      </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="33">
@@ -2943,123 +3101,124 @@
       <c r="B44" s="15">
         <v>1</v>
       </c>
-      <c r="C44" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="19"/>
+      <c r="C44" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="G44" s="19">
+        <v>0.46</v>
+      </c>
       <c r="H44" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="17"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="17"/>
+        <v>0.46</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="J44" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="K44" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="L44" s="3"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="33">
         <v>35</v>
       </c>
       <c r="B45" s="15">
-        <v>1</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="G45" s="19">
+        <v>1.43</v>
+      </c>
       <c r="H45" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="17"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="17"/>
+        <v>2.86</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="J45" s="21"/>
+      <c r="K45" s="17" t="s">
+        <v>197</v>
+      </c>
       <c r="L45" s="3"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
+      <c r="R45" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="33">
+      <c r="A46" s="34">
         <v>36</v>
       </c>
       <c r="B46" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="G46" s="19">
-        <v>1.5</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="19"/>
       <c r="H46" s="19">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="I46" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="J46" s="36" t="s">
-        <v>293</v>
-      </c>
-      <c r="K46" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" s="17"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="3"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="33">
         <v>37</v>
       </c>
       <c r="B47" s="15">
-        <v>7</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="G47" s="19">
-        <v>0.72</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="19"/>
       <c r="H47" s="19">
         <f t="shared" si="2"/>
-        <v>5.04</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="J47" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="K47" s="17" t="s">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" s="17"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="17"/>
       <c r="L47" s="3"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -3071,112 +3230,105 @@
       <c r="B48" s="15">
         <v>4</v>
       </c>
-      <c r="C48" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>219</v>
-      </c>
+      <c r="C48" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E48" s="17"/>
       <c r="F48" s="15" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="G48" s="19">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="H48" s="19">
         <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="I48" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="J48" s="20" t="s">
-        <v>188</v>
+        <v>6</v>
+      </c>
+      <c r="I48" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="J48" s="36" t="s">
+        <v>293</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-      <c r="R48" s="2" t="s">
-        <v>221</v>
-      </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="14">
+      <c r="A49" s="34">
         <v>39</v>
       </c>
       <c r="B49" s="15">
-        <v>18</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>220</v>
+        <v>7</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>98</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>224</v>
+        <v>198</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>199</v>
       </c>
       <c r="G49" s="19">
-        <v>0.1</v>
+        <v>0.72</v>
       </c>
       <c r="H49" s="19">
         <f t="shared" si="2"/>
-        <v>1.8</v>
+        <v>5.04</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="J49" s="20" t="s">
-        <v>188</v>
+        <v>208</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>293</v>
       </c>
       <c r="K49" s="17" t="s">
-        <v>190</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="L49" s="3"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
-      <c r="R49" s="2" t="s">
-        <v>221</v>
-      </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="14">
+      <c r="A50" s="33">
         <v>40</v>
       </c>
       <c r="B50" s="15">
-        <v>2</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>56</v>
+        <v>4</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G50" s="19">
         <v>0.1</v>
       </c>
       <c r="H50" s="19">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I50" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J50" s="20" t="s">
         <v>188</v>
@@ -3184,37 +3336,43 @@
       <c r="K50" s="17" t="s">
         <v>190</v>
       </c>
+      <c r="L50" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
+      <c r="R50" s="2" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="14">
+      <c r="A51" s="33">
         <v>41</v>
       </c>
       <c r="B51" s="15">
-        <v>3</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>60</v>
+        <v>18</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>228</v>
+        <v>223</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>224</v>
       </c>
       <c r="G51" s="19">
         <v>0.1</v>
       </c>
       <c r="H51" s="19">
         <f t="shared" si="2"/>
-        <v>0.30000000000000004</v>
+        <v>1.8</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>231</v>
+        <v>59</v>
       </c>
       <c r="J51" s="20" t="s">
         <v>188</v>
@@ -3222,40 +3380,40 @@
       <c r="K51" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="L51" t="s">
-        <v>232</v>
-      </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
+      <c r="R51" s="2" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="14">
+      <c r="A52" s="34">
         <v>42</v>
       </c>
       <c r="B52" s="15">
-        <v>1</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="G52" s="19">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="H52" s="19">
         <f t="shared" si="2"/>
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J52" s="20" t="s">
         <v>188</v>
@@ -3263,40 +3421,37 @@
       <c r="K52" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="L52" t="s">
-        <v>237</v>
-      </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" s="14">
+      <c r="A53" s="33">
         <v>43</v>
       </c>
       <c r="B53" s="15">
-        <v>5</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>63</v>
+        <v>3</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>60</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G53" s="19">
         <v>0.1</v>
       </c>
       <c r="H53" s="19">
-        <f t="shared" ref="H53:H92" si="3">(B53*G53)</f>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I53" s="17" t="s">
-        <v>64</v>
+        <v>231</v>
       </c>
       <c r="J53" s="20" t="s">
         <v>188</v>
@@ -3304,119 +3459,123 @@
       <c r="K53" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="L53" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="R53" s="2" t="s">
-        <v>221</v>
-      </c>
+      <c r="L53" t="s">
+        <v>232</v>
+      </c>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="14">
+      <c r="A54" s="33">
         <v>44</v>
       </c>
       <c r="B54" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D54" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="E54" s="17" t="s">
-        <v>241</v>
+      <c r="E54" s="15" t="s">
+        <v>236</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G54" s="19">
         <v>0.08</v>
       </c>
       <c r="H54" s="19">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
+      <c r="I54" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J54" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K54" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L54" t="s">
+        <v>237</v>
+      </c>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="34">
+        <v>45</v>
+      </c>
+      <c r="B55" s="15">
+        <v>5</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="G55" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H55" s="19">
+        <f t="shared" ref="H55:H94" si="3">(B55*G55)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I55" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J55" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K55" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="33">
+        <v>46</v>
+      </c>
+      <c r="B56" s="15">
+        <v>2</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G56" s="19">
+        <v>0.08</v>
+      </c>
+      <c r="H56" s="19">
         <f t="shared" si="3"/>
         <v>0.16</v>
       </c>
-      <c r="I54" s="17" t="s">
+      <c r="I56" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="J54" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="K54" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="14">
-        <v>45</v>
-      </c>
-      <c r="B55" s="15">
-        <v>2</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="G55" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="H55" s="19">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="I55" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="J55" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="K55" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="L55" s="31" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="14">
-        <v>46</v>
-      </c>
-      <c r="B56" s="15">
-        <v>1</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="G56" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="H56" s="19">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="I56" s="17" t="s">
-        <v>70</v>
       </c>
       <c r="J56" s="20" t="s">
         <v>188</v>
@@ -3425,27 +3584,27 @@
         <v>190</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="14">
+      <c r="A57" s="33">
         <v>47</v>
       </c>
       <c r="B57" s="15">
         <v>2</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E57" s="15" t="s">
-        <v>249</v>
+      <c r="E57" s="17" t="s">
+        <v>243</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G57" s="19">
         <v>0.1</v>
@@ -3455,7 +3614,7 @@
         <v>0.2</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J57" s="20" t="s">
         <v>188</v>
@@ -3463,28 +3622,28 @@
       <c r="K57" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>222</v>
+      <c r="L57" s="31" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A58" s="14">
+      <c r="A58" s="34">
         <v>48</v>
       </c>
       <c r="B58" s="15">
         <v>1</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="F58" s="17" t="s">
-        <v>251</v>
+        <v>69</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>247</v>
       </c>
       <c r="G58" s="19">
         <v>0.1</v>
@@ -3494,7 +3653,7 @@
         <v>0.1</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J58" s="20" t="s">
         <v>188</v>
@@ -3502,38 +3661,38 @@
       <c r="K58" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="L58" t="s">
-        <v>253</v>
+      <c r="L58" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A59" s="14">
+      <c r="A59" s="33">
         <v>49</v>
       </c>
       <c r="B59" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>220</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G59" s="19">
         <v>0.1</v>
       </c>
       <c r="H59" s="19">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J59" s="20" t="s">
         <v>188</v>
@@ -3546,33 +3705,33 @@
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A60" s="14">
+      <c r="A60" s="33">
         <v>50</v>
       </c>
       <c r="B60" s="15">
         <v>1</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>258</v>
+        <v>73</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>251</v>
       </c>
       <c r="G60" s="19">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H60" s="19">
         <f t="shared" si="3"/>
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J60" s="20" t="s">
         <v>188</v>
@@ -3580,38 +3739,38 @@
       <c r="K60" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>259</v>
+      <c r="L60" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A61" s="14">
+      <c r="A61" s="34">
         <v>51</v>
       </c>
       <c r="B61" s="15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="F61" s="21" t="s">
-        <v>264</v>
+        <v>75</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>255</v>
       </c>
       <c r="G61" s="19">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="H61" s="19">
         <f t="shared" si="3"/>
-        <v>0.64</v>
+        <v>0.1</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J61" s="20" t="s">
         <v>188</v>
@@ -3619,36 +3778,38 @@
       <c r="K61" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="L61" s="3"/>
+      <c r="L61" s="3" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A62" s="14">
+      <c r="A62" s="33">
         <v>52</v>
       </c>
       <c r="B62" s="15">
         <v>1</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="F62" s="21" t="s">
-        <v>272</v>
+        <v>77</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>258</v>
       </c>
       <c r="G62" s="19">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H62" s="19">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J62" s="20" t="s">
         <v>188</v>
@@ -3657,37 +3818,37 @@
         <v>190</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A63" s="14">
+      <c r="A63" s="33">
         <v>53</v>
       </c>
       <c r="B63" s="15">
         <v>8</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="D63" s="20" t="s">
         <v>260</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G63" s="19">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="H63" s="19">
         <f t="shared" si="3"/>
-        <v>0.32</v>
+        <v>0.64</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="J63" s="20" t="s">
         <v>188</v>
@@ -3698,72 +3859,72 @@
       <c r="L63" s="3"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A64" s="14">
+      <c r="A64" s="34">
         <v>54</v>
       </c>
       <c r="B64" s="15">
         <v>1</v>
       </c>
-      <c r="C64" s="32" t="s">
-        <v>265</v>
+      <c r="C64" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="E64" s="21" t="s">
-        <v>266</v>
+        <v>273</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>271</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G64" s="19">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="H64" s="19">
         <f t="shared" si="3"/>
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="I64" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J64" s="20" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="K64" s="17" t="s">
         <v>190</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A65" s="14">
+      <c r="A65" s="33">
         <v>55</v>
       </c>
       <c r="B65" s="15">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>84</v>
+        <v>269</v>
       </c>
       <c r="D65" s="20" t="s">
         <v>260</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="G65" s="19">
         <v>0.04</v>
       </c>
       <c r="H65" s="19">
         <f t="shared" si="3"/>
-        <v>0.04</v>
+        <v>0.32</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="J65" s="20" t="s">
         <v>188</v>
@@ -3771,75 +3932,75 @@
       <c r="K65" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="L65" s="3" t="s">
-        <v>278</v>
-      </c>
+      <c r="L65" s="3"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A66" s="14">
+      <c r="A66" s="33">
         <v>56</v>
       </c>
       <c r="B66" s="15">
         <v>1</v>
       </c>
-      <c r="C66" s="17" t="s">
-        <v>85</v>
+      <c r="C66" s="32" t="s">
+        <v>265</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="G66" s="19">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="H66" s="19">
         <f t="shared" si="3"/>
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J66" s="20" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="K66" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="L66" s="3"/>
+      <c r="L66" s="3" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A67" s="14">
+      <c r="A67" s="34">
         <v>57</v>
       </c>
       <c r="B67" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G67" s="19">
-        <v>0.19</v>
+        <v>0.04</v>
       </c>
       <c r="H67" s="19">
         <f t="shared" si="3"/>
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>87</v>
+        <v>275</v>
       </c>
       <c r="J67" s="20" t="s">
         <v>188</v>
@@ -3848,40 +4009,40 @@
         <v>190</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A68" s="14">
+      <c r="A68" s="33">
         <v>58</v>
       </c>
       <c r="B68" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>273</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G68" s="19">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="H68" s="19">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J68" s="20" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="K68" s="17" t="s">
         <v>190</v>
@@ -3889,36 +4050,36 @@
       <c r="L68" s="3"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A69" s="14">
+      <c r="A69" s="33">
         <v>59</v>
       </c>
       <c r="B69" s="15">
         <v>2</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>284</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G69" s="19">
-        <v>0.5</v>
+        <v>0.19</v>
       </c>
       <c r="H69" s="19">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J69" s="20" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="K69" s="17" t="s">
         <v>190</v>
@@ -3928,33 +4089,33 @@
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A70" s="14">
+      <c r="A70" s="34">
         <v>60</v>
       </c>
       <c r="B70" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G70" s="19">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H70" s="19">
         <f t="shared" si="3"/>
-        <v>0.30000000000000004</v>
+        <v>1</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J70" s="20" t="s">
         <v>215</v>
@@ -3962,179 +4123,201 @@
       <c r="K70" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="L70" s="3" t="s">
-        <v>292</v>
-      </c>
+      <c r="L70" s="3"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A71" s="14">
+      <c r="A71" s="33">
         <v>61</v>
       </c>
       <c r="B71" s="15">
-        <v>7</v>
-      </c>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E71" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>204</v>
+        <v>2</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>288</v>
       </c>
       <c r="G71" s="19">
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
       <c r="H71" s="19">
         <f t="shared" si="3"/>
-        <v>2.17</v>
+        <v>1</v>
       </c>
       <c r="I71" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="J71" s="20"/>
-      <c r="K71" s="17"/>
+        <v>91</v>
+      </c>
+      <c r="J71" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="K71" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="L71" s="3" t="s">
-        <v>206</v>
+        <v>283</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A72" s="14">
+      <c r="A72" s="33">
         <v>62</v>
       </c>
       <c r="B72" s="15">
-        <v>14</v>
-      </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E72" s="15">
-        <v>1722533123</v>
-      </c>
-      <c r="F72" s="15" t="s">
-        <v>211</v>
+        <v>3</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="F72" s="21" t="s">
+        <v>290</v>
       </c>
       <c r="G72" s="19">
-        <v>0.152</v>
+        <v>0.1</v>
       </c>
       <c r="H72" s="19">
         <f t="shared" si="3"/>
-        <v>2.1280000000000001</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="J72" s="20"/>
-      <c r="K72" s="17"/>
+        <v>92</v>
+      </c>
+      <c r="J72" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="K72" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="L72" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="R72" s="2" t="s">
-        <v>194</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A73" s="37"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="40"/>
-      <c r="K73" s="37"/>
-      <c r="L73" s="3"/>
+      <c r="A73" s="34">
+        <v>63</v>
+      </c>
+      <c r="B73" s="15">
+        <v>7</v>
+      </c>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G73" s="19">
+        <v>0.31</v>
+      </c>
+      <c r="H73" s="19">
+        <f t="shared" si="3"/>
+        <v>2.17</v>
+      </c>
+      <c r="I73" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="J73" s="20"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A74" s="35">
-        <v>1</v>
+      <c r="A74" s="33">
+        <v>64</v>
       </c>
       <c r="B74" s="15">
-        <v>1</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C74" s="17"/>
       <c r="D74" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>28</v>
+        <v>98</v>
+      </c>
+      <c r="E74" s="15">
+        <v>1722533123</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="G74" s="19">
-        <v>1.4</v>
+        <v>0.152</v>
       </c>
       <c r="H74" s="19">
         <f t="shared" si="3"/>
-        <v>1.4</v>
+        <v>2.1280000000000001</v>
       </c>
       <c r="I74" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="J74" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="K74" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="L74" s="3"/>
+        <v>209</v>
+      </c>
+      <c r="J74" s="20"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A75" s="35">
-        <v>2</v>
-      </c>
-      <c r="B75" s="15">
-        <v>1</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F75" s="15"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I75" s="17"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="17" t="s">
-        <v>190</v>
-      </c>
+      <c r="A75" s="37"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="37"/>
       <c r="L75" s="3"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B76" s="15">
         <v>1</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" s="17"/>
+        <v>15</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>139</v>
+      </c>
       <c r="E76" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="F76" s="15"/>
-      <c r="G76" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G76" s="19">
+        <v>1.4</v>
+      </c>
       <c r="H76" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I76" s="17"/>
-      <c r="J76" s="20"/>
+        <v>1.4</v>
+      </c>
+      <c r="I76" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J76" s="20" t="s">
+        <v>294</v>
+      </c>
       <c r="K76" s="17" t="s">
         <v>190</v>
       </c>
@@ -4142,17 +4325,17 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B77" s="15">
         <v>1</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F77" s="15"/>
       <c r="G77" s="19"/>
@@ -4169,76 +4352,53 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B78" s="15">
         <v>1</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>336</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D78" s="17"/>
       <c r="E78" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="G78" s="19">
-        <v>1.56</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F78" s="15"/>
+      <c r="G78" s="19"/>
       <c r="H78" s="19">
         <f t="shared" si="3"/>
-        <v>1.56</v>
-      </c>
-      <c r="I78" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="J78" s="20" t="s">
-        <v>298</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" s="17"/>
+      <c r="J78" s="20"/>
       <c r="K78" s="17" t="s">
         <v>190</v>
       </c>
       <c r="L78" s="3"/>
-      <c r="R78" s="2" t="s">
-        <v>194</v>
-      </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B79" s="15">
         <v>1</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>337</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D79" s="17"/>
       <c r="E79" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="G79" s="19">
-        <v>0.86</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="F79" s="15"/>
+      <c r="G79" s="19"/>
       <c r="H79" s="19">
         <f t="shared" si="3"/>
-        <v>0.86</v>
-      </c>
-      <c r="I79" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="J79" s="20" t="s">
-        <v>301</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" s="17"/>
+      <c r="J79" s="20"/>
       <c r="K79" s="17" t="s">
         <v>190</v>
       </c>
@@ -4246,73 +4406,90 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="35">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B80" s="15">
         <v>1</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D80" s="17"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="19"/>
+        <v>17</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="G80" s="19">
+        <v>1.56</v>
+      </c>
       <c r="H80" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I80" s="17"/>
-      <c r="J80" s="20"/>
-      <c r="K80" s="15"/>
+        <v>1.56</v>
+      </c>
+      <c r="I80" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="J80" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="K80" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="L80" s="3"/>
+      <c r="R80" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="35">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B81" s="15">
         <v>1</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>98</v>
+        <v>337</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G81" s="19">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="H81" s="19">
         <f t="shared" si="3"/>
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="I81" s="17" t="s">
-        <v>107</v>
+        <v>300</v>
       </c>
       <c r="J81" s="20" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="K81" s="17" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L81" s="3"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="35">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B82" s="15">
         <v>1</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="15"/>
@@ -4329,117 +4506,103 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="35">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B83" s="15">
         <v>1</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D83" s="17"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="19"/>
+        <v>50</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="G83" s="19">
+        <v>0.67</v>
+      </c>
       <c r="H83" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="20"/>
-      <c r="K83" s="15"/>
+        <v>0.67</v>
+      </c>
+      <c r="I83" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="J83" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="K83" s="17" t="s">
+        <v>197</v>
+      </c>
       <c r="L83" s="3"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="35">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B84" s="15">
         <v>1</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="G84" s="19">
-        <v>0.1</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D84" s="17"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="19"/>
       <c r="H84" s="19">
         <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="I84" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="J84" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="K84" s="17" t="s">
-        <v>190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" s="17"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="15"/>
       <c r="L84" s="3"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="35">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B85" s="15">
         <v>1</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="F85" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="G85" s="19">
-        <v>0.1</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D85" s="17"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="19"/>
       <c r="H85" s="19">
         <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="I85" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="J85" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="K85" s="17" t="s">
-        <v>190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" s="20"/>
+      <c r="K85" s="15"/>
       <c r="L85" s="3"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="35">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B86" s="15">
         <v>1</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G86" s="19">
         <v>0.1</v>
@@ -4449,7 +4612,7 @@
         <v>0.1</v>
       </c>
       <c r="I86" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J86" s="20" t="s">
         <v>216</v>
@@ -4457,38 +4620,36 @@
       <c r="K86" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="L86" s="3" t="s">
-        <v>237</v>
-      </c>
+      <c r="L86" s="3"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="35">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B87" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G87" s="19">
         <v>0.1</v>
       </c>
       <c r="H87" s="19">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I87" s="17" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="J87" s="20" t="s">
         <v>216</v>
@@ -4496,28 +4657,26 @@
       <c r="K87" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="L87" s="3" t="s">
-        <v>222</v>
-      </c>
+      <c r="L87" s="3"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="35">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B88" s="15">
         <v>1</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D88" s="17" t="s">
         <v>235</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="G88" s="19">
         <v>0.1</v>
@@ -4527,7 +4686,7 @@
         <v>0.1</v>
       </c>
       <c r="I88" s="17" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="J88" s="20" t="s">
         <v>216</v>
@@ -4536,72 +4695,96 @@
         <v>190</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>316</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="35">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B89" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D89" s="17"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="19"/>
+        <v>115</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="F89" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="G89" s="19">
+        <v>0.1</v>
+      </c>
       <c r="H89" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I89" s="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="I89" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="J89" s="20" t="s">
         <v>216</v>
       </c>
       <c r="K89" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="L89" s="3"/>
+      <c r="L89" s="3" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="35">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B90" s="15">
         <v>1</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D90" s="17"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="19"/>
+        <v>116</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="G90" s="19">
+        <v>0.1</v>
+      </c>
       <c r="H90" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I90" s="17"/>
+        <v>0.1</v>
+      </c>
+      <c r="I90" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="J90" s="20" t="s">
         <v>216</v>
       </c>
       <c r="K90" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="L90" s="3"/>
+      <c r="L90" s="3" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="35">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B91" s="15">
         <v>1</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D91" s="17"/>
       <c r="E91" s="21"/>
@@ -4613,7 +4796,7 @@
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="20" t="s">
-        <v>305</v>
+        <v>216</v>
       </c>
       <c r="K91" s="17" t="s">
         <v>190</v>
@@ -4622,13 +4805,13 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="35">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B92" s="15">
         <v>1</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D92" s="17"/>
       <c r="E92" s="21"/>
@@ -4649,211 +4832,265 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="35">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B93" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="E93" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="F93" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="G93" s="19">
-        <v>0.05</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D93" s="17"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="19"/>
       <c r="H93" s="19">
-        <f>(B93*G93)</f>
-        <v>0.2</v>
-      </c>
-      <c r="I93" s="17" t="s">
-        <v>81</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I93" s="17"/>
       <c r="J93" s="20" t="s">
-        <v>216</v>
+        <v>305</v>
       </c>
       <c r="K93" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="L93" s="2" t="s">
-        <v>319</v>
-      </c>
+      <c r="L93" s="3"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="35">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B94" s="15">
         <v>1</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="E94" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="F94" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="G94" s="19">
-        <v>0.1</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D94" s="17"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="19"/>
       <c r="H94" s="19">
-        <f t="shared" ref="H94:H97" si="4">(B94*G94)</f>
-        <v>0.1</v>
-      </c>
-      <c r="I94" s="17" t="s">
-        <v>82</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I94" s="17"/>
       <c r="J94" s="20" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="K94" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="L94" s="2"/>
+      <c r="L94" s="3"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="35">
+        <v>20</v>
+      </c>
+      <c r="B95" s="15">
+        <v>4</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E95" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="F95" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="G95" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="H95" s="19">
+        <f>(B95*G95)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I95" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="J95" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="K95" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" s="35">
+        <v>21</v>
+      </c>
+      <c r="B96" s="15">
+        <v>1</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="E96" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="F96" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="G96" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H96" s="19">
+        <f t="shared" ref="H96:H99" si="4">(B96*G96)</f>
+        <v>0.1</v>
+      </c>
+      <c r="I96" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J96" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K96" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L96" s="2"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" s="35">
         <v>22</v>
       </c>
-      <c r="B95" s="15">
-        <v>1</v>
-      </c>
-      <c r="C95" s="17" t="s">
+      <c r="B97" s="15">
+        <v>1</v>
+      </c>
+      <c r="C97" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="D95" s="20" t="s">
+      <c r="D97" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="E95" s="21" t="s">
+      <c r="E97" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="F95" s="21" t="s">
+      <c r="F97" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="G95" s="19">
+      <c r="G97" s="19">
         <v>0.11</v>
       </c>
-      <c r="H95" s="19">
+      <c r="H97" s="19">
         <f t="shared" si="4"/>
         <v>0.11</v>
       </c>
-      <c r="I95" s="17" t="s">
+      <c r="I97" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="J95" s="20" t="s">
+      <c r="J97" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="K95" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="L95" s="2"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A96" s="35">
+      <c r="K97" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L97" s="2"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" s="35">
         <v>23</v>
       </c>
-      <c r="B96" s="15">
-        <v>1</v>
-      </c>
-      <c r="C96" s="17" t="s">
+      <c r="B98" s="15">
+        <v>1</v>
+      </c>
+      <c r="C98" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="19">
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I96" s="27"/>
-      <c r="J96" s="20" t="s">
+      <c r="I98" s="27"/>
+      <c r="J98" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="K96" s="17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="35">
+      <c r="K98" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" s="35">
         <v>24</v>
       </c>
-      <c r="B97" s="15">
-        <v>1</v>
-      </c>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="19">
+      <c r="B99" s="15">
+        <v>1</v>
+      </c>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I97" s="27"/>
-      <c r="J97" s="15"/>
-      <c r="K97" s="15"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I100" s="12"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H101" s="10" t="s">
+      <c r="I99" s="27"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="15"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I102" s="12"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H103" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="I101" s="5"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H102" s="9">
-        <f>SUM(H12:H70)</f>
-        <v>68.20999999999998</v>
-      </c>
-      <c r="I102" s="5"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H103" s="1"/>
-      <c r="I103" s="6"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H104" s="7" t="s">
+      <c r="I103" s="5"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H104" s="9">
+        <f>SUM(H12:H72)</f>
+        <v>71.089999999999989</v>
+      </c>
+      <c r="I104" s="5"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H105" s="1"/>
+      <c r="I105" s="6"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H106" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="I104" s="3"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H105" s="9">
-        <f>SUM(H74:H97)</f>
+      <c r="I106" s="3"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H107" s="9">
+        <f>SUM(H76:H99)</f>
         <v>5.4999999999999991</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H107" s="7" t="s">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H109" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H108" s="9">
-        <f>SUM(H102+H105)</f>
-        <v>73.70999999999998</v>
-      </c>
-    </row>
-    <row r="114" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H114" s="11"/>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H110" s="9">
+        <f>SUM(H104+H107)</f>
+        <v>76.589999999999989</v>
+      </c>
+    </row>
+    <row r="116" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H116" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SPEX HAB2 BOM.xlsx
+++ b/SPEX HAB2 BOM.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="390">
   <si>
     <t>Description</t>
   </si>
@@ -364,15 +364,6 @@
     <t>U4</t>
   </si>
   <si>
-    <t>TPS769XX</t>
-  </si>
-  <si>
-    <t>MK03ZxxVFG4</t>
-  </si>
-  <si>
-    <t>BMP180</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -397,9 +388,6 @@
     <t>0 ohm resistor</t>
   </si>
   <si>
-    <t>R3</t>
-  </si>
-  <si>
     <t>100 ohm resistor</t>
   </si>
   <si>
@@ -409,24 +397,12 @@
     <t>R8</t>
   </si>
   <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>R18</t>
-  </si>
-  <si>
     <t>R19</t>
   </si>
   <si>
     <t>R20</t>
   </si>
   <si>
-    <t>C1,C2,C5,C7</t>
-  </si>
-  <si>
-    <t>C18</t>
-  </si>
-  <si>
     <t>Mainboard Total:</t>
   </si>
   <si>
@@ -1166,6 +1142,90 @@
   </si>
   <si>
     <t>input diode</t>
+  </si>
+  <si>
+    <t>DX4R005JJ6R1500</t>
+  </si>
+  <si>
+    <t>656-DX4R005JJ6R1500</t>
+  </si>
+  <si>
+    <t>MicroB USB connector</t>
+  </si>
+  <si>
+    <t>JAE Electronics</t>
+  </si>
+  <si>
+    <t>LGA-8</t>
+  </si>
+  <si>
+    <t>LGA-24</t>
+  </si>
+  <si>
+    <t>R3,R16,R18</t>
+  </si>
+  <si>
+    <t>.02 ohm resistor</t>
+  </si>
+  <si>
+    <t>MKL03Z32VFG4</t>
+  </si>
+  <si>
+    <t>841-MKL03Z32VFG4</t>
+  </si>
+  <si>
+    <t>Microcontroller</t>
+  </si>
+  <si>
+    <t>QFN-16</t>
+  </si>
+  <si>
+    <t>NCP500SN33T1G</t>
+  </si>
+  <si>
+    <t>863-NCP500SN33T1G</t>
+  </si>
+  <si>
+    <t>3.3V Linear Power Regulator</t>
+  </si>
+  <si>
+    <t>TSOP-5</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>756-LRMAM0805R02FT5</t>
+  </si>
+  <si>
+    <t>LRMAM0805-R02FT5</t>
+  </si>
+  <si>
+    <t>Welwyn Components</t>
+  </si>
+  <si>
+    <t>RK73H1ETTP1001F</t>
+  </si>
+  <si>
+    <t>660-RK73H1ETTP1001F</t>
+  </si>
+  <si>
+    <t>picoblade contacts</t>
+  </si>
+  <si>
+    <t>WM1775CT-ND</t>
+  </si>
+  <si>
+    <t>51021-0600</t>
+  </si>
+  <si>
+    <t>538-51021-0600</t>
+  </si>
+  <si>
+    <t>C1,C2,C5,C7,C18</t>
+  </si>
+  <si>
+    <t>Board Multiplier:</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1379,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1444,6 +1504,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1826,10 +1889,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R116"/>
+  <dimension ref="A1:R114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1956,7 +2019,7 @@
         <v>12</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1977,6 +2040,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C12" s="17" t="s">
@@ -1997,11 +2061,11 @@
         <v>6</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J12" s="20"/>
       <c r="K12" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -2009,19 +2073,20 @@
         <v>2</v>
       </c>
       <c r="B13" s="15">
+        <f>(3*G101)</f>
         <v>3</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G13" s="19">
         <v>0.55000000000000004</v>
@@ -2031,11 +2096,11 @@
         <v>1.6500000000000001</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -2043,19 +2108,20 @@
         <v>3</v>
       </c>
       <c r="B14" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G14" s="19">
         <v>7.07</v>
@@ -2065,11 +2131,11 @@
         <v>7.07</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="J14" s="23"/>
       <c r="K14" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -2077,19 +2143,20 @@
         <v>4</v>
       </c>
       <c r="B15" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G15" s="19">
         <v>0.48</v>
@@ -2099,11 +2166,11 @@
         <v>0.48</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="J15" s="20"/>
       <c r="K15" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2111,19 +2178,20 @@
         <v>5</v>
       </c>
       <c r="B16" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G16" s="19">
         <v>1.22</v>
@@ -2133,11 +2201,11 @@
         <v>1.22</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="J16" s="20"/>
       <c r="K16" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2145,19 +2213,20 @@
         <v>6</v>
       </c>
       <c r="B17" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G17" s="19">
         <v>5.66</v>
@@ -2167,11 +2236,13 @@
         <v>5.66</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="J17" s="20"/>
+        <v>137</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>366</v>
+      </c>
       <c r="K17" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2179,19 +2250,20 @@
         <v>7</v>
       </c>
       <c r="B18" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G18" s="26">
         <v>6.21</v>
@@ -2201,11 +2273,13 @@
         <v>6.21</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="J18" s="20"/>
+        <v>138</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>367</v>
+      </c>
       <c r="K18" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2213,6 +2287,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C19" s="30" t="s">
@@ -2222,10 +2297,10 @@
         <v>95</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G19" s="28">
         <v>2.12</v>
@@ -2235,13 +2310,13 @@
         <v>2.12</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L19" s="2"/>
     </row>
@@ -2250,19 +2325,20 @@
         <v>9</v>
       </c>
       <c r="B20" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>27</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G20" s="19">
         <v>1.1200000000000001</v>
@@ -2272,11 +2348,11 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -2284,19 +2360,20 @@
         <v>10</v>
       </c>
       <c r="B21" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G21" s="19">
         <v>1.4</v>
@@ -2306,13 +2383,13 @@
         <v>1.4</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L21" s="2"/>
     </row>
@@ -2321,19 +2398,20 @@
         <v>11</v>
       </c>
       <c r="B22" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C22" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G22" s="19">
         <v>0.8</v>
@@ -2343,11 +2421,11 @@
         <v>0.8</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L22" s="2"/>
     </row>
@@ -2356,19 +2434,20 @@
         <v>12</v>
       </c>
       <c r="B23" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G23" s="19">
         <v>4</v>
@@ -2378,11 +2457,11 @@
         <v>4</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="J23" s="20"/>
       <c r="K23" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -2390,6 +2469,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="15">
+        <f>(2*G101)</f>
         <v>2</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -2399,10 +2479,10 @@
         <v>95</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G24" s="19">
         <v>1.45</v>
@@ -2412,11 +2492,11 @@
         <v>2.9</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="J24" s="20"/>
       <c r="K24" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -2424,19 +2504,20 @@
         <v>14</v>
       </c>
       <c r="B25" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G25" s="28">
         <v>0.72</v>
@@ -2446,11 +2527,11 @@
         <v>0.72</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="J25" s="20"/>
       <c r="K25" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -2458,19 +2539,20 @@
         <v>15</v>
       </c>
       <c r="B26" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="G26" s="19">
         <v>0.42</v>
@@ -2480,13 +2562,13 @@
         <v>0.42</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2494,19 +2576,20 @@
         <v>16</v>
       </c>
       <c r="B27" s="15">
+        <f>(3*G101)</f>
         <v>3</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>33</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="G27" s="19">
         <v>0.26</v>
@@ -2516,13 +2599,13 @@
         <v>0.78</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -2530,19 +2613,20 @@
         <v>17</v>
       </c>
       <c r="B28" s="15">
+        <f>(2*G101)</f>
         <v>2</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G28" s="19">
         <v>0.2</v>
@@ -2552,11 +2636,11 @@
         <v>0.4</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="J28" s="20"/>
       <c r="K28" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2578,7 +2662,7 @@
       <c r="I29" s="17"/>
       <c r="J29" s="20"/>
       <c r="K29" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -2586,19 +2670,20 @@
         <v>19</v>
       </c>
       <c r="B30" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G30" s="19">
         <v>0.46</v>
@@ -2608,11 +2693,11 @@
         <v>0.46</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="J30" s="20"/>
       <c r="K30" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -2620,19 +2705,20 @@
         <v>20</v>
       </c>
       <c r="B31" s="15">
+        <f>(3*G101)</f>
         <v>3</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>37</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G31" s="19">
         <v>0.52</v>
@@ -2642,11 +2728,11 @@
         <v>1.56</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J31" s="20"/>
       <c r="K31" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -2654,19 +2740,20 @@
         <v>21</v>
       </c>
       <c r="B32" s="15">
+        <f>(2*G101)</f>
         <v>2</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G32" s="19">
         <v>0.37</v>
@@ -2676,13 +2763,13 @@
         <v>0.74</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -2690,19 +2777,20 @@
         <v>22</v>
       </c>
       <c r="B33" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G33" s="19">
         <v>0.52</v>
@@ -2712,11 +2800,11 @@
         <v>0.52</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J33" s="20"/>
       <c r="K33" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
@@ -2724,19 +2812,20 @@
         <v>23</v>
       </c>
       <c r="B34" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>40</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="G34" s="19">
         <v>0.1</v>
@@ -2746,16 +2835,16 @@
         <v>0.1</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L34" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
@@ -2763,19 +2852,20 @@
         <v>24</v>
       </c>
       <c r="B35" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G35" s="19">
         <v>0.13</v>
@@ -2785,16 +2875,16 @@
         <v>0.13</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K35" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L35" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -2802,19 +2892,20 @@
         <v>25</v>
       </c>
       <c r="B36" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="G36" s="19">
         <v>0.15</v>
@@ -2824,13 +2915,13 @@
         <v>0.15</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K36" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
@@ -2838,19 +2929,20 @@
         <v>26</v>
       </c>
       <c r="B37" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G37" s="19">
         <v>0.1</v>
@@ -2860,16 +2952,16 @@
         <v>0.1</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L37" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -2877,19 +2969,20 @@
         <v>28</v>
       </c>
       <c r="B38" s="15">
+        <f>(2*G101)</f>
         <v>2</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>44</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G38" s="19">
         <v>0.15</v>
@@ -2899,13 +2992,13 @@
         <v>0.3</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="1"/>
@@ -2916,19 +3009,20 @@
         <v>29</v>
       </c>
       <c r="B39" s="15">
+        <f>(2*G101)</f>
         <v>2</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="G39" s="19">
         <v>0.19</v>
@@ -2940,7 +3034,7 @@
       <c r="I39" s="17"/>
       <c r="J39" s="20"/>
       <c r="K39" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="1"/>
@@ -2951,19 +3045,20 @@
         <v>30</v>
       </c>
       <c r="B40" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G40" s="19">
         <v>0</v>
@@ -2975,7 +3070,7 @@
       <c r="I40" s="15"/>
       <c r="J40" s="20"/>
       <c r="K40" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="1"/>
@@ -2986,19 +3081,20 @@
         <v>31</v>
       </c>
       <c r="B41" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C41" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="E41" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>360</v>
-      </c>
       <c r="F41" s="13" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="G41" s="19">
         <v>0.38</v>
@@ -3008,11 +3104,11 @@
         <v>0.38</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="J41" s="20"/>
       <c r="K41" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="1"/>
@@ -3023,19 +3119,20 @@
         <v>32</v>
       </c>
       <c r="B42" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G42" s="19">
         <v>0.48</v>
@@ -3045,13 +3142,13 @@
         <v>0.48</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="K42" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="1"/>
@@ -3062,19 +3159,20 @@
         <v>33</v>
       </c>
       <c r="B43" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G43" s="19">
         <v>0.34</v>
@@ -3084,11 +3182,11 @@
         <v>0.34</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="J43" s="20"/>
       <c r="K43" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="1"/>
@@ -3099,19 +3197,20 @@
         <v>34</v>
       </c>
       <c r="B44" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>48</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="G44" s="19">
         <v>0.46</v>
@@ -3121,13 +3220,13 @@
         <v>0.46</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="K44" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="1"/>
@@ -3138,19 +3237,20 @@
         <v>35</v>
       </c>
       <c r="B45" s="15">
+        <f>(2*G101)</f>
         <v>2</v>
       </c>
       <c r="C45" s="27" t="s">
         <v>49</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G45" s="19">
         <v>1.43</v>
@@ -3160,17 +3260,17 @@
         <v>2.86</v>
       </c>
       <c r="I45" s="17" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="J45" s="21"/>
       <c r="K45" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="R45" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
@@ -3178,22 +3278,35 @@
         <v>36</v>
       </c>
       <c r="B46" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C46" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="19"/>
+      <c r="D46" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="G46" s="19">
+        <v>0.97</v>
+      </c>
       <c r="H46" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="17"/>
+        <v>0.97</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>364</v>
+      </c>
       <c r="J46" s="20"/>
-      <c r="K46" s="17"/>
+      <c r="K46" s="17" t="s">
+        <v>189</v>
+      </c>
       <c r="L46" s="3"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -3203,6 +3316,7 @@
         <v>37</v>
       </c>
       <c r="B47" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C47" s="17" t="s">
@@ -3228,17 +3342,18 @@
         <v>38</v>
       </c>
       <c r="B48" s="15">
+        <f>(4*G101)</f>
         <v>4</v>
       </c>
       <c r="C48" s="27" t="s">
         <v>52</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="15" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G48" s="19">
         <v>1.5</v>
@@ -3248,16 +3363,16 @@
         <v>6</v>
       </c>
       <c r="I48" s="32" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J48" s="36" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -3267,6 +3382,7 @@
         <v>39</v>
       </c>
       <c r="B49" s="15">
+        <f>(7*G101)</f>
         <v>7</v>
       </c>
       <c r="C49" s="27" t="s">
@@ -3276,10 +3392,10 @@
         <v>98</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G49" s="19">
         <v>0.72</v>
@@ -3289,13 +3405,13 @@
         <v>5.04</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="K49" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="1"/>
@@ -3306,19 +3422,20 @@
         <v>40</v>
       </c>
       <c r="B50" s="15">
+        <f>(4*G101)</f>
         <v>4</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G50" s="19">
         <v>0.1</v>
@@ -3331,18 +3448,18 @@
         <v>55</v>
       </c>
       <c r="J50" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K50" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="R50" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
@@ -3350,19 +3467,20 @@
         <v>41</v>
       </c>
       <c r="B51" s="15">
+        <f>(18*G101)</f>
         <v>18</v>
       </c>
       <c r="C51" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G51" s="19">
         <v>0.1</v>
@@ -3375,15 +3493,15 @@
         <v>59</v>
       </c>
       <c r="J51" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K51" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="R51" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
@@ -3391,19 +3509,20 @@
         <v>42</v>
       </c>
       <c r="B52" s="15">
+        <f>(2*G101)</f>
         <v>2</v>
       </c>
       <c r="C52" s="27" t="s">
         <v>56</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G52" s="19">
         <v>0.1</v>
@@ -3416,10 +3535,10 @@
         <v>57</v>
       </c>
       <c r="J52" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K52" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -3429,19 +3548,20 @@
         <v>43</v>
       </c>
       <c r="B53" s="15">
+        <f>(3*G101)</f>
         <v>3</v>
       </c>
       <c r="C53" s="27" t="s">
         <v>60</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G53" s="19">
         <v>0.1</v>
@@ -3451,16 +3571,16 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="I53" s="17" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="J53" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K53" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L53" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -3470,19 +3590,20 @@
         <v>44</v>
       </c>
       <c r="B54" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>61</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G54" s="19">
         <v>0.08</v>
@@ -3495,13 +3616,13 @@
         <v>62</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K54" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L54" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -3511,41 +3632,42 @@
         <v>45</v>
       </c>
       <c r="B55" s="15">
+        <f>(5*G101)</f>
         <v>5</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>63</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G55" s="19">
         <v>0.1</v>
       </c>
       <c r="H55" s="19">
-        <f t="shared" ref="H55:H94" si="3">(B55*G55)</f>
+        <f t="shared" ref="H55:H92" si="3">(B55*G55)</f>
         <v>0.5</v>
       </c>
       <c r="I55" s="17" t="s">
         <v>64</v>
       </c>
       <c r="J55" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K55" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
@@ -3553,19 +3675,20 @@
         <v>46</v>
       </c>
       <c r="B56" s="15">
+        <f>(2*G101)</f>
         <v>2</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G56" s="19">
         <v>0.08</v>
@@ -3578,13 +3701,13 @@
         <v>66</v>
       </c>
       <c r="J56" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K56" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
@@ -3592,19 +3715,20 @@
         <v>47</v>
       </c>
       <c r="B57" s="15">
+        <f>(2*G101)</f>
         <v>2</v>
       </c>
       <c r="C57" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G57" s="19">
         <v>0.1</v>
@@ -3617,13 +3741,13 @@
         <v>67</v>
       </c>
       <c r="J57" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K57" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L57" s="31" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
@@ -3631,19 +3755,20 @@
         <v>48</v>
       </c>
       <c r="B58" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C58" s="17" t="s">
         <v>69</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G58" s="19">
         <v>0.1</v>
@@ -3656,13 +3781,13 @@
         <v>70</v>
       </c>
       <c r="J58" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K58" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
@@ -3670,19 +3795,20 @@
         <v>49</v>
       </c>
       <c r="B59" s="15">
+        <f>(2*G101)</f>
         <v>2</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>71</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G59" s="19">
         <v>0.1</v>
@@ -3695,13 +3821,13 @@
         <v>72</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K59" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
@@ -3709,19 +3835,20 @@
         <v>50</v>
       </c>
       <c r="B60" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C60" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G60" s="19">
         <v>0.1</v>
@@ -3734,13 +3861,13 @@
         <v>74</v>
       </c>
       <c r="J60" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K60" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L60" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
@@ -3748,19 +3875,20 @@
         <v>51</v>
       </c>
       <c r="B61" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C61" s="17" t="s">
         <v>75</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G61" s="19">
         <v>0.1</v>
@@ -3773,13 +3901,13 @@
         <v>76</v>
       </c>
       <c r="J61" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K61" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
@@ -3787,19 +3915,20 @@
         <v>52</v>
       </c>
       <c r="B62" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C62" s="17" t="s">
         <v>77</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G62" s="19">
         <v>0.09</v>
@@ -3812,13 +3941,13 @@
         <v>78</v>
       </c>
       <c r="J62" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K62" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
@@ -3826,19 +3955,20 @@
         <v>53</v>
       </c>
       <c r="B63" s="15">
+        <f>(8*G101)</f>
         <v>8</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>79</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G63" s="19">
         <v>0.08</v>
@@ -3851,10 +3981,10 @@
         <v>81</v>
       </c>
       <c r="J63" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K63" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L63" s="3"/>
     </row>
@@ -3863,19 +3993,20 @@
         <v>54</v>
       </c>
       <c r="B64" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C64" s="17" t="s">
         <v>80</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G64" s="19">
         <v>0.1</v>
@@ -3888,13 +4019,13 @@
         <v>82</v>
       </c>
       <c r="J64" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K64" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
@@ -3902,19 +4033,20 @@
         <v>55</v>
       </c>
       <c r="B65" s="15">
+        <f>(8*G101)</f>
         <v>8</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G65" s="19">
         <v>0.04</v>
@@ -3924,13 +4056,13 @@
         <v>0.32</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="J65" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K65" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L65" s="3"/>
     </row>
@@ -3939,19 +4071,20 @@
         <v>56</v>
       </c>
       <c r="B66" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G66" s="19">
         <v>0.02</v>
@@ -3964,13 +4097,13 @@
         <v>83</v>
       </c>
       <c r="J66" s="20" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K66" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
@@ -3978,19 +4111,20 @@
         <v>57</v>
       </c>
       <c r="B67" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C67" s="17" t="s">
         <v>84</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G67" s="19">
         <v>0.04</v>
@@ -4000,16 +4134,16 @@
         <v>0.04</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="J67" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K67" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
@@ -4017,19 +4151,20 @@
         <v>58</v>
       </c>
       <c r="B68" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C68" s="17" t="s">
         <v>85</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G68" s="19">
         <v>0.11</v>
@@ -4042,10 +4177,10 @@
         <v>88</v>
       </c>
       <c r="J68" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K68" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L68" s="3"/>
     </row>
@@ -4054,19 +4189,20 @@
         <v>59</v>
       </c>
       <c r="B69" s="15">
+        <f>(2*G101)</f>
         <v>2</v>
       </c>
       <c r="C69" s="17" t="s">
         <v>86</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G69" s="19">
         <v>0.19</v>
@@ -4079,13 +4215,13 @@
         <v>87</v>
       </c>
       <c r="J69" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K69" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
@@ -4093,19 +4229,20 @@
         <v>60</v>
       </c>
       <c r="B70" s="15">
+        <f>(2*G101)</f>
         <v>2</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>93</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G70" s="19">
         <v>0.5</v>
@@ -4118,10 +4255,10 @@
         <v>89</v>
       </c>
       <c r="J70" s="20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K70" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L70" s="3"/>
     </row>
@@ -4130,19 +4267,20 @@
         <v>61</v>
       </c>
       <c r="B71" s="15">
+        <f>(2*G101)</f>
         <v>2</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G71" s="19">
         <v>0.5</v>
@@ -4155,13 +4293,13 @@
         <v>91</v>
       </c>
       <c r="J71" s="20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K71" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
@@ -4169,19 +4307,20 @@
         <v>62</v>
       </c>
       <c r="B72" s="15">
+        <f>(3*G101)</f>
         <v>3</v>
       </c>
       <c r="C72" s="17" t="s">
         <v>94</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G72" s="19">
         <v>0.1</v>
@@ -4194,13 +4333,13 @@
         <v>92</v>
       </c>
       <c r="J72" s="20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K72" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
@@ -4208,6 +4347,7 @@
         <v>63</v>
       </c>
       <c r="B73" s="15">
+        <f>(7*G101)</f>
         <v>7</v>
       </c>
       <c r="C73" s="17"/>
@@ -4215,10 +4355,10 @@
         <v>98</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G73" s="19">
         <v>0.31</v>
@@ -4228,12 +4368,12 @@
         <v>2.17</v>
       </c>
       <c r="I73" s="17" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="J73" s="20"/>
       <c r="K73" s="17"/>
       <c r="L73" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
@@ -4241,6 +4381,7 @@
         <v>64</v>
       </c>
       <c r="B74" s="15">
+        <f>(14*G101)</f>
         <v>14</v>
       </c>
       <c r="C74" s="17"/>
@@ -4251,7 +4392,7 @@
         <v>1722533123</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G74" s="19">
         <v>0.152</v>
@@ -4261,15 +4402,15 @@
         <v>2.1280000000000001</v>
       </c>
       <c r="I74" s="17" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J74" s="20"/>
       <c r="K74" s="17"/>
       <c r="L74" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
@@ -4291,19 +4432,20 @@
         <v>1</v>
       </c>
       <c r="B76" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C76" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>28</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G76" s="19">
         <v>1.4</v>
@@ -4313,40 +4455,51 @@
         <v>1.4</v>
       </c>
       <c r="I76" s="17" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J76" s="20" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="K76" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="35">
         <v>2</v>
       </c>
       <c r="B77" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C77" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D77" s="17"/>
+      <c r="D77" s="17" t="s">
+        <v>378</v>
+      </c>
       <c r="E77" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F77" s="15"/>
-      <c r="G77" s="19"/>
+        <v>374</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="G77" s="19">
+        <v>0.64</v>
+      </c>
       <c r="H77" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I77" s="17"/>
-      <c r="J77" s="20"/>
+        <v>0.64</v>
+      </c>
+      <c r="I77" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="J77" s="20" t="s">
+        <v>377</v>
+      </c>
       <c r="K77" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L77" s="3"/>
     </row>
@@ -4355,25 +4508,36 @@
         <v>3</v>
       </c>
       <c r="B78" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C78" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D78" s="17"/>
+      <c r="D78" s="17" t="s">
+        <v>122</v>
+      </c>
       <c r="E78" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="F78" s="15"/>
-      <c r="G78" s="19"/>
+        <v>370</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G78" s="19">
+        <v>1.24</v>
+      </c>
       <c r="H78" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I78" s="17"/>
-      <c r="J78" s="20"/>
+        <v>1.24</v>
+      </c>
+      <c r="I78" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="J78" s="20" t="s">
+        <v>373</v>
+      </c>
       <c r="K78" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L78" s="3"/>
     </row>
@@ -4382,25 +4546,36 @@
         <v>4</v>
       </c>
       <c r="B79" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C79" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F79" s="15"/>
-      <c r="G79" s="19"/>
+      <c r="D79" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E79" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G79" s="19">
+        <v>5.66</v>
+      </c>
       <c r="H79" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I79" s="17"/>
-      <c r="J79" s="20"/>
+        <f>(B79*G79)</f>
+        <v>5.66</v>
+      </c>
+      <c r="I79" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="J79" s="20" t="s">
+        <v>366</v>
+      </c>
       <c r="K79" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L79" s="3"/>
     </row>
@@ -4409,19 +4584,20 @@
         <v>5</v>
       </c>
       <c r="B80" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C80" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G80" s="19">
         <v>1.56</v>
@@ -4431,37 +4607,38 @@
         <v>1.56</v>
       </c>
       <c r="I80" s="17" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="J80" s="20" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="K80" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L80" s="3"/>
       <c r="R80" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="35">
         <v>6</v>
       </c>
       <c r="B81" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="G81" s="19">
         <v>0.86</v>
@@ -4471,44 +4648,60 @@
         <v>0.86</v>
       </c>
       <c r="I81" s="17" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="J81" s="20" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K81" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="35">
         <v>7</v>
       </c>
       <c r="B82" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C82" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D82" s="17"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="19"/>
+      <c r="D82" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="G82" s="19">
+        <v>0.15</v>
+      </c>
       <c r="H82" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I82" s="17"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="15"/>
+        <v>0.15</v>
+      </c>
+      <c r="I82" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="J82" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="K82" s="17" t="s">
+        <v>182</v>
+      </c>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="35">
         <v>8</v>
       </c>
       <c r="B83" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C83" s="17" t="s">
@@ -4518,10 +4711,10 @@
         <v>98</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G83" s="19">
         <v>0.67</v>
@@ -4531,21 +4724,22 @@
         <v>0.67</v>
       </c>
       <c r="I83" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J83" s="20" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="K83" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="35">
         <v>9</v>
       </c>
       <c r="B84" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C84" s="17" t="s">
@@ -4564,11 +4758,12 @@
       <c r="K84" s="15"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="35">
         <v>10</v>
       </c>
       <c r="B85" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C85" s="17" t="s">
@@ -4585,24 +4780,25 @@
       <c r="K85" s="15"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="35">
         <v>11</v>
       </c>
       <c r="B86" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G86" s="19">
         <v>0.1</v>
@@ -4612,34 +4808,35 @@
         <v>0.1</v>
       </c>
       <c r="I86" s="17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J86" s="20" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K86" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="35">
         <v>12</v>
       </c>
       <c r="B87" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G87" s="19">
         <v>0.1</v>
@@ -4649,73 +4846,75 @@
         <v>0.1</v>
       </c>
       <c r="I87" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J87" s="20" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K87" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="35">
         <v>13</v>
       </c>
       <c r="B88" s="15">
-        <v>1</v>
+        <f>(3*G101)</f>
+        <v>3</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>113</v>
+        <v>368</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G88" s="19">
         <v>0.1</v>
       </c>
       <c r="H88" s="19">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I88" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J88" s="20" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K88" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="35">
         <v>14</v>
       </c>
       <c r="B89" s="15">
+        <f>(2*G101)</f>
         <v>2</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G89" s="19">
         <v>0.1</v>
@@ -4728,33 +4927,34 @@
         <v>64</v>
       </c>
       <c r="J89" s="20" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K89" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="35">
         <v>15</v>
       </c>
       <c r="B90" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G90" s="19">
         <v>0.1</v>
@@ -4767,330 +4967,326 @@
         <v>66</v>
       </c>
       <c r="J90" s="20" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K90" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="35">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B91" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D91" s="17"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="F91" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="G91" s="19">
+        <v>0.37</v>
+      </c>
       <c r="H91" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I91" s="17"/>
+        <v>0.37</v>
+      </c>
+      <c r="I91" s="17" t="s">
+        <v>369</v>
+      </c>
       <c r="J91" s="20" t="s">
-        <v>216</v>
+        <v>297</v>
       </c>
       <c r="K91" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="35">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B92" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D92" s="17"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E92" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="F92" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="G92" s="19">
+        <v>0.1</v>
+      </c>
       <c r="H92" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I92" s="17"/>
+        <v>0.1</v>
+      </c>
+      <c r="I92" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="J92" s="20" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K92" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="35">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B93" s="15">
-        <v>1</v>
+        <f>(5*G101)</f>
+        <v>5</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D93" s="17"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="19"/>
+        <v>388</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="F93" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="G93" s="19">
+        <v>0.05</v>
+      </c>
       <c r="H93" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I93" s="17"/>
+        <f>(B93*G93)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I93" s="17" t="s">
+        <v>81</v>
+      </c>
       <c r="J93" s="20" t="s">
-        <v>305</v>
+        <v>208</v>
       </c>
       <c r="K93" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="35">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B94" s="15">
+        <f>(1*G101)</f>
         <v>1</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D94" s="17"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="19"/>
+        <v>296</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E94" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="G94" s="19">
+        <v>0.1</v>
+      </c>
       <c r="H94" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I94" s="17"/>
+        <f t="shared" ref="H94:H97" si="4">(B94*G94)</f>
+        <v>0.1</v>
+      </c>
+      <c r="I94" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="J94" s="20" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="K94" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="L94" s="2"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="35">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B95" s="15">
-        <v>4</v>
+        <f>(1*G101)</f>
+        <v>1</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>260</v>
+        <v>295</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>265</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="F95" s="21" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="G95" s="19">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="H95" s="19">
-        <f>(B95*G95)</f>
-        <v>0.2</v>
+        <f t="shared" si="4"/>
+        <v>0.11</v>
       </c>
       <c r="I95" s="17" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J95" s="20" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="K95" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="L95" s="2"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="35">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B96" s="15">
-        <v>1</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="E96" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="F96" s="21" t="s">
-        <v>272</v>
+        <f>(6*G101)</f>
+        <v>6</v>
+      </c>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E96" s="15">
+        <v>500588000</v>
+      </c>
+      <c r="F96" s="15" t="s">
+        <v>385</v>
       </c>
       <c r="G96" s="19">
         <v>0.1</v>
       </c>
       <c r="H96" s="19">
-        <f t="shared" ref="H96:H99" si="4">(B96*G96)</f>
-        <v>0.1</v>
-      </c>
-      <c r="I96" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="J96" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="K96" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="L96" s="2"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="I96" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="J96" s="20"/>
+      <c r="K96" s="17"/>
+      <c r="R96" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="35">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B97" s="15">
-        <v>1</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="D97" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="E97" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="F97" s="21" t="s">
-        <v>280</v>
+        <f>(1*G101)</f>
+        <v>1</v>
+      </c>
+      <c r="C97" s="15"/>
+      <c r="D97" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="F97" s="15" t="s">
+        <v>387</v>
       </c>
       <c r="G97" s="19">
-        <v>0.11</v>
+        <v>0.36</v>
       </c>
       <c r="H97" s="19">
         <f t="shared" si="4"/>
-        <v>0.11</v>
-      </c>
-      <c r="I97" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="J97" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="K97" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="L97" s="2"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A98" s="35">
-        <v>23</v>
-      </c>
-      <c r="B98" s="15">
-        <v>1</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I98" s="27"/>
-      <c r="J98" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="K98" s="17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A99" s="35">
-        <v>24</v>
-      </c>
-      <c r="B99" s="15">
-        <v>1</v>
-      </c>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I99" s="27"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="15"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I102" s="12"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H103" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="I103" s="5"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H104" s="9">
+        <v>0.36</v>
+      </c>
+      <c r="I97" s="27"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="15"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I100" s="12"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F101" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1</v>
+      </c>
+      <c r="H101" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I101" s="5"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H102" s="9">
         <f>SUM(H12:H72)</f>
-        <v>71.089999999999989</v>
-      </c>
-      <c r="I104" s="5"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H105" s="1"/>
-      <c r="I105" s="6"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H106" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="I106" s="3"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H107" s="9">
-        <f>SUM(H76:H99)</f>
-        <v>5.4999999999999991</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H109" s="7" t="s">
+        <v>72.059999999999988</v>
+      </c>
+      <c r="I102" s="5"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H103" s="1"/>
+      <c r="I103" s="6"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H104" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I104" s="3"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H105" s="9">
+        <f>SUM(H76:H97)</f>
+        <v>14.869999999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H107" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H110" s="9">
-        <f>SUM(H104+H107)</f>
-        <v>76.589999999999989</v>
-      </c>
-    </row>
-    <row r="116" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H116" s="11"/>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H108" s="9">
+        <f>SUM(H102+H105)</f>
+        <v>86.929999999999978</v>
+      </c>
+    </row>
+    <row r="114" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H114" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SPEX HAB2 BOM.xlsx
+++ b/SPEX HAB2 BOM.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Turnkey" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Turnkey!$A$1:$K$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Turnkey!$A$1:$K$57</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="390">
   <si>
     <t>Description</t>
   </si>
@@ -877,12 +877,6 @@
     <t>603-CC603KRX5R5BB475</t>
   </si>
   <si>
-    <t>GRM188R61A106KE69J</t>
-  </si>
-  <si>
-    <t>81-GRM188R61A106KE9J</t>
-  </si>
-  <si>
     <t>http://www.murata.com/products/catalog/pdf/c02e.pdf</t>
   </si>
   <si>
@@ -919,12 +913,6 @@
     <t>SO-8</t>
   </si>
   <si>
-    <t>LT6105HDCB#TRMPBFTR-ND</t>
-  </si>
-  <si>
-    <t>LT6105HDCB#TRMPBF</t>
-  </si>
-  <si>
     <t>Current Sense Op Amp</t>
   </si>
   <si>
@@ -1226,6 +1214,18 @@
   </si>
   <si>
     <t>Board Multiplier:</t>
+  </si>
+  <si>
+    <t>GRM188R61A106KE69D</t>
+  </si>
+  <si>
+    <t>81-GRM188R61A106KE9D</t>
+  </si>
+  <si>
+    <t>LT6105IDCB#TRMPBF</t>
+  </si>
+  <si>
+    <t>LT6105IDCB#TRMPBFCT-ND</t>
   </si>
 </sst>
 </file>
@@ -1502,11 +1502,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1889,10 +1889,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R114"/>
+  <dimension ref="A1:R113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1910,17 +1910,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
@@ -2040,8 +2040,8 @@
         <v>1</v>
       </c>
       <c r="B12" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>15</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="H12" s="19">
         <f>(B12*G12)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>133</v>
@@ -2073,8 +2073,8 @@
         <v>2</v>
       </c>
       <c r="B13" s="15">
-        <f>(3*G101)</f>
-        <v>3</v>
+        <f>(3*G100)</f>
+        <v>6</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>23</v>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="H13" s="19">
         <f t="shared" ref="H13:H19" si="0">(B13*G13)</f>
-        <v>1.6500000000000001</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>135</v>
@@ -2108,8 +2108,8 @@
         <v>3</v>
       </c>
       <c r="B14" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>14</v>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="H14" s="19">
         <f t="shared" si="0"/>
-        <v>7.07</v>
+        <v>14.14</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>132</v>
@@ -2143,8 +2143,8 @@
         <v>4</v>
       </c>
       <c r="B15" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>16</v>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="H15" s="19">
         <f>(B15*G15)</f>
-        <v>0.48</v>
+        <v>0.96</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>134</v>
@@ -2178,8 +2178,8 @@
         <v>5</v>
       </c>
       <c r="B16" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>17</v>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="H16" s="19">
         <f t="shared" si="0"/>
-        <v>1.22</v>
+        <v>2.44</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>136</v>
@@ -2213,8 +2213,8 @@
         <v>6</v>
       </c>
       <c r="B17" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>18</v>
@@ -2233,13 +2233,13 @@
       </c>
       <c r="H17" s="19">
         <f t="shared" si="0"/>
-        <v>5.66</v>
+        <v>11.32</v>
       </c>
       <c r="I17" s="17" t="s">
         <v>137</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K17" s="17" t="s">
         <v>182</v>
@@ -2250,8 +2250,8 @@
         <v>7</v>
       </c>
       <c r="B18" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>19</v>
@@ -2270,13 +2270,13 @@
       </c>
       <c r="H18" s="19">
         <f t="shared" si="0"/>
-        <v>6.21</v>
+        <v>12.42</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>138</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K18" s="17" t="s">
         <v>182</v>
@@ -2287,8 +2287,8 @@
         <v>8</v>
       </c>
       <c r="B19" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>20</v>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="H19" s="19">
         <f t="shared" si="0"/>
-        <v>2.12</v>
+        <v>4.24</v>
       </c>
       <c r="I19" s="27" t="s">
         <v>141</v>
@@ -2325,8 +2325,8 @@
         <v>9</v>
       </c>
       <c r="B20" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>21</v>
@@ -2344,8 +2344,8 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="H20" s="19">
-        <f t="shared" ref="H20:H30" si="1">(B20*G20)</f>
-        <v>1.1200000000000001</v>
+        <f t="shared" ref="H20:H29" si="1">(B20*G20)</f>
+        <v>2.2400000000000002</v>
       </c>
       <c r="I20" s="17" t="s">
         <v>143</v>
@@ -2360,8 +2360,8 @@
         <v>10</v>
       </c>
       <c r="B21" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>22</v>
@@ -2380,13 +2380,13 @@
       </c>
       <c r="H21" s="19">
         <f t="shared" si="1"/>
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="I21" s="17" t="s">
         <v>149</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K21" s="17" t="s">
         <v>182</v>
@@ -2398,8 +2398,8 @@
         <v>11</v>
       </c>
       <c r="B22" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C22" s="24" t="s">
         <v>29</v>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="H22" s="19">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="I22" s="17" t="s">
         <v>148</v>
@@ -2434,8 +2434,8 @@
         <v>12</v>
       </c>
       <c r="B23" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>30</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="H23" s="19">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I23" s="17" t="s">
         <v>152</v>
@@ -2469,8 +2469,8 @@
         <v>13</v>
       </c>
       <c r="B24" s="15">
-        <f>(2*G101)</f>
-        <v>2</v>
+        <f>(2*G100)</f>
+        <v>4</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>35</v>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="H24" s="19">
         <f t="shared" si="1"/>
-        <v>2.9</v>
+        <v>5.8</v>
       </c>
       <c r="I24" s="17" t="s">
         <v>156</v>
@@ -2504,8 +2504,8 @@
         <v>14</v>
       </c>
       <c r="B25" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>31</v>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="H25" s="19">
         <f t="shared" si="1"/>
-        <v>0.72</v>
+        <v>1.44</v>
       </c>
       <c r="I25" s="27" t="s">
         <v>159</v>
@@ -2539,33 +2539,33 @@
         <v>15</v>
       </c>
       <c r="B26" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G26" s="19">
         <v>0.42</v>
       </c>
       <c r="H26" s="19">
         <f t="shared" si="1"/>
-        <v>0.42</v>
+        <v>0.84</v>
       </c>
       <c r="I26" s="17" t="s">
         <v>161</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K26" s="17" t="s">
         <v>182</v>
@@ -2576,33 +2576,33 @@
         <v>16</v>
       </c>
       <c r="B27" s="15">
-        <f>(3*G101)</f>
-        <v>3</v>
+        <f>(3*G100)</f>
+        <v>6</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>33</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G27" s="19">
         <v>0.26</v>
       </c>
       <c r="H27" s="19">
         <f t="shared" si="1"/>
-        <v>0.78</v>
+        <v>1.56</v>
       </c>
       <c r="I27" s="17" t="s">
         <v>175</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="K27" s="17" t="s">
         <v>189</v>
@@ -2613,8 +2613,8 @@
         <v>17</v>
       </c>
       <c r="B28" s="15">
-        <f>(2*G101)</f>
-        <v>2</v>
+        <f>(2*G100)</f>
+        <v>4</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>34</v>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="H28" s="19">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="I28" s="17" t="s">
         <v>164</v>
@@ -2643,23 +2643,36 @@
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B29" s="15">
-        <v>1</v>
-      </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="19"/>
+        <f>(1*G100)</f>
+        <v>2</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" s="19">
+        <v>0.46</v>
+      </c>
       <c r="H29" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="17"/>
+        <v>0.92</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>168</v>
+      </c>
       <c r="J29" s="20"/>
       <c r="K29" s="17" t="s">
         <v>182</v>
@@ -2667,33 +2680,33 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(3*G100)</f>
+        <v>6</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>165</v>
+        <v>174</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>169</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G30" s="19">
-        <v>0.46</v>
+        <v>0.52</v>
       </c>
       <c r="H30" s="19">
-        <f t="shared" si="1"/>
-        <v>0.46</v>
+        <f t="shared" ref="H30:H53" si="2">(B30*G30)</f>
+        <v>3.12</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J30" s="20"/>
       <c r="K30" s="17" t="s">
@@ -2702,180 +2715,185 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B31" s="15">
-        <f>(3*G101)</f>
-        <v>3</v>
+        <f>(2*G100)</f>
+        <v>4</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>169</v>
+        <v>339</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>335</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>170</v>
+        <v>336</v>
       </c>
       <c r="G31" s="19">
-        <v>0.52</v>
+        <v>0.37</v>
       </c>
       <c r="H31" s="19">
-        <f t="shared" ref="H31:H54" si="2">(B31*G31)</f>
-        <v>1.56</v>
+        <f t="shared" si="2"/>
+        <v>1.48</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="J31" s="20"/>
+        <v>337</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>338</v>
+      </c>
       <c r="K31" s="17" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B32" s="15">
-        <f>(2*G101)</f>
+        <f>(1*G100)</f>
         <v>2</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>343</v>
+        <v>174</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>339</v>
+        <v>172</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>340</v>
+        <v>173</v>
       </c>
       <c r="G32" s="19">
-        <v>0.37</v>
+        <v>0.52</v>
       </c>
       <c r="H32" s="19">
         <f t="shared" si="2"/>
-        <v>0.74</v>
+        <v>1.04</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>342</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="J32" s="20"/>
       <c r="K32" s="17" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B33" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>172</v>
+        <v>330</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>173</v>
+        <v>331</v>
       </c>
       <c r="G33" s="19">
-        <v>0.52</v>
+        <v>0.1</v>
       </c>
       <c r="H33" s="19">
         <f t="shared" si="2"/>
-        <v>0.52</v>
+        <v>0.2</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="J33" s="20"/>
+        <v>333</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>334</v>
+      </c>
       <c r="K33" s="17" t="s">
         <v>182</v>
+      </c>
+      <c r="L33" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B34" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>334</v>
+        <v>176</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>335</v>
+        <v>177</v>
       </c>
       <c r="G34" s="19">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="H34" s="19">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0.26</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>337</v>
+        <v>179</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>338</v>
+        <v>180</v>
       </c>
       <c r="K34" s="17" t="s">
         <v>182</v>
       </c>
       <c r="L34" t="s">
-        <v>336</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B35" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>178</v>
+        <v>310</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>176</v>
+        <v>308</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>177</v>
+        <v>309</v>
       </c>
       <c r="G35" s="19">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="H35" s="19">
         <f t="shared" si="2"/>
-        <v>0.13</v>
+        <v>0.3</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="J35" s="20" t="s">
         <v>180</v>
@@ -2883,39 +2901,36 @@
       <c r="K35" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="L35" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B36" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="E36" s="15" t="s">
+        <f>(1*G100)</f>
+        <v>2</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="E36" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="17" t="s">
         <v>313</v>
       </c>
       <c r="G36" s="19">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H36" s="19">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="J36" s="20" t="s">
         <v>180</v>
@@ -2923,115 +2938,114 @@
       <c r="K36" s="17" t="s">
         <v>182</v>
       </c>
+      <c r="L36" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="14">
-        <v>26</v>
+      <c r="A37" s="33">
+        <v>28</v>
       </c>
       <c r="B37" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>317</v>
+        <f>(2*G100)</f>
+        <v>4</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>183</v>
       </c>
       <c r="G37" s="19">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H37" s="19">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>318</v>
+        <v>184</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K37" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="L37" t="s">
-        <v>319</v>
-      </c>
+      <c r="L37" s="2"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="33">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B38" s="15">
-        <f>(2*G101)</f>
-        <v>2</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>43</v>
+        <f>(2*G100)</f>
+        <v>4</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>183</v>
+        <v>339</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>345</v>
       </c>
       <c r="G38" s="19">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="H38" s="19">
         <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="I38" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="J38" s="20" t="s">
-        <v>185</v>
-      </c>
+        <v>0.76</v>
+      </c>
+      <c r="I38" s="17"/>
+      <c r="J38" s="20"/>
       <c r="K38" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="L38" s="2"/>
+      <c r="L38" s="3"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="33">
-        <v>29</v>
+      <c r="A39" s="34">
+        <v>30</v>
       </c>
       <c r="B39" s="15">
-        <f>(2*G101)</f>
-        <v>2</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>45</v>
+        <f>(1*G100)</f>
+        <v>2</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>348</v>
+        <v>118</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>347</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G39" s="19">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="H39" s="19">
         <f t="shared" si="2"/>
-        <v>0.38</v>
-      </c>
-      <c r="I39" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="15"/>
       <c r="J39" s="20"/>
       <c r="K39" s="17" t="s">
         <v>182</v>
@@ -3041,33 +3055,35 @@
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="34">
-        <v>30</v>
+      <c r="A40" s="33">
+        <v>31</v>
       </c>
       <c r="B40" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>46</v>
+        <v>340</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>118</v>
+        <v>350</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G40" s="19">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="H40" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="15"/>
+        <f>(B40*G40)</f>
+        <v>0.76</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>342</v>
+      </c>
       <c r="J40" s="20"/>
       <c r="K40" s="17" t="s">
         <v>182</v>
@@ -3078,35 +3094,37 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B41" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>353</v>
       </c>
       <c r="G41" s="19">
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
       <c r="H41" s="19">
-        <f>(B41*G41)</f>
-        <v>0.38</v>
+        <f t="shared" si="2"/>
+        <v>0.96</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="J41" s="20"/>
+        <v>343</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>354</v>
+      </c>
       <c r="K41" s="17" t="s">
         <v>182</v>
       </c>
@@ -3115,38 +3133,36 @@
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="33">
-        <v>32</v>
+      <c r="A42" s="34">
+        <v>33</v>
       </c>
       <c r="B42" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>345</v>
+        <v>47</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="F42" s="13" t="s">
-        <v>357</v>
+      <c r="F42" s="15" t="s">
+        <v>356</v>
       </c>
       <c r="G42" s="19">
-        <v>0.48</v>
+        <v>0.34</v>
       </c>
       <c r="H42" s="19">
         <f t="shared" si="2"/>
-        <v>0.48</v>
+        <v>0.68</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="J42" s="20" t="s">
-        <v>358</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="J42" s="20"/>
       <c r="K42" s="17" t="s">
         <v>182</v>
       </c>
@@ -3155,36 +3171,38 @@
       <c r="N42" s="1"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="34">
-        <v>33</v>
+      <c r="A43" s="33">
+        <v>34</v>
       </c>
       <c r="B43" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>343</v>
+        <v>244</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="G43" s="19">
-        <v>0.34</v>
+        <v>0.46</v>
       </c>
       <c r="H43" s="19">
         <f t="shared" si="2"/>
-        <v>0.34</v>
+        <v>0.92</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="J43" s="20"/>
+        <v>328</v>
+      </c>
+      <c r="J43" s="20" t="s">
+        <v>329</v>
+      </c>
       <c r="K43" s="17" t="s">
         <v>182</v>
       </c>
@@ -3194,267 +3212,269 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="33">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B44" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>48</v>
+        <f>(2*G100)</f>
+        <v>4</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>330</v>
+        <v>205</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>331</v>
+        <v>187</v>
       </c>
       <c r="G44" s="19">
-        <v>0.46</v>
+        <v>1.43</v>
       </c>
       <c r="H44" s="19">
         <f t="shared" si="2"/>
-        <v>0.46</v>
+        <v>5.72</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="J44" s="20" t="s">
-        <v>333</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="J44" s="21"/>
       <c r="K44" s="17" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
+      <c r="R44" s="2" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="33">
-        <v>35</v>
+      <c r="A45" s="34">
+        <v>36</v>
       </c>
       <c r="B45" s="15">
-        <f>(2*G101)</f>
+        <f>(1*G100)</f>
         <v>2</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>206</v>
+        <v>361</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>187</v>
+        <v>358</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>359</v>
       </c>
       <c r="G45" s="19">
-        <v>1.43</v>
+        <v>0.97</v>
       </c>
       <c r="H45" s="19">
         <f t="shared" si="2"/>
-        <v>2.86</v>
+        <v>1.94</v>
       </c>
       <c r="I45" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="J45" s="21"/>
+        <v>360</v>
+      </c>
+      <c r="J45" s="20"/>
       <c r="K45" s="17" t="s">
         <v>189</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
-      <c r="R45" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="34">
-        <v>36</v>
+    </row>
+    <row r="46" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="33">
+        <v>37</v>
       </c>
       <c r="B46" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="G46" s="19">
-        <v>0.97</v>
-      </c>
+        <f>(1*G100)</f>
+        <v>2</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="19"/>
       <c r="H46" s="19">
         <f t="shared" si="2"/>
-        <v>0.97</v>
-      </c>
-      <c r="I46" s="17" t="s">
-        <v>364</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" s="17"/>
       <c r="J46" s="20"/>
-      <c r="K46" s="17" t="s">
-        <v>189</v>
-      </c>
+      <c r="K46" s="17"/>
       <c r="L46" s="3"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="33">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B47" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="19"/>
+        <f>(4*G100)</f>
+        <v>8</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="G47" s="19">
+        <v>1.5</v>
+      </c>
       <c r="H47" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="17"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="I47" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="J47" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="K47" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="33">
-        <v>38</v>
+      <c r="A48" s="34">
+        <v>39</v>
       </c>
       <c r="B48" s="15">
-        <f>(4*G101)</f>
-        <v>4</v>
+        <f>(7*G100)</f>
+        <v>14</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="E48" s="17"/>
+        <v>98</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>190</v>
+      </c>
       <c r="F48" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G48" s="19">
-        <v>1.5</v>
+        <v>0.72</v>
       </c>
       <c r="H48" s="19">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="I48" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="J48" s="36" t="s">
-        <v>285</v>
+        <v>10.08</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>283</v>
       </c>
       <c r="K48" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>193</v>
-      </c>
+      <c r="L48" s="3"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="34">
-        <v>39</v>
+      <c r="A49" s="33">
+        <v>40</v>
       </c>
       <c r="B49" s="15">
-        <f>(7*G101)</f>
-        <v>7</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>98</v>
+        <f>(4*G100)</f>
+        <v>8</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>212</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="G49" s="19">
-        <v>0.72</v>
+        <v>0.1</v>
       </c>
       <c r="H49" s="19">
         <f t="shared" si="2"/>
-        <v>5.04</v>
+        <v>0.8</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="J49" s="17" t="s">
-        <v>285</v>
+        <v>55</v>
+      </c>
+      <c r="J49" s="20" t="s">
+        <v>180</v>
       </c>
       <c r="K49" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="L49" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
+      <c r="R49" s="2" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="33">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B50" s="15">
-        <f>(4*G101)</f>
-        <v>4</v>
+        <f>(18*G100)</f>
+        <v>36</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D50" s="17" t="s">
         <v>212</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>210</v>
+        <v>215</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>216</v>
       </c>
       <c r="G50" s="19">
         <v>0.1</v>
       </c>
       <c r="H50" s="19">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="I50" s="17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J50" s="20" t="s">
         <v>180</v>
       </c>
       <c r="K50" s="17" t="s">
         <v>182</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -3463,34 +3483,34 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="33">
-        <v>41</v>
+      <c r="A51" s="34">
+        <v>42</v>
       </c>
       <c r="B51" s="15">
-        <f>(18*G101)</f>
-        <v>18</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>58</v>
+        <f>(2*G100)</f>
+        <v>4</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>216</v>
+        <v>218</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>217</v>
       </c>
       <c r="G51" s="19">
         <v>0.1</v>
       </c>
       <c r="H51" s="19">
         <f t="shared" si="2"/>
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J51" s="20" t="s">
         <v>180</v>
@@ -3500,39 +3520,36 @@
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
-      <c r="R51" s="2" t="s">
-        <v>213</v>
-      </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="34">
-        <v>42</v>
+      <c r="A52" s="33">
+        <v>43</v>
       </c>
       <c r="B52" s="15">
-        <f>(2*G101)</f>
-        <v>2</v>
+        <f>(3*G100)</f>
+        <v>6</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G52" s="19">
         <v>0.1</v>
       </c>
       <c r="H52" s="19">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>57</v>
+        <v>223</v>
       </c>
       <c r="J52" s="20" t="s">
         <v>180</v>
@@ -3540,38 +3557,41 @@
       <c r="K52" s="17" t="s">
         <v>182</v>
       </c>
+      <c r="L52" t="s">
+        <v>224</v>
+      </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="33">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B53" s="15">
-        <f>(3*G101)</f>
-        <v>3</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>60</v>
+        <f>(1*G100)</f>
+        <v>2</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G53" s="19">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="H53" s="19">
         <f t="shared" si="2"/>
-        <v>0.30000000000000004</v>
+        <v>0.16</v>
       </c>
       <c r="I53" s="17" t="s">
-        <v>223</v>
+        <v>62</v>
       </c>
       <c r="J53" s="20" t="s">
         <v>180</v>
@@ -3580,40 +3600,40 @@
         <v>182</v>
       </c>
       <c r="L53" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="33">
-        <v>44</v>
+      <c r="A54" s="34">
+        <v>45</v>
       </c>
       <c r="B54" s="15">
-        <f>(1*G101)</f>
+        <f>(5*G100)</f>
+        <v>10</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G54" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H54" s="19">
+        <f t="shared" ref="H54:H91" si="3">(B54*G54)</f>
         <v>1</v>
       </c>
-      <c r="C54" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="G54" s="19">
-        <v>0.08</v>
-      </c>
-      <c r="H54" s="19">
-        <f t="shared" si="2"/>
-        <v>0.08</v>
-      </c>
       <c r="I54" s="17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J54" s="20" t="s">
         <v>180</v>
@@ -3621,41 +3641,42 @@
       <c r="K54" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="L54" t="s">
-        <v>229</v>
-      </c>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
+      <c r="L54" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="34">
-        <v>45</v>
+      <c r="A55" s="33">
+        <v>46</v>
       </c>
       <c r="B55" s="15">
-        <f>(5*G101)</f>
-        <v>5</v>
+        <f>(2*G100)</f>
+        <v>4</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>231</v>
+        <v>227</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>233</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G55" s="19">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="H55" s="19">
-        <f t="shared" ref="H55:H92" si="3">(B55*G55)</f>
-        <v>0.5</v>
+        <f t="shared" si="3"/>
+        <v>0.32</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J55" s="20" t="s">
         <v>180</v>
@@ -3664,41 +3685,38 @@
         <v>182</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="33">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B56" s="15">
-        <f>(2*G101)</f>
-        <v>2</v>
+        <f>(2*G100)</f>
+        <v>4</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G56" s="19">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="H56" s="19">
         <f t="shared" si="3"/>
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
       <c r="I56" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J56" s="20" t="s">
         <v>180</v>
@@ -3706,29 +3724,29 @@
       <c r="K56" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="L56" s="3" t="s">
-        <v>229</v>
+      <c r="L56" s="31" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="33">
-        <v>47</v>
+      <c r="A57" s="34">
+        <v>48</v>
       </c>
       <c r="B57" s="15">
-        <f>(2*G101)</f>
+        <f>(1*G100)</f>
         <v>2</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="E57" s="17" t="s">
-        <v>235</v>
+      <c r="E57" s="15" t="s">
+        <v>238</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G57" s="19">
         <v>0.1</v>
@@ -3738,7 +3756,7 @@
         <v>0.2</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J57" s="20" t="s">
         <v>180</v>
@@ -3746,39 +3764,39 @@
       <c r="K57" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="L57" s="31" t="s">
-        <v>237</v>
+      <c r="L57" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A58" s="34">
-        <v>48</v>
+      <c r="A58" s="33">
+        <v>49</v>
       </c>
       <c r="B58" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(2*G100)</f>
+        <v>4</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>212</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G58" s="19">
         <v>0.1</v>
       </c>
       <c r="H58" s="19">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J58" s="20" t="s">
         <v>180</v>
@@ -3792,23 +3810,23 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="33">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B59" s="15">
-        <f>(2*G101)</f>
+        <f>(1*G100)</f>
         <v>2</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>240</v>
+        <v>73</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>243</v>
       </c>
       <c r="G59" s="19">
         <v>0.1</v>
@@ -3818,7 +3836,7 @@
         <v>0.2</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J59" s="20" t="s">
         <v>180</v>
@@ -3826,39 +3844,39 @@
       <c r="K59" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>214</v>
+      <c r="L59" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A60" s="33">
-        <v>50</v>
+      <c r="A60" s="34">
+        <v>51</v>
       </c>
       <c r="B60" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="F60" s="17" t="s">
-        <v>243</v>
+        <v>75</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>247</v>
       </c>
       <c r="G60" s="19">
         <v>0.1</v>
       </c>
       <c r="H60" s="19">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J60" s="20" t="s">
         <v>180</v>
@@ -3866,39 +3884,39 @@
       <c r="K60" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="L60" t="s">
-        <v>245</v>
+      <c r="L60" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A61" s="34">
-        <v>51</v>
+      <c r="A61" s="33">
+        <v>52</v>
       </c>
       <c r="B61" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G61" s="19">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H61" s="19">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J61" s="20" t="s">
         <v>180</v>
@@ -3907,38 +3925,38 @@
         <v>182</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="33">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B62" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(8*G100)</f>
+        <v>16</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>250</v>
+        <v>79</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>256</v>
       </c>
       <c r="G62" s="19">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H62" s="19">
         <f t="shared" si="3"/>
-        <v>0.09</v>
+        <v>1.28</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J62" s="20" t="s">
         <v>180</v>
@@ -3946,39 +3964,37 @@
       <c r="K62" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>251</v>
-      </c>
+      <c r="L62" s="3"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A63" s="33">
-        <v>53</v>
+      <c r="A63" s="34">
+        <v>54</v>
       </c>
       <c r="B63" s="15">
-        <f>(8*G101)</f>
-        <v>8</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>255</v>
+        <v>265</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>263</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="G63" s="19">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="H63" s="19">
         <f t="shared" si="3"/>
-        <v>0.64</v>
+        <v>0.2</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J63" s="20" t="s">
         <v>180</v>
@@ -3986,37 +4002,39 @@
       <c r="K63" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="L63" s="3"/>
+      <c r="L63" s="3" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A64" s="34">
-        <v>54</v>
+      <c r="A64" s="33">
+        <v>55</v>
       </c>
       <c r="B64" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(8*G100)</f>
+        <v>16</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>263</v>
+        <v>252</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>254</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="G64" s="19">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="H64" s="19">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.64</v>
       </c>
       <c r="I64" s="17" t="s">
-        <v>82</v>
+        <v>262</v>
       </c>
       <c r="J64" s="20" t="s">
         <v>180</v>
@@ -4024,117 +4042,117 @@
       <c r="K64" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="L64" s="3" t="s">
-        <v>266</v>
-      </c>
+      <c r="L64" s="3"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="33">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B65" s="15">
-        <f>(8*G101)</f>
-        <v>8</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>261</v>
+        <f>(1*G100)</f>
+        <v>2</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>257</v>
       </c>
       <c r="D65" s="20" t="s">
         <v>252</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G65" s="19">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="H65" s="19">
         <f t="shared" si="3"/>
-        <v>0.32</v>
+        <v>0.04</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>262</v>
+        <v>83</v>
       </c>
       <c r="J65" s="20" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="K65" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="L65" s="3"/>
+      <c r="L65" s="3" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A66" s="33">
-        <v>56</v>
+      <c r="A66" s="34">
+        <v>57</v>
       </c>
       <c r="B66" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
-      </c>
-      <c r="C66" s="32" t="s">
-        <v>257</v>
+        <f>(1*G100)</f>
+        <v>2</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="D66" s="20" t="s">
         <v>252</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="G66" s="19">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="H66" s="19">
         <f t="shared" si="3"/>
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>83</v>
+        <v>267</v>
       </c>
       <c r="J66" s="20" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="K66" s="17" t="s">
         <v>182</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A67" s="34">
-        <v>57</v>
+      <c r="A67" s="33">
+        <v>58</v>
       </c>
       <c r="B67" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G67" s="19">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="H67" s="19">
         <f t="shared" si="3"/>
-        <v>0.04</v>
+        <v>0.22</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>267</v>
+        <v>88</v>
       </c>
       <c r="J67" s="20" t="s">
         <v>180</v>
@@ -4142,39 +4160,37 @@
       <c r="K67" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="L67" s="3" t="s">
-        <v>270</v>
-      </c>
+      <c r="L67" s="3"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="33">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B68" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(2*G100)</f>
+        <v>4</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>271</v>
+        <v>386</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>272</v>
+        <v>387</v>
       </c>
       <c r="G68" s="19">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="H68" s="19">
         <f t="shared" si="3"/>
-        <v>0.11</v>
+        <v>0.8</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J68" s="20" t="s">
         <v>180</v>
@@ -4182,61 +4198,61 @@
       <c r="K68" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="L68" s="3"/>
+      <c r="L68" s="3" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A69" s="33">
-        <v>59</v>
+      <c r="A69" s="34">
+        <v>60</v>
       </c>
       <c r="B69" s="15">
-        <f>(2*G101)</f>
-        <v>2</v>
+        <f>(2*G100)</f>
+        <v>4</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D69" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="F69" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="E69" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="F69" s="21" t="s">
-        <v>274</v>
-      </c>
       <c r="G69" s="19">
-        <v>0.19</v>
+        <v>0.5</v>
       </c>
       <c r="H69" s="19">
         <f t="shared" si="3"/>
-        <v>0.38</v>
+        <v>2</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J69" s="20" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="K69" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="L69" s="3" t="s">
-        <v>275</v>
-      </c>
+      <c r="L69" s="3"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A70" s="34">
-        <v>60</v>
+      <c r="A70" s="33">
+        <v>61</v>
       </c>
       <c r="B70" s="15">
-        <f>(2*G101)</f>
-        <v>2</v>
+        <f>(2*G100)</f>
+        <v>4</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E70" s="21" t="s">
         <v>277</v>
@@ -4249,10 +4265,10 @@
       </c>
       <c r="H70" s="19">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J70" s="20" t="s">
         <v>207</v>
@@ -4260,21 +4276,23 @@
       <c r="K70" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="L70" s="3"/>
+      <c r="L70" s="3" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="33">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B71" s="15">
-        <f>(2*G101)</f>
-        <v>2</v>
+        <f>(3*G100)</f>
+        <v>6</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E71" s="21" t="s">
         <v>279</v>
@@ -4283,14 +4301,14 @@
         <v>280</v>
       </c>
       <c r="G71" s="19">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H71" s="19">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="I71" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J71" s="20" t="s">
         <v>207</v>
@@ -4299,204 +4317,202 @@
         <v>182</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A72" s="33">
-        <v>62</v>
+      <c r="A72" s="34">
+        <v>63</v>
       </c>
       <c r="B72" s="15">
-        <f>(3*G101)</f>
-        <v>3</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D72" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="E72" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="F72" s="21" t="s">
-        <v>282</v>
+        <f>(7*G100)</f>
+        <v>14</v>
+      </c>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="G72" s="19">
-        <v>0.1</v>
+        <v>0.31</v>
       </c>
       <c r="H72" s="19">
         <f t="shared" si="3"/>
-        <v>0.30000000000000004</v>
+        <v>4.34</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="J72" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="K72" s="17" t="s">
-        <v>182</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="J72" s="20"/>
+      <c r="K72" s="17"/>
       <c r="L72" s="3" t="s">
-        <v>284</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A73" s="34">
-        <v>63</v>
+      <c r="A73" s="33">
+        <v>64</v>
       </c>
       <c r="B73" s="15">
-        <f>(7*G101)</f>
-        <v>7</v>
+        <f>(14*G100)</f>
+        <v>28</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E73" s="15" t="s">
-        <v>197</v>
+      <c r="E73" s="15">
+        <v>1722533123</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="G73" s="19">
-        <v>0.31</v>
+        <v>0.152</v>
       </c>
       <c r="H73" s="19">
         <f t="shared" si="3"/>
-        <v>2.17</v>
+        <v>4.2560000000000002</v>
       </c>
       <c r="I73" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J73" s="20"/>
       <c r="K73" s="17"/>
       <c r="L73" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A74" s="33">
-        <v>64</v>
-      </c>
-      <c r="B74" s="15">
-        <f>(14*G101)</f>
-        <v>14</v>
-      </c>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E74" s="15">
-        <v>1722533123</v>
-      </c>
-      <c r="F74" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="G74" s="19">
-        <v>0.152</v>
-      </c>
-      <c r="H74" s="19">
+      <c r="A74" s="37"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="40"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A75" s="35">
+        <v>1</v>
+      </c>
+      <c r="B75" s="15">
+        <f>(1*G100)</f>
+        <v>2</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G75" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="H75" s="19">
         <f t="shared" si="3"/>
-        <v>2.1280000000000001</v>
-      </c>
-      <c r="I74" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="J74" s="20"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="R74" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A75" s="37"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="38"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="37"/>
+        <v>2.8</v>
+      </c>
+      <c r="I75" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J75" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="K75" s="17" t="s">
+        <v>182</v>
+      </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B76" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>131</v>
+        <v>374</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>28</v>
+        <v>370</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>144</v>
+        <v>371</v>
       </c>
       <c r="G76" s="19">
-        <v>1.4</v>
+        <v>0.64</v>
       </c>
       <c r="H76" s="19">
         <f t="shared" si="3"/>
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="I76" s="17" t="s">
-        <v>149</v>
+        <v>372</v>
       </c>
       <c r="J76" s="20" t="s">
-        <v>286</v>
+        <v>373</v>
       </c>
       <c r="K76" s="17" t="s">
         <v>182</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B77" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>378</v>
+        <v>122</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G77" s="19">
-        <v>0.64</v>
+        <v>1.24</v>
       </c>
       <c r="H77" s="19">
         <f t="shared" si="3"/>
-        <v>0.64</v>
+        <v>2.48</v>
       </c>
       <c r="I77" s="17" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="J77" s="20" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="K77" s="17" t="s">
         <v>182</v>
@@ -4505,36 +4521,36 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B78" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>371</v>
+        <v>101</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>127</v>
       </c>
       <c r="G78" s="19">
-        <v>1.24</v>
+        <v>5.66</v>
       </c>
       <c r="H78" s="19">
-        <f t="shared" si="3"/>
-        <v>1.24</v>
+        <f>(B78*G78)</f>
+        <v>11.32</v>
       </c>
       <c r="I78" s="17" t="s">
-        <v>372</v>
+        <v>137</v>
       </c>
       <c r="J78" s="20" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="K78" s="17" t="s">
         <v>182</v>
@@ -4543,115 +4559,115 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B79" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D79" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="E79" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F79" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>389</v>
       </c>
       <c r="G79" s="19">
-        <v>5.66</v>
+        <v>2.84</v>
       </c>
       <c r="H79" s="19">
-        <f>(B79*G79)</f>
-        <v>5.66</v>
+        <f t="shared" si="3"/>
+        <v>5.68</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>137</v>
+        <v>285</v>
       </c>
       <c r="J79" s="20" t="s">
-        <v>366</v>
+        <v>286</v>
       </c>
       <c r="K79" s="17" t="s">
         <v>182</v>
       </c>
       <c r="L79" s="3"/>
+      <c r="R79" s="2" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B80" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>288</v>
+        <v>103</v>
       </c>
       <c r="F80" s="15" t="s">
         <v>287</v>
       </c>
       <c r="G80" s="19">
-        <v>1.56</v>
+        <v>0.86</v>
       </c>
       <c r="H80" s="19">
         <f t="shared" si="3"/>
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="I80" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="J80" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J80" s="20" t="s">
-        <v>290</v>
-      </c>
       <c r="K80" s="17" t="s">
         <v>182</v>
       </c>
       <c r="L80" s="3"/>
-      <c r="R80" s="2" t="s">
-        <v>186</v>
-      </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B81" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>103</v>
+        <v>310</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>308</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="G81" s="19">
-        <v>0.86</v>
+        <v>0.15</v>
       </c>
       <c r="H81" s="19">
         <f t="shared" si="3"/>
-        <v>0.86</v>
+        <v>0.3</v>
       </c>
       <c r="I81" s="17" t="s">
-        <v>292</v>
+        <v>230</v>
       </c>
       <c r="J81" s="20" t="s">
-        <v>293</v>
+        <v>180</v>
       </c>
       <c r="K81" s="17" t="s">
         <v>182</v>
@@ -4660,155 +4676,155 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="35">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B82" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>312</v>
+        <v>98</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>105</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="G82" s="19">
-        <v>0.15</v>
+        <v>0.67</v>
       </c>
       <c r="H82" s="19">
         <f t="shared" si="3"/>
-        <v>0.15</v>
+        <v>1.34</v>
       </c>
       <c r="I82" s="17" t="s">
-        <v>230</v>
+        <v>104</v>
       </c>
       <c r="J82" s="20" t="s">
-        <v>180</v>
+        <v>283</v>
       </c>
       <c r="K82" s="17" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="L82" s="3"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B83" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F83" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="G83" s="19">
-        <v>0.67</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D83" s="17"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="19"/>
       <c r="H83" s="19">
         <f t="shared" si="3"/>
-        <v>0.67</v>
-      </c>
-      <c r="I83" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="J83" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="K83" s="17" t="s">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" s="17"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="15"/>
       <c r="L83" s="3"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B84" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="D84" s="17"/>
-      <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="19"/>
       <c r="H84" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I84" s="17"/>
       <c r="J84" s="20"/>
       <c r="K84" s="15"/>
       <c r="L84" s="3"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="35">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B85" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D85" s="17"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="19"/>
+        <v>106</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="G85" s="19">
+        <v>0.1</v>
+      </c>
       <c r="H85" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J85" s="20"/>
-      <c r="K85" s="15"/>
+        <v>0.2</v>
+      </c>
+      <c r="I85" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="J85" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="K85" s="17" t="s">
+        <v>182</v>
+      </c>
       <c r="L85" s="3"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="35">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B86" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G86" s="19">
         <v>0.1</v>
       </c>
       <c r="H86" s="19">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I86" s="17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J86" s="20" t="s">
         <v>208</v>
@@ -4820,33 +4836,33 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="35">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B87" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(3*G100)</f>
+        <v>6</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>108</v>
+        <v>364</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G87" s="19">
         <v>0.1</v>
       </c>
       <c r="H87" s="19">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="I87" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J87" s="20" t="s">
         <v>208</v>
@@ -4854,37 +4870,39 @@
       <c r="K87" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="L87" s="3"/>
+      <c r="L87" s="3" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="35">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B88" s="15">
-        <f>(3*G101)</f>
-        <v>3</v>
+        <f>(2*G100)</f>
+        <v>4</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>368</v>
+        <v>111</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G88" s="19">
         <v>0.1</v>
       </c>
       <c r="H88" s="19">
         <f t="shared" si="3"/>
-        <v>0.30000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="I88" s="17" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="J88" s="20" t="s">
         <v>208</v>
@@ -4893,22 +4911,22 @@
         <v>182</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B89" s="15">
-        <f>(2*G101)</f>
+        <f>(1*G100)</f>
         <v>2</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="E89" s="15" t="s">
         <v>302</v>
@@ -4924,7 +4942,7 @@
         <v>0.2</v>
       </c>
       <c r="I89" s="17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J89" s="20" t="s">
         <v>208</v>
@@ -4933,116 +4951,116 @@
         <v>182</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="35">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B90" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="E90" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="F90" s="15" t="s">
-        <v>307</v>
+        <v>377</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="F90" s="21" t="s">
+        <v>375</v>
       </c>
       <c r="G90" s="19">
-        <v>0.1</v>
+        <v>0.37</v>
       </c>
       <c r="H90" s="19">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.74</v>
       </c>
       <c r="I90" s="17" t="s">
-        <v>66</v>
+        <v>365</v>
       </c>
       <c r="J90" s="20" t="s">
-        <v>208</v>
+        <v>293</v>
       </c>
       <c r="K90" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="L90" s="3" t="s">
-        <v>308</v>
-      </c>
+      <c r="L90" s="3"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="35">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B91" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>381</v>
+        <v>227</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F91" s="21" t="s">
         <v>379</v>
       </c>
       <c r="G91" s="19">
-        <v>0.37</v>
+        <v>0.1</v>
       </c>
       <c r="H91" s="19">
         <f t="shared" si="3"/>
-        <v>0.37</v>
+        <v>0.2</v>
       </c>
       <c r="I91" s="17" t="s">
-        <v>369</v>
+        <v>55</v>
       </c>
       <c r="J91" s="20" t="s">
-        <v>297</v>
+        <v>208</v>
       </c>
       <c r="K91" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="L91" s="3"/>
+      <c r="L91" s="3" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="35">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B92" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(5*G100)</f>
+        <v>10</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>114</v>
+        <v>384</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="E92" s="21" t="s">
-        <v>382</v>
+        <v>252</v>
+      </c>
+      <c r="E92" s="20" t="s">
+        <v>305</v>
       </c>
       <c r="F92" s="21" t="s">
-        <v>383</v>
+        <v>306</v>
       </c>
       <c r="G92" s="19">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H92" s="19">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>(B92*G92)</f>
+        <v>0.5</v>
       </c>
       <c r="I92" s="17" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="J92" s="20" t="s">
         <v>208</v>
@@ -5050,79 +5068,77 @@
       <c r="K92" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="L92" s="3" t="s">
-        <v>308</v>
+      <c r="L92" s="2" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="35">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B93" s="15">
-        <f>(5*G101)</f>
-        <v>5</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="E93" s="21" t="s">
-        <v>309</v>
+        <v>292</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E93" s="20" t="s">
+        <v>263</v>
       </c>
       <c r="F93" s="21" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="G93" s="19">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H93" s="19">
-        <f>(B93*G93)</f>
-        <v>0.25</v>
+        <f t="shared" ref="H93:H96" si="4">(B93*G93)</f>
+        <v>0.2</v>
       </c>
       <c r="I93" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J93" s="20" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="K93" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="L93" s="2" t="s">
-        <v>311</v>
-      </c>
+      <c r="L93" s="2"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="35">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B94" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
+        <f>(1*G100)</f>
+        <v>2</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D94" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E94" s="20" t="s">
-        <v>263</v>
+      <c r="E94" s="21" t="s">
+        <v>271</v>
       </c>
       <c r="F94" s="21" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="G94" s="19">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H94" s="19">
-        <f t="shared" ref="H94:H97" si="4">(B94*G94)</f>
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>0.22</v>
       </c>
       <c r="I94" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J94" s="20" t="s">
         <v>180</v>
@@ -5134,159 +5150,121 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="35">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B95" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="D95" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="E95" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="F95" s="21" t="s">
-        <v>272</v>
+        <f>(6*G100)</f>
+        <v>12</v>
+      </c>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E95" s="15">
+        <v>500588000</v>
+      </c>
+      <c r="F95" s="15" t="s">
+        <v>381</v>
       </c>
       <c r="G95" s="19">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H95" s="19">
         <f t="shared" si="4"/>
-        <v>0.11</v>
-      </c>
-      <c r="I95" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="J95" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="K95" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L95" s="2"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="I95" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="J95" s="20"/>
+      <c r="K95" s="17"/>
+      <c r="R95" s="2" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="35">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B96" s="15">
-        <f>(6*G101)</f>
-        <v>6</v>
-      </c>
-      <c r="C96" s="17"/>
+        <f>(1*G100)</f>
+        <v>2</v>
+      </c>
+      <c r="C96" s="15"/>
       <c r="D96" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E96" s="15">
-        <v>500588000</v>
+      <c r="E96" s="15" t="s">
+        <v>382</v>
       </c>
       <c r="F96" s="15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G96" s="19">
-        <v>0.1</v>
+        <v>0.36</v>
       </c>
       <c r="H96" s="19">
         <f t="shared" si="4"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="I96" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="J96" s="20"/>
-      <c r="K96" s="17"/>
-      <c r="R96" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="35">
-        <v>24</v>
-      </c>
-      <c r="B97" s="15">
-        <f>(1*G101)</f>
-        <v>1</v>
-      </c>
-      <c r="C97" s="15"/>
-      <c r="D97" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="F97" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="G97" s="19">
-        <v>0.36</v>
-      </c>
-      <c r="H97" s="19">
-        <f t="shared" si="4"/>
-        <v>0.36</v>
-      </c>
-      <c r="I97" s="27"/>
-      <c r="J97" s="15"/>
-      <c r="K97" s="15"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I100" s="12"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F101" s="45" t="s">
-        <v>389</v>
-      </c>
-      <c r="G101" s="1">
-        <v>1</v>
-      </c>
-      <c r="H101" s="10" t="s">
+        <v>0.72</v>
+      </c>
+      <c r="I96" s="27"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="15"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I99" s="12"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F100" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="G100" s="1">
+        <v>2</v>
+      </c>
+      <c r="H100" s="10" t="s">
         <v>115</v>
       </c>
+      <c r="I100" s="5"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H101" s="9">
+        <f>SUM(H12:H71)</f>
+        <v>144.16</v>
+      </c>
       <c r="I101" s="5"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H102" s="9">
-        <f>SUM(H12:H72)</f>
-        <v>72.059999999999988</v>
-      </c>
-      <c r="I102" s="5"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H103" s="1"/>
-      <c r="I103" s="6"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H104" s="7" t="s">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H102" s="1"/>
+      <c r="I102" s="6"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H103" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="I104" s="3"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H105" s="9">
-        <f>SUM(H76:H97)</f>
-        <v>14.869999999999997</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H107" s="7" t="s">
+      <c r="I103" s="3"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H104" s="9">
+        <f>SUM(H75:H96)</f>
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H106" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H108" s="9">
-        <f>SUM(H102+H105)</f>
-        <v>86.929999999999978</v>
-      </c>
-    </row>
-    <row r="114" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H114" s="11"/>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H107" s="9">
+        <f>SUM(H101+H104)</f>
+        <v>176.45999999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H113" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SPEX HAB2 BOM.xlsx
+++ b/SPEX HAB2 BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew\Desktop\SPEX_HAB_Mainboard_Hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechStars\Documents\GitHub\SPEX_HAB_Mainboard_Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="Turnkey" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Turnkey!$A$1:$K$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Turnkey!$A$1:$K$55</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="388">
   <si>
     <t>Description</t>
   </si>
@@ -87,27 +87,18 @@
     <t>U10</t>
   </si>
   <si>
-    <t>U11</t>
-  </si>
-  <si>
     <t>U12</t>
   </si>
   <si>
     <t>U2,U4,U5</t>
   </si>
   <si>
-    <t>MKL04Z32VLC4</t>
-  </si>
-  <si>
     <t>MMQA6V2T1G</t>
   </si>
   <si>
     <t>BME280</t>
   </si>
   <si>
-    <t>MCP2551-I/SN</t>
-  </si>
-  <si>
     <t>ST1480ABDR</t>
   </si>
   <si>
@@ -120,15 +111,9 @@
     <t>Y1</t>
   </si>
   <si>
-    <t>SW1</t>
-  </si>
-  <si>
     <t>TH1,TH2,TH3</t>
   </si>
   <si>
-    <t>Q1,Q2</t>
-  </si>
-  <si>
     <t>U105,U108</t>
   </si>
   <si>
@@ -198,9 +183,6 @@
     <t>33 ohm resistor</t>
   </si>
   <si>
-    <t>R2,R12,R13,R18,R29,R30,R31,R34,R35,R36,R37,R38,R109,R126,R130,R140,R141,R145</t>
-  </si>
-  <si>
     <t>10k ohm resistor</t>
   </si>
   <si>
@@ -217,9 +199,6 @@
   </si>
   <si>
     <t>4.7k ohm resistor</t>
-  </si>
-  <si>
-    <t>R32,R33</t>
   </si>
   <si>
     <t>120 ohm resistor</t>
@@ -484,12 +463,6 @@
     <t>2.5V precision voltage reference</t>
   </si>
   <si>
-    <t>579-MCP2551-I/SN</t>
-  </si>
-  <si>
-    <t>CAN Transceiver</t>
-  </si>
-  <si>
     <t>511-ST1480ABDR</t>
   </si>
   <si>
@@ -544,15 +517,6 @@
     <t>reset button</t>
   </si>
   <si>
-    <t>2N7002KT1G</t>
-  </si>
-  <si>
-    <t>863-2N7002KT1G</t>
-  </si>
-  <si>
-    <t>N channel mosfet</t>
-  </si>
-  <si>
     <t>BSS215P H6327</t>
   </si>
   <si>
@@ -1226,6 +1190,36 @@
   </si>
   <si>
     <t>LT6105IDCB#TRMPBFCT-ND</t>
+  </si>
+  <si>
+    <t>http://www.pjrc.com/store/ic_mkl02.html</t>
+  </si>
+  <si>
+    <t>MKL02z32VFG4</t>
+  </si>
+  <si>
+    <t>SW1,SW2</t>
+  </si>
+  <si>
+    <t>R33</t>
+  </si>
+  <si>
+    <t>R2,R12,R13,R18,R19,R20,R30,R31,R35,R36,R37,R38,R109,R126,R130,R140,R141,R145</t>
+  </si>
+  <si>
+    <t>TSOP-6</t>
+  </si>
+  <si>
+    <t>LQFP-64</t>
+  </si>
+  <si>
+    <t>MSOP-8</t>
+  </si>
+  <si>
+    <t>SOIC-8</t>
+  </si>
+  <si>
+    <t>SOT-23-6</t>
   </si>
 </sst>
 </file>
@@ -1889,10 +1883,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R113"/>
+  <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1932,7 +1926,7 @@
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2019,7 +2013,7 @@
         <v>12</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -2040,32 +2034,37 @@
         <v>1</v>
       </c>
       <c r="B12" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>24</v>
+        <v>379</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="19">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="H12" s="19">
         <f>(B12*G12)</f>
-        <v>12</v>
+        <v>6.8</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="J12" s="20"/>
+        <v>126</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>357</v>
+      </c>
       <c r="K12" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
+      </c>
+      <c r="L12" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -2073,34 +2072,36 @@
         <v>2</v>
       </c>
       <c r="B13" s="15">
-        <f>(3*G100)</f>
-        <v>6</v>
+        <f>(3*G98)</f>
+        <v>3</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G13" s="19">
         <v>0.55000000000000004</v>
       </c>
       <c r="H13" s="19">
         <f t="shared" ref="H13:H19" si="0">(B13*G13)</f>
-        <v>3.3000000000000003</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="J13" s="21"/>
+        <v>128</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>383</v>
+      </c>
       <c r="K13" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -2108,34 +2109,36 @@
         <v>3</v>
       </c>
       <c r="B14" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G14" s="19">
         <v>7.07</v>
       </c>
       <c r="H14" s="19">
         <f t="shared" si="0"/>
-        <v>14.14</v>
+        <v>7.07</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="J14" s="23"/>
+        <v>125</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>384</v>
+      </c>
       <c r="K14" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -2143,34 +2146,36 @@
         <v>4</v>
       </c>
       <c r="B15" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G15" s="19">
         <v>0.48</v>
       </c>
       <c r="H15" s="19">
         <f>(B15*G15)</f>
-        <v>0.96</v>
+        <v>0.48</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="J15" s="20"/>
+        <v>127</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>383</v>
+      </c>
       <c r="K15" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2178,34 +2183,36 @@
         <v>5</v>
       </c>
       <c r="B16" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G16" s="19">
         <v>1.22</v>
       </c>
       <c r="H16" s="19">
         <f t="shared" si="0"/>
-        <v>2.44</v>
+        <v>1.22</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="J16" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>385</v>
+      </c>
       <c r="K16" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2213,36 +2220,36 @@
         <v>6</v>
       </c>
       <c r="B17" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G17" s="19">
         <v>5.66</v>
       </c>
       <c r="H17" s="19">
         <f t="shared" si="0"/>
-        <v>11.32</v>
+        <v>5.66</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2250,36 +2257,36 @@
         <v>7</v>
       </c>
       <c r="B18" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G18" s="26">
         <v>6.21</v>
       </c>
       <c r="H18" s="19">
         <f t="shared" si="0"/>
-        <v>12.42</v>
+        <v>6.21</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2287,603 +2294,614 @@
         <v>8</v>
       </c>
       <c r="B19" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G19" s="28">
         <v>2.12</v>
       </c>
       <c r="H19" s="19">
         <f t="shared" si="0"/>
-        <v>4.24</v>
+        <v>2.12</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>27</v>
+        <v>124</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G20" s="19">
-        <v>1.1200000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="H20" s="19">
-        <f t="shared" ref="H20:H29" si="1">(B20*G20)</f>
-        <v>2.2400000000000002</v>
+        <f t="shared" ref="H20:H27" si="1">(B20*G20)</f>
+        <v>1.4</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="J20" s="20"/>
+        <v>140</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>272</v>
+      </c>
       <c r="K20" s="17" t="s">
-        <v>182</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>22</v>
+        <f>(1*G98)</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>28</v>
+        <v>138</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>136</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G21" s="19">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H21" s="19">
         <f t="shared" si="1"/>
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>284</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="J21" s="20"/>
       <c r="K21" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>29</v>
+        <f>(1*G98)</f>
+        <v>1</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>142</v>
       </c>
       <c r="G22" s="19">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H22" s="19">
         <f t="shared" si="1"/>
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="J22" s="20"/>
+        <v>143</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>386</v>
+      </c>
       <c r="K22" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23" s="15">
-        <f>(1*G100)</f>
+        <f>(2*G98)</f>
         <v>2</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>151</v>
+        <v>88</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>146</v>
       </c>
       <c r="G23" s="19">
-        <v>4</v>
+        <v>1.45</v>
       </c>
       <c r="H23" s="19">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J23" s="20"/>
+        <v>147</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>387</v>
+      </c>
       <c r="K23" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24" s="15">
-        <f>(2*G100)</f>
-        <v>4</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G24" s="19">
-        <v>1.45</v>
+        <f>(1*G98)</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="28">
+        <v>0.72</v>
       </c>
       <c r="H24" s="19">
         <f t="shared" si="1"/>
-        <v>5.8</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>156</v>
+        <v>0.72</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>150</v>
       </c>
       <c r="J24" s="20"/>
       <c r="K24" s="17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B25" s="15">
-        <f>(1*G100)</f>
+        <f>(2*G98)</f>
         <v>2</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="G25" s="28">
-        <v>0.72</v>
+      <c r="C25" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="G25" s="19">
+        <v>0.42</v>
       </c>
       <c r="H25" s="19">
         <f t="shared" si="1"/>
-        <v>1.44</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="J25" s="20"/>
+        <v>0.84</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>311</v>
+      </c>
       <c r="K25" s="17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B26" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(3*G98)</f>
+        <v>3</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>320</v>
+        <v>306</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>304</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="G26" s="19">
-        <v>0.42</v>
+        <v>0.26</v>
       </c>
       <c r="H26" s="19">
         <f t="shared" si="1"/>
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B27" s="15">
-        <f>(3*G100)</f>
-        <v>6</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>318</v>
+        <v>31</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>155</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>317</v>
+        <v>153</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>154</v>
       </c>
       <c r="G27" s="19">
-        <v>0.26</v>
+        <v>0.46</v>
       </c>
       <c r="H27" s="19">
         <f t="shared" si="1"/>
-        <v>1.56</v>
+        <v>0.46</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>319</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="J27" s="20"/>
       <c r="K27" s="17" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B28" s="15">
-        <f>(2*G100)</f>
-        <v>4</v>
+        <f>(3*G98)</f>
+        <v>3</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="F28" s="29" t="s">
-        <v>163</v>
+      <c r="E28" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>158</v>
       </c>
       <c r="G28" s="19">
-        <v>0.2</v>
+        <v>0.52</v>
       </c>
       <c r="H28" s="19">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
+        <f t="shared" ref="H28:H51" si="2">(B28*G28)</f>
+        <v>1.56</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J28" s="20"/>
       <c r="K28" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B29" s="15">
-        <f>(1*G100)</f>
+        <f>(2*G98)</f>
         <v>2</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>167</v>
+        <v>327</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>165</v>
+        <v>323</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>166</v>
+        <v>324</v>
       </c>
       <c r="G29" s="19">
-        <v>0.46</v>
+        <v>0.37</v>
       </c>
       <c r="H29" s="19">
-        <f t="shared" si="1"/>
-        <v>0.92</v>
+        <f t="shared" si="2"/>
+        <v>0.74</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="J29" s="20"/>
+        <v>325</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>326</v>
+      </c>
       <c r="K29" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B30" s="15">
-        <f>(3*G100)</f>
-        <v>6</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>169</v>
+        <v>162</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="G30" s="19">
         <v>0.52</v>
       </c>
       <c r="H30" s="19">
-        <f t="shared" ref="H30:H53" si="2">(B30*G30)</f>
-        <v>3.12</v>
+        <f t="shared" si="2"/>
+        <v>0.52</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="J30" s="20"/>
       <c r="K30" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B31" s="15">
-        <f>(2*G100)</f>
-        <v>4</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>339</v>
+        <v>111</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="G31" s="19">
-        <v>0.37</v>
+        <v>0.1</v>
       </c>
       <c r="H31" s="19">
         <f t="shared" si="2"/>
-        <v>1.48</v>
+        <v>0.1</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
+      </c>
+      <c r="L31" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B32" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G32" s="19">
-        <v>0.52</v>
+        <v>0.13</v>
       </c>
       <c r="H32" s="19">
         <f t="shared" si="2"/>
-        <v>1.04</v>
+        <v>0.13</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="J32" s="20"/>
+        <v>167</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>168</v>
+      </c>
       <c r="K32" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
+      </c>
+      <c r="L32" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B33" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>118</v>
+        <v>298</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="G33" s="19">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H33" s="19">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>333</v>
+        <v>218</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>334</v>
+        <v>168</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L33" t="s">
-        <v>332</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B34" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>177</v>
+        <f>(1*G98)</f>
+        <v>1</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>301</v>
       </c>
       <c r="G34" s="19">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="H34" s="19">
         <f t="shared" si="2"/>
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>179</v>
+        <v>302</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L34" t="s">
-        <v>181</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="14">
-        <v>25</v>
+      <c r="A35" s="33">
+        <v>28</v>
       </c>
       <c r="B35" s="15">
-        <f>(1*G100)</f>
+        <f>(2*G98)</f>
         <v>2</v>
       </c>
-      <c r="C35" s="25" t="s">
-        <v>42</v>
+      <c r="C35" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>310</v>
+        <v>192</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>308</v>
+        <v>39</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>309</v>
+        <v>171</v>
       </c>
       <c r="G35" s="19">
         <v>0.15</v>
@@ -2893,200 +2911,201 @@
         <v>0.3</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="K35" s="17" t="s">
-        <v>182</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="L35" s="2"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="14">
-        <v>26</v>
+      <c r="A36" s="33">
+        <v>29</v>
       </c>
       <c r="B36" s="15">
-        <f>(1*G100)</f>
+        <f>(2*G98)</f>
         <v>2</v>
       </c>
-      <c r="C36" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>313</v>
+      <c r="C36" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>333</v>
       </c>
       <c r="G36" s="19">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="H36" s="19">
         <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="I36" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>180</v>
-      </c>
+        <v>0.38</v>
+      </c>
+      <c r="I36" s="17"/>
+      <c r="J36" s="20"/>
       <c r="K36" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L36" t="s">
-        <v>315</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="L36" s="3"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="33">
-        <v>28</v>
+      <c r="A37" s="34">
+        <v>30</v>
       </c>
       <c r="B37" s="15">
-        <f>(2*G100)</f>
-        <v>4</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>183</v>
+        <v>335</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>334</v>
       </c>
       <c r="G37" s="19">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H37" s="19">
         <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="J37" s="20" t="s">
-        <v>185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="20"/>
       <c r="K37" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L37" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="L37" s="3"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="33">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B38" s="15">
-        <f>(2*G100)</f>
-        <v>4</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>45</v>
+        <f>(1*G98)</f>
+        <v>1</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>328</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>344</v>
+        <v>338</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>336</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="G38" s="19">
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
       <c r="H38" s="19">
-        <f t="shared" si="2"/>
-        <v>0.76</v>
-      </c>
-      <c r="I38" s="17"/>
+        <f>(B38*G38)</f>
+        <v>0.38</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>330</v>
+      </c>
       <c r="J38" s="20"/>
       <c r="K38" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="34">
-        <v>30</v>
+      <c r="A39" s="33">
+        <v>32</v>
       </c>
       <c r="B39" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>46</v>
+        <v>329</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>118</v>
+        <v>340</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G39" s="19">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="H39" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="15"/>
-      <c r="J39" s="20"/>
+        <v>0.48</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>342</v>
+      </c>
       <c r="K39" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="33">
-        <v>31</v>
+      <c r="A40" s="34">
+        <v>33</v>
       </c>
       <c r="B40" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>340</v>
+        <v>42</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>349</v>
+        <v>343</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>344</v>
       </c>
       <c r="G40" s="19">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="H40" s="19">
-        <f>(B40*G40)</f>
-        <v>0.76</v>
+        <f t="shared" si="2"/>
+        <v>0.34</v>
       </c>
       <c r="I40" s="17" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="J40" s="20"/>
       <c r="K40" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="1"/>
@@ -3094,449 +3113,455 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="33">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B41" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>341</v>
+        <v>43</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>352</v>
+        <v>232</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>353</v>
+        <v>314</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>315</v>
       </c>
       <c r="G41" s="19">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="H41" s="19">
         <f t="shared" si="2"/>
-        <v>0.96</v>
+        <v>0.46</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="34">
-        <v>33</v>
+      <c r="A42" s="33">
+        <v>35</v>
       </c>
       <c r="B42" s="15">
-        <f>(1*G100)</f>
+        <f>(2*G98)</f>
         <v>2</v>
       </c>
-      <c r="C42" s="17" t="s">
-        <v>47</v>
+      <c r="C42" s="27" t="s">
+        <v>44</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>339</v>
+        <v>194</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>355</v>
+        <v>193</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>356</v>
+        <v>175</v>
       </c>
       <c r="G42" s="19">
-        <v>0.34</v>
+        <v>1.43</v>
       </c>
       <c r="H42" s="19">
         <f t="shared" si="2"/>
-        <v>0.68</v>
+        <v>2.86</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="J42" s="20"/>
+        <v>176</v>
+      </c>
+      <c r="J42" s="21"/>
       <c r="K42" s="17" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
+      <c r="R42" s="2" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="33">
-        <v>34</v>
+      <c r="A43" s="34">
+        <v>36</v>
       </c>
       <c r="B43" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>48</v>
+        <f>(1*G98)</f>
+        <v>1</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>244</v>
+        <v>349</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>327</v>
+        <v>346</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>347</v>
       </c>
       <c r="G43" s="19">
-        <v>0.46</v>
+        <v>0.97</v>
       </c>
       <c r="H43" s="19">
         <f t="shared" si="2"/>
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="J43" s="20" t="s">
-        <v>329</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="J43" s="20"/>
       <c r="K43" s="17" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="33">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B44" s="15">
-        <f>(2*G100)</f>
-        <v>4</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="G44" s="19">
-        <v>1.43</v>
-      </c>
+        <f>(1*G98)</f>
+        <v>1</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="19"/>
       <c r="H44" s="19">
         <f t="shared" si="2"/>
-        <v>5.72</v>
-      </c>
-      <c r="I44" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="J44" s="21"/>
-      <c r="K44" s="17" t="s">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="17"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="17"/>
       <c r="L44" s="3"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
-      <c r="R44" s="2" t="s">
-        <v>186</v>
-      </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="34">
-        <v>36</v>
+      <c r="A45" s="33">
+        <v>38</v>
       </c>
       <c r="B45" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(4*G98)</f>
+        <v>4</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>359</v>
+        <v>47</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" s="17"/>
+      <c r="F45" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="G45" s="19">
-        <v>0.97</v>
+        <v>1.5</v>
       </c>
       <c r="H45" s="19">
         <f t="shared" si="2"/>
-        <v>1.94</v>
-      </c>
-      <c r="I45" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="J45" s="20"/>
+        <v>6</v>
+      </c>
+      <c r="I45" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="J45" s="36" t="s">
+        <v>271</v>
+      </c>
       <c r="K45" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="L45" s="3"/>
+        <v>177</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="33">
-        <v>37</v>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="34">
+        <v>39</v>
       </c>
       <c r="B46" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="19"/>
+        <f>(7*G98)</f>
+        <v>7</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="G46" s="19">
+        <v>0.72</v>
+      </c>
       <c r="H46" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="17"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="17"/>
+        <v>5.04</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="J46" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="K46" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="L46" s="3"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="33">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B47" s="15">
-        <f>(4*G100)</f>
-        <v>8</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="E47" s="17"/>
+        <f>(4*G98)</f>
+        <v>4</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>199</v>
+      </c>
       <c r="F47" s="15" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G47" s="19">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="H47" s="19">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="I47" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="J47" s="36" t="s">
-        <v>283</v>
+        <v>0.4</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J47" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="K47" s="17" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
+      <c r="R47" s="2" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="34">
-        <v>39</v>
+      <c r="A48" s="33">
+        <v>41</v>
       </c>
       <c r="B48" s="15">
-        <f>(7*G100)</f>
-        <v>14</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>98</v>
+        <f>(18*G98)</f>
+        <v>18</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>200</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>191</v>
+        <v>203</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>204</v>
       </c>
       <c r="G48" s="19">
-        <v>0.72</v>
+        <v>0.1</v>
       </c>
       <c r="H48" s="19">
         <f t="shared" si="2"/>
-        <v>10.08</v>
+        <v>1.8</v>
       </c>
       <c r="I48" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="J48" s="17" t="s">
-        <v>283</v>
+        <v>53</v>
+      </c>
+      <c r="J48" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="L48" s="3"/>
+        <v>170</v>
+      </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
+      <c r="R48" s="2" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="33">
-        <v>40</v>
+      <c r="A49" s="34">
+        <v>42</v>
       </c>
       <c r="B49" s="15">
-        <f>(4*G100)</f>
-        <v>8</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>54</v>
+        <f>(2*G98)</f>
+        <v>2</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G49" s="19">
         <v>0.1</v>
       </c>
       <c r="H49" s="19">
         <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J49" s="20" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="K49" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
-      <c r="R49" s="2" t="s">
-        <v>213</v>
-      </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="33">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B50" s="15">
-        <f>(18*G100)</f>
-        <v>36</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>58</v>
+        <f>(3*G98)</f>
+        <v>3</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>54</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>216</v>
+        <v>210</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>208</v>
       </c>
       <c r="G50" s="19">
         <v>0.1</v>
       </c>
       <c r="H50" s="19">
         <f t="shared" si="2"/>
-        <v>3.6</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I50" s="17" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="J50" s="20" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="K50" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
+      </c>
+      <c r="L50" t="s">
+        <v>212</v>
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="R50" s="2" t="s">
-        <v>213</v>
-      </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="34">
-        <v>42</v>
+      <c r="A51" s="33">
+        <v>44</v>
       </c>
       <c r="B51" s="15">
-        <f>(2*G100)</f>
-        <v>4</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>56</v>
+        <f>(1*G98)</f>
+        <v>1</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G51" s="19">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="H51" s="19">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.08</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J51" s="20" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="K51" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
+      </c>
+      <c r="L51" t="s">
+        <v>217</v>
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="33">
-        <v>43</v>
+      <c r="A52" s="34">
+        <v>45</v>
       </c>
       <c r="B52" s="15">
-        <f>(3*G100)</f>
-        <v>6</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>60</v>
+        <f>(5*G98)</f>
+        <v>5</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F52" s="15" t="s">
         <v>220</v>
@@ -3545,1276 +3570,1270 @@
         <v>0.1</v>
       </c>
       <c r="H52" s="19">
-        <f t="shared" si="2"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" ref="H52:H89" si="3">(B52*G52)</f>
+        <v>0.5</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>223</v>
+        <v>58</v>
       </c>
       <c r="J52" s="20" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="K52" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L52" t="s">
-        <v>224</v>
-      </c>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="33">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B53" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>61</v>
+        <v>381</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>228</v>
+        <v>215</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>221</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G53" s="19">
         <v>0.08</v>
       </c>
       <c r="H53" s="19">
-        <f t="shared" si="2"/>
-        <v>0.16</v>
+        <f t="shared" si="3"/>
+        <v>0.08</v>
       </c>
       <c r="I53" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J53" s="20" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="K53" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L53" t="s">
-        <v>229</v>
-      </c>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="34">
-        <v>45</v>
+      <c r="A54" s="33">
+        <v>47</v>
       </c>
       <c r="B54" s="15">
-        <f>(5*G100)</f>
-        <v>10</v>
+        <f>(2*G98)</f>
+        <v>2</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>231</v>
+        <v>200</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>223</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G54" s="19">
         <v>0.1</v>
       </c>
       <c r="H54" s="19">
-        <f t="shared" ref="H54:H91" si="3">(B54*G54)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0.2</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="K54" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="R54" s="2" t="s">
-        <v>213</v>
+        <v>170</v>
+      </c>
+      <c r="L54" s="31" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="33">
-        <v>46</v>
+      <c r="A55" s="34">
+        <v>48</v>
       </c>
       <c r="B55" s="15">
-        <f>(2*G100)</f>
-        <v>4</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D55" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="F55" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="E55" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>234</v>
-      </c>
       <c r="G55" s="19">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="H55" s="19">
         <f t="shared" si="3"/>
-        <v>0.32</v>
+        <v>0.1</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J55" s="20" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="K55" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="33">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B56" s="15">
-        <f>(2*G100)</f>
-        <v>4</v>
+        <f>(2*G98)</f>
+        <v>2</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="E56" s="17" t="s">
-        <v>235</v>
+        <v>200</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>229</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G56" s="19">
         <v>0.1</v>
       </c>
       <c r="H56" s="19">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I56" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J56" s="20" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="K56" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L56" s="31" t="s">
-        <v>237</v>
+        <v>170</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="34">
-        <v>48</v>
+      <c r="A57" s="33">
+        <v>50</v>
       </c>
       <c r="B57" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>239</v>
+        <v>66</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>231</v>
       </c>
       <c r="G57" s="19">
         <v>0.1</v>
       </c>
       <c r="H57" s="19">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J57" s="20" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="K57" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>214</v>
+        <v>170</v>
+      </c>
+      <c r="L57" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A58" s="33">
-        <v>49</v>
+      <c r="A58" s="34">
+        <v>51</v>
       </c>
       <c r="B58" s="15">
-        <f>(2*G100)</f>
-        <v>4</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G58" s="19">
         <v>0.1</v>
       </c>
       <c r="H58" s="19">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J58" s="20" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="K58" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="33">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B59" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="F59" s="17" t="s">
-        <v>243</v>
+        <v>70</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>238</v>
       </c>
       <c r="G59" s="19">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H59" s="19">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="K59" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L59" t="s">
-        <v>245</v>
+        <v>170</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A60" s="34">
-        <v>51</v>
+      <c r="A60" s="33">
+        <v>53</v>
       </c>
       <c r="B60" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(8*G98)</f>
+        <v>8</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>247</v>
+        <v>72</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>244</v>
       </c>
       <c r="G60" s="19">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="H60" s="19">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.64</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J60" s="20" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="K60" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>214</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="L60" s="3"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A61" s="33">
-        <v>52</v>
+      <c r="A61" s="34">
+        <v>54</v>
       </c>
       <c r="B61" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>250</v>
+        <v>73</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>252</v>
       </c>
       <c r="G61" s="19">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H61" s="19">
         <f t="shared" si="3"/>
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J61" s="20" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="K61" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="33">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B62" s="15">
-        <f>(8*G100)</f>
-        <v>16</v>
+        <f>(8*G98)</f>
+        <v>8</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="G62" s="19">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="H62" s="19">
         <f t="shared" si="3"/>
-        <v>1.28</v>
+        <v>0.32</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="J62" s="20" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="K62" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L62" s="3"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A63" s="34">
-        <v>54</v>
+      <c r="A63" s="33">
+        <v>56</v>
       </c>
       <c r="B63" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>80</v>
+        <f>(1*G98)</f>
+        <v>1</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>245</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>263</v>
+        <v>240</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="G63" s="19">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="H63" s="19">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J63" s="20" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="K63" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A64" s="33">
-        <v>55</v>
+      <c r="A64" s="34">
+        <v>57</v>
       </c>
       <c r="B64" s="15">
-        <f>(8*G100)</f>
-        <v>16</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G64" s="19">
         <v>0.04</v>
       </c>
       <c r="H64" s="19">
         <f t="shared" si="3"/>
-        <v>0.64</v>
+        <v>0.04</v>
       </c>
       <c r="I64" s="17" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="J64" s="20" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="K64" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L64" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="33">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B65" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
-      </c>
-      <c r="C65" s="32" t="s">
-        <v>257</v>
+        <f>(1*G98)</f>
+        <v>1</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G65" s="19">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="H65" s="19">
         <f t="shared" si="3"/>
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J65" s="20" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="K65" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>260</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="L65" s="3"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A66" s="34">
-        <v>57</v>
+      <c r="A66" s="33">
+        <v>59</v>
       </c>
       <c r="B66" s="15">
-        <f>(1*G100)</f>
+        <f>(2*G98)</f>
         <v>2</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>268</v>
+        <v>374</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>269</v>
+        <v>375</v>
       </c>
       <c r="G66" s="19">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="H66" s="19">
         <f t="shared" si="3"/>
-        <v>0.08</v>
+        <v>0.4</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="J66" s="20" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="K66" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A67" s="33">
-        <v>58</v>
+      <c r="A67" s="34">
+        <v>60</v>
       </c>
       <c r="B67" s="15">
-        <f>(1*G100)</f>
+        <f>(2*G98)</f>
         <v>2</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G67" s="19">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="H67" s="19">
         <f t="shared" si="3"/>
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J67" s="20" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="K67" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L67" s="3"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="33">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B68" s="15">
-        <f>(2*G100)</f>
-        <v>4</v>
+        <f>(2*G98)</f>
+        <v>2</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>386</v>
+        <v>265</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
       <c r="G68" s="19">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H68" s="19">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I68" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J68" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="K68" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A69" s="33">
+        <v>62</v>
+      </c>
+      <c r="B69" s="15">
+        <f>(3*G98)</f>
+        <v>3</v>
+      </c>
+      <c r="C69" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="J68" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="K68" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A69" s="34">
-        <v>60</v>
-      </c>
-      <c r="B69" s="15">
-        <f>(2*G100)</f>
-        <v>4</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>93</v>
-      </c>
       <c r="D69" s="20" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G69" s="19">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H69" s="19">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J69" s="20" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="K69" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L69" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A70" s="33">
-        <v>61</v>
+      <c r="A70" s="34">
+        <v>63</v>
       </c>
       <c r="B70" s="15">
-        <f>(2*G100)</f>
-        <v>4</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="E70" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="F70" s="21" t="s">
-        <v>278</v>
+        <f>(7*G98)</f>
+        <v>7</v>
+      </c>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>184</v>
       </c>
       <c r="G70" s="19">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
       <c r="H70" s="19">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="J70" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="K70" s="17" t="s">
-        <v>182</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="J70" s="20"/>
+      <c r="K70" s="17"/>
       <c r="L70" s="3" t="s">
-        <v>273</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="33">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B71" s="15">
-        <f>(3*G100)</f>
-        <v>6</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D71" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="E71" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="F71" s="21" t="s">
-        <v>280</v>
+        <f>(14*G98)</f>
+        <v>14</v>
+      </c>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="15">
+        <v>1722533123</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>191</v>
       </c>
       <c r="G71" s="19">
-        <v>0.1</v>
+        <v>0.152</v>
       </c>
       <c r="H71" s="19">
         <f t="shared" si="3"/>
-        <v>0.60000000000000009</v>
+        <v>2.1280000000000001</v>
       </c>
       <c r="I71" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="J71" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="K71" s="17" t="s">
-        <v>182</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="J71" s="20"/>
+      <c r="K71" s="17"/>
       <c r="L71" s="3" t="s">
-        <v>282</v>
+        <v>190</v>
+      </c>
+      <c r="R71" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A72" s="34">
-        <v>63</v>
-      </c>
-      <c r="B72" s="15">
-        <f>(7*G100)</f>
-        <v>14</v>
-      </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="F72" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="G72" s="19">
-        <v>0.31</v>
-      </c>
-      <c r="H72" s="19">
-        <f t="shared" si="3"/>
-        <v>4.34</v>
-      </c>
-      <c r="I72" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="J72" s="20"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="A72" s="37"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="3"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A73" s="33">
-        <v>64</v>
+      <c r="A73" s="35">
+        <v>1</v>
       </c>
       <c r="B73" s="15">
-        <f>(14*G100)</f>
-        <v>28</v>
-      </c>
-      <c r="C73" s="17"/>
+        <f>(1*G98)</f>
+        <v>1</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="D73" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E73" s="15">
-        <v>1722533123</v>
+        <v>124</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>203</v>
+        <v>135</v>
       </c>
       <c r="G73" s="19">
-        <v>0.152</v>
+        <v>1.4</v>
       </c>
       <c r="H73" s="19">
         <f t="shared" si="3"/>
-        <v>4.2560000000000002</v>
+        <v>1.4</v>
       </c>
       <c r="I73" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="J73" s="20"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="R73" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A74" s="37"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="40"/>
-      <c r="K74" s="37"/>
+        <v>140</v>
+      </c>
+      <c r="J73" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="K73" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="35">
+        <v>2</v>
+      </c>
+      <c r="B74" s="15">
+        <f>(1*G98)</f>
+        <v>1</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="G74" s="19">
+        <v>0.64</v>
+      </c>
+      <c r="H74" s="19">
+        <f t="shared" si="3"/>
+        <v>0.64</v>
+      </c>
+      <c r="I74" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="J74" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="K74" s="17" t="s">
+        <v>170</v>
+      </c>
       <c r="L74" s="3"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B75" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>28</v>
+        <v>354</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>144</v>
+        <v>355</v>
       </c>
       <c r="G75" s="19">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="H75" s="19">
         <f t="shared" si="3"/>
-        <v>2.8</v>
+        <v>1.24</v>
       </c>
       <c r="I75" s="17" t="s">
-        <v>149</v>
+        <v>356</v>
       </c>
       <c r="J75" s="20" t="s">
-        <v>284</v>
+        <v>357</v>
       </c>
       <c r="K75" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B76" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="F76" s="15" t="s">
-        <v>371</v>
+        <v>94</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>120</v>
       </c>
       <c r="G76" s="19">
-        <v>0.64</v>
+        <v>5.66</v>
       </c>
       <c r="H76" s="19">
-        <f t="shared" si="3"/>
-        <v>1.28</v>
+        <f>(B76*G76)</f>
+        <v>5.66</v>
       </c>
       <c r="I76" s="17" t="s">
-        <v>372</v>
+        <v>130</v>
       </c>
       <c r="J76" s="20" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="K76" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L76" s="3"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B77" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>122</v>
+        <v>312</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="G77" s="19">
-        <v>1.24</v>
+        <v>2.84</v>
       </c>
       <c r="H77" s="19">
         <f t="shared" si="3"/>
-        <v>2.48</v>
+        <v>2.84</v>
       </c>
       <c r="I77" s="17" t="s">
-        <v>368</v>
+        <v>273</v>
       </c>
       <c r="J77" s="20" t="s">
-        <v>369</v>
+        <v>274</v>
       </c>
       <c r="K77" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L77" s="3"/>
+      <c r="R77" s="2" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B78" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="E78" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F78" s="17" t="s">
-        <v>127</v>
+        <v>95</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>275</v>
       </c>
       <c r="G78" s="19">
-        <v>5.66</v>
+        <v>0.86</v>
       </c>
       <c r="H78" s="19">
-        <f>(B78*G78)</f>
-        <v>11.32</v>
+        <f t="shared" si="3"/>
+        <v>0.86</v>
       </c>
       <c r="I78" s="17" t="s">
-        <v>137</v>
+        <v>276</v>
       </c>
       <c r="J78" s="20" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="K78" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L78" s="3"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="35">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B79" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>388</v>
+        <v>298</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>296</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>389</v>
+        <v>297</v>
       </c>
       <c r="G79" s="19">
-        <v>2.84</v>
+        <v>0.15</v>
       </c>
       <c r="H79" s="19">
         <f t="shared" si="3"/>
-        <v>5.68</v>
+        <v>0.15</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>285</v>
+        <v>218</v>
       </c>
       <c r="J79" s="20" t="s">
-        <v>286</v>
+        <v>168</v>
       </c>
       <c r="K79" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L79" s="3"/>
-      <c r="R79" s="2" t="s">
-        <v>186</v>
-      </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="35">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B80" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>325</v>
+        <v>91</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="G80" s="19">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="H80" s="19">
         <f t="shared" si="3"/>
-        <v>1.72</v>
+        <v>0.67</v>
       </c>
       <c r="I80" s="17" t="s">
-        <v>288</v>
+        <v>97</v>
       </c>
       <c r="J80" s="20" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="K80" s="17" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L80" s="3"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="35">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B81" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="F81" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="G81" s="19">
-        <v>0.15</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D81" s="17"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="19"/>
       <c r="H81" s="19">
         <f t="shared" si="3"/>
-        <v>0.3</v>
-      </c>
-      <c r="I81" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="J81" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="K81" s="17" t="s">
-        <v>182</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" s="17"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="15"/>
       <c r="L81" s="3"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="35">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B82" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E82" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F82" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="G82" s="19">
-        <v>0.67</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D82" s="17"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="19"/>
       <c r="H82" s="19">
         <f t="shared" si="3"/>
-        <v>1.34</v>
-      </c>
-      <c r="I82" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="J82" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="K82" s="17" t="s">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" s="20"/>
+      <c r="K82" s="15"/>
       <c r="L82" s="3"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="35">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B83" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D83" s="17"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="19"/>
+        <v>99</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="G83" s="19">
+        <v>0.1</v>
+      </c>
       <c r="H83" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I83" s="17"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="I83" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="J83" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="K83" s="17" t="s">
+        <v>170</v>
+      </c>
       <c r="L83" s="3"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="35">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B84" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D84" s="17"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="19"/>
+        <v>101</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="G84" s="19">
+        <v>0.1</v>
+      </c>
       <c r="H84" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="20"/>
-      <c r="K84" s="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="I84" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="J84" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="K84" s="17" t="s">
+        <v>170</v>
+      </c>
       <c r="L84" s="3"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="35">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B85" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(3*G98)</f>
+        <v>3</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>106</v>
+        <v>352</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="G85" s="19">
         <v>0.1</v>
       </c>
       <c r="H85" s="19">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I85" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J85" s="20" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="K85" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L85" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="35">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B86" s="15">
-        <f>(1*G100)</f>
+        <f>(2*G98)</f>
         <v>2</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G86" s="19">
         <v>0.1</v>
@@ -4824,447 +4843,369 @@
         <v>0.2</v>
       </c>
       <c r="I86" s="17" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="J86" s="20" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="K86" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L86" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B87" s="15">
-        <f>(3*G100)</f>
-        <v>6</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>364</v>
+        <v>105</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G87" s="19">
         <v>0.1</v>
       </c>
       <c r="H87" s="19">
         <f t="shared" si="3"/>
-        <v>0.60000000000000009</v>
+        <v>0.1</v>
       </c>
       <c r="I87" s="17" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="J87" s="20" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="K87" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>229</v>
+        <v>292</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="35">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B88" s="15">
-        <f>(2*G100)</f>
-        <v>4</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="E88" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="F88" s="15" t="s">
-        <v>299</v>
+        <v>365</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>363</v>
       </c>
       <c r="G88" s="19">
-        <v>0.1</v>
+        <v>0.37</v>
       </c>
       <c r="H88" s="19">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="I88" s="17" t="s">
-        <v>64</v>
+        <v>353</v>
       </c>
       <c r="J88" s="20" t="s">
-        <v>208</v>
+        <v>281</v>
       </c>
       <c r="K88" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L88" s="3" t="s">
-        <v>214</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="L88" s="3"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="35">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B89" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="E89" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="F89" s="15" t="s">
-        <v>303</v>
+        <v>215</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="F89" s="21" t="s">
+        <v>367</v>
       </c>
       <c r="G89" s="19">
         <v>0.1</v>
       </c>
       <c r="H89" s="19">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I89" s="17" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="J89" s="20" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="K89" s="17" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="35">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B90" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(5*G98)</f>
+        <v>5</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>113</v>
+        <v>372</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="E90" s="21" t="s">
-        <v>376</v>
+        <v>240</v>
+      </c>
+      <c r="E90" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="F90" s="21" t="s">
-        <v>375</v>
+        <v>294</v>
       </c>
       <c r="G90" s="19">
-        <v>0.37</v>
+        <v>0.05</v>
       </c>
       <c r="H90" s="19">
-        <f t="shared" si="3"/>
-        <v>0.74</v>
+        <f>(B90*G90)</f>
+        <v>0.25</v>
       </c>
       <c r="I90" s="17" t="s">
-        <v>365</v>
+        <v>74</v>
       </c>
       <c r="J90" s="20" t="s">
-        <v>293</v>
+        <v>196</v>
       </c>
       <c r="K90" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L90" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="35">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B91" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="E91" s="21" t="s">
-        <v>378</v>
+        <v>280</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>251</v>
       </c>
       <c r="F91" s="21" t="s">
-        <v>379</v>
+        <v>252</v>
       </c>
       <c r="G91" s="19">
         <v>0.1</v>
       </c>
       <c r="H91" s="19">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
+        <f t="shared" ref="H91:H94" si="4">(B91*G91)</f>
+        <v>0.1</v>
       </c>
       <c r="I91" s="17" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="J91" s="20" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="K91" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>304</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="L91" s="2"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="35">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B92" s="15">
-        <f>(5*G100)</f>
-        <v>10</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="E92" s="20" t="s">
-        <v>305</v>
+        <v>279</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="E92" s="21" t="s">
+        <v>259</v>
       </c>
       <c r="F92" s="21" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="G92" s="19">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="H92" s="19">
-        <f>(B92*G92)</f>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.11</v>
       </c>
       <c r="I92" s="17" t="s">
         <v>81</v>
       </c>
       <c r="J92" s="20" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="K92" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L92" s="2" t="s">
-        <v>307</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="L92" s="2"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="35">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B93" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="D93" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="E93" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="F93" s="21" t="s">
-        <v>264</v>
+        <f>(6*G98)</f>
+        <v>6</v>
+      </c>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E93" s="15">
+        <v>500588000</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="G93" s="19">
         <v>0.1</v>
       </c>
       <c r="H93" s="19">
-        <f t="shared" ref="H93:H96" si="4">(B93*G93)</f>
-        <v>0.2</v>
-      </c>
-      <c r="I93" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="J93" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="K93" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L93" s="2"/>
+        <f t="shared" si="4"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="I93" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="J93" s="20"/>
+      <c r="K93" s="17"/>
+      <c r="R93" s="2" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="35">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B94" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="E94" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="F94" s="21" t="s">
-        <v>272</v>
+        <f>(1*G98)</f>
+        <v>1</v>
+      </c>
+      <c r="C94" s="15"/>
+      <c r="D94" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="F94" s="15" t="s">
+        <v>371</v>
       </c>
       <c r="G94" s="19">
-        <v>0.11</v>
+        <v>0.36</v>
       </c>
       <c r="H94" s="19">
         <f t="shared" si="4"/>
-        <v>0.22</v>
-      </c>
-      <c r="I94" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="J94" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="K94" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L94" s="2"/>
+        <v>0.36</v>
+      </c>
+      <c r="I94" s="27"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A95" s="35">
-        <v>23</v>
-      </c>
-      <c r="B95" s="15">
-        <f>(6*G100)</f>
-        <v>12</v>
-      </c>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E95" s="15">
-        <v>500588000</v>
-      </c>
-      <c r="F95" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="G95" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="H95" s="19">
-        <f t="shared" si="4"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="I95" s="27" t="s">
-        <v>380</v>
-      </c>
-      <c r="J95" s="20"/>
-      <c r="K95" s="17"/>
-      <c r="R95" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A96" s="35">
-        <v>24</v>
-      </c>
-      <c r="B96" s="15">
-        <f>(1*G100)</f>
-        <v>2</v>
-      </c>
-      <c r="C96" s="15"/>
-      <c r="D96" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E96" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="F96" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="G96" s="19">
-        <v>0.36</v>
-      </c>
-      <c r="H96" s="19">
-        <f t="shared" si="4"/>
-        <v>0.72</v>
-      </c>
-      <c r="I96" s="27"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="15"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I99" s="12"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F100" s="44" t="s">
-        <v>385</v>
-      </c>
-      <c r="G100" s="1">
-        <v>2</v>
-      </c>
-      <c r="H100" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="I100" s="5"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H101" s="9">
-        <f>SUM(H12:H71)</f>
-        <v>144.16</v>
-      </c>
-      <c r="I101" s="5"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H102" s="1"/>
-      <c r="I102" s="6"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H103" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I103" s="3"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H104" s="9">
-        <f>SUM(H75:H96)</f>
-        <v>32.299999999999997</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H106" s="7" t="s">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="97" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="I97" s="12"/>
+    </row>
+    <row r="98" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F98" s="44" t="s">
+        <v>373</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H99" s="9">
+        <f>SUM(H12:H69)</f>
+        <v>71.699999999999989</v>
+      </c>
+      <c r="I99" s="5"/>
+    </row>
+    <row r="100" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H100" s="1"/>
+      <c r="I100" s="6"/>
+    </row>
+    <row r="101" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H101" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I101" s="3"/>
+    </row>
+    <row r="102" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H102" s="9">
+        <f>SUM(H73:H94)</f>
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H104" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H107" s="9">
-        <f>SUM(H101+H104)</f>
-        <v>176.45999999999998</v>
-      </c>
-    </row>
-    <row r="113" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H113" s="11"/>
+    <row r="105" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H105" s="9">
+        <f>SUM(H99+H102)</f>
+        <v>87.85</v>
+      </c>
+    </row>
+    <row r="111" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H111" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SPEX HAB2 BOM.xlsx
+++ b/SPEX HAB2 BOM.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Turnkey" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Turnkey!$A$1:$K$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Turnkey!$A$1:$K$54</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="383">
   <si>
     <t>Description</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>Q4,Q5,Q6</t>
-  </si>
-  <si>
-    <t>Q101,Q104</t>
   </si>
   <si>
     <t>Q105</t>
@@ -1025,18 +1022,6 @@
   </si>
   <si>
     <t>SOT-23</t>
-  </si>
-  <si>
-    <t>DMG2302U-7</t>
-  </si>
-  <si>
-    <t>621-DMG2302U-7</t>
-  </si>
-  <si>
-    <t>Enable pin Nchannel Mosfet</t>
-  </si>
-  <si>
-    <t>SOT23-3</t>
   </si>
   <si>
     <t xml:space="preserve">Diodes Incorportated </t>
@@ -1883,10 +1868,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R111"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1926,7 +1911,7 @@
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2013,7 +1998,7 @@
         <v>12</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -2034,17 +2019,17 @@
         <v>1</v>
       </c>
       <c r="B12" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="19">
@@ -2055,16 +2040,16 @@
         <v>6.8</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L12" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -2072,20 +2057,20 @@
         <v>2</v>
       </c>
       <c r="B13" s="15">
-        <f>(3*G98)</f>
+        <f>(3*G97)</f>
         <v>3</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>111</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>112</v>
       </c>
       <c r="G13" s="19">
         <v>0.55000000000000004</v>
@@ -2095,13 +2080,13 @@
         <v>1.6500000000000001</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -2109,20 +2094,20 @@
         <v>3</v>
       </c>
       <c r="B14" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>113</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>114</v>
       </c>
       <c r="G14" s="19">
         <v>7.07</v>
@@ -2132,13 +2117,13 @@
         <v>7.07</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -2146,20 +2131,20 @@
         <v>4</v>
       </c>
       <c r="B15" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G15" s="19">
         <v>0.48</v>
@@ -2169,13 +2154,13 @@
         <v>0.48</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2183,20 +2168,20 @@
         <v>5</v>
       </c>
       <c r="B16" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E16" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="17" t="s">
         <v>117</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>118</v>
       </c>
       <c r="G16" s="19">
         <v>1.22</v>
@@ -2206,13 +2191,13 @@
         <v>1.22</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2220,20 +2205,20 @@
         <v>6</v>
       </c>
       <c r="B17" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G17" s="19">
         <v>5.66</v>
@@ -2243,13 +2228,13 @@
         <v>5.66</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2257,20 +2242,20 @@
         <v>7</v>
       </c>
       <c r="B18" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E18" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>121</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>122</v>
       </c>
       <c r="G18" s="26">
         <v>6.21</v>
@@ -2280,13 +2265,13 @@
         <v>6.21</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2294,20 +2279,20 @@
         <v>8</v>
       </c>
       <c r="B19" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="27" t="s">
         <v>132</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>133</v>
       </c>
       <c r="G19" s="28">
         <v>2.12</v>
@@ -2317,13 +2302,13 @@
         <v>2.12</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L19" s="2"/>
     </row>
@@ -2332,20 +2317,20 @@
         <v>10</v>
       </c>
       <c r="B20" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G20" s="19">
         <v>1.4</v>
@@ -2355,13 +2340,13 @@
         <v>1.4</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L20" s="2"/>
     </row>
@@ -2370,20 +2355,20 @@
         <v>11</v>
       </c>
       <c r="B21" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E21" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="15" t="s">
         <v>136</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>137</v>
       </c>
       <c r="G21" s="19">
         <v>0.8</v>
@@ -2393,11 +2378,11 @@
         <v>0.8</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J21" s="20"/>
       <c r="K21" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L21" s="2"/>
     </row>
@@ -2406,20 +2391,20 @@
         <v>12</v>
       </c>
       <c r="B22" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E22" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="29" t="s">
         <v>141</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>142</v>
       </c>
       <c r="G22" s="19">
         <v>4</v>
@@ -2429,13 +2414,13 @@
         <v>4</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -2443,20 +2428,20 @@
         <v>13</v>
       </c>
       <c r="B23" s="15">
-        <f>(2*G98)</f>
+        <f>(2*G97)</f>
         <v>2</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="G23" s="19">
         <v>1.45</v>
@@ -2466,13 +2451,13 @@
         <v>2.9</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -2480,20 +2465,20 @@
         <v>14</v>
       </c>
       <c r="B24" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E24" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="G24" s="28">
         <v>0.72</v>
@@ -2503,11 +2488,11 @@
         <v>0.72</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J24" s="20"/>
       <c r="K24" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -2515,20 +2500,20 @@
         <v>15</v>
       </c>
       <c r="B25" s="15">
-        <f>(2*G98)</f>
+        <f>(2*G97)</f>
         <v>2</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E25" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="F25" s="29" t="s">
         <v>308</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>309</v>
       </c>
       <c r="G25" s="19">
         <v>0.42</v>
@@ -2538,13 +2523,13 @@
         <v>0.84</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2552,20 +2537,20 @@
         <v>16</v>
       </c>
       <c r="B26" s="15">
-        <f>(3*G98)</f>
+        <f>(3*G97)</f>
         <v>3</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E26" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="F26" s="29" t="s">
         <v>304</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>305</v>
       </c>
       <c r="G26" s="19">
         <v>0.26</v>
@@ -2575,13 +2560,13 @@
         <v>0.78</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -2589,20 +2574,20 @@
         <v>19</v>
       </c>
       <c r="B27" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E27" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>153</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>154</v>
       </c>
       <c r="G27" s="19">
         <v>0.46</v>
@@ -2612,11 +2597,11 @@
         <v>0.46</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J27" s="20"/>
       <c r="K27" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -2624,372 +2609,373 @@
         <v>20</v>
       </c>
       <c r="B28" s="15">
-        <f>(3*G98)</f>
+        <f>(3*G97)</f>
         <v>3</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>32</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E28" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>158</v>
       </c>
       <c r="G28" s="19">
         <v>0.52</v>
       </c>
       <c r="H28" s="19">
-        <f t="shared" ref="H28:H51" si="2">(B28*G28)</f>
+        <f t="shared" ref="H28:H50" si="2">(B28*G28)</f>
         <v>1.56</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J28" s="20"/>
       <c r="K28" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B29" s="15">
-        <f>(2*G98)</f>
-        <v>2</v>
+        <f>(1*G97)</f>
+        <v>1</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>327</v>
+        <v>161</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>323</v>
+        <v>159</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>324</v>
+        <v>160</v>
       </c>
       <c r="G29" s="19">
-        <v>0.37</v>
+        <v>0.52</v>
       </c>
       <c r="H29" s="19">
         <f t="shared" si="2"/>
-        <v>0.74</v>
+        <v>0.52</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="J29" s="20" t="s">
-        <v>326</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="J29" s="20"/>
       <c r="K29" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B30" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>160</v>
+        <v>317</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>161</v>
+        <v>318</v>
       </c>
       <c r="G30" s="19">
-        <v>0.52</v>
+        <v>0.1</v>
       </c>
       <c r="H30" s="19">
         <f t="shared" si="2"/>
-        <v>0.52</v>
+        <v>0.1</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="J30" s="20"/>
+        <v>320</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>321</v>
+      </c>
       <c r="K30" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="L30" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B31" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>318</v>
+        <v>163</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>319</v>
+        <v>164</v>
       </c>
       <c r="G31" s="19">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="H31" s="19">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>321</v>
+        <v>166</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>322</v>
+        <v>167</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L31" t="s">
-        <v>320</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B32" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>166</v>
+        <v>297</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>164</v>
+        <v>295</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>165</v>
+        <v>296</v>
       </c>
       <c r="G32" s="19">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="H32" s="19">
         <f t="shared" si="2"/>
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I32" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="J32" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="J32" s="20" t="s">
-        <v>168</v>
-      </c>
       <c r="K32" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L32" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B33" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="17" t="s">
+        <f>(1*G97)</f>
+        <v>1</v>
+      </c>
+      <c r="C33" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="E33" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="F33" s="15" t="s">
+      <c r="D33" s="25" t="s">
         <v>297</v>
       </c>
+      <c r="E33" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="G33" s="19">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H33" s="19">
         <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="33">
+        <v>28</v>
+      </c>
+      <c r="B34" s="15">
+        <f>(2*G97)</f>
+        <v>2</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G34" s="19">
         <v>0.15</v>
-      </c>
-      <c r="I33" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="K33" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="14">
-        <v>26</v>
-      </c>
-      <c r="B34" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="G34" s="19">
-        <v>0.1</v>
       </c>
       <c r="H34" s="19">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>302</v>
+        <v>171</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L34" t="s">
-        <v>303</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="33">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B35" s="15">
-        <f>(2*G98)</f>
+        <f>(2*G97)</f>
         <v>2</v>
       </c>
-      <c r="C35" s="17" t="s">
-        <v>38</v>
+      <c r="C35" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>171</v>
+        <v>322</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>328</v>
       </c>
       <c r="G35" s="19">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="H35" s="19">
         <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="J35" s="20" t="s">
-        <v>173</v>
-      </c>
+        <v>0.38</v>
+      </c>
+      <c r="I35" s="17"/>
+      <c r="J35" s="20"/>
       <c r="K35" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L35" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="L35" s="3"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="33">
-        <v>29</v>
+      <c r="A36" s="34">
+        <v>30</v>
       </c>
       <c r="B36" s="15">
-        <f>(2*G98)</f>
-        <v>2</v>
-      </c>
-      <c r="C36" s="15" t="s">
+        <f>(1*G97)</f>
+        <v>1</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>40</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>332</v>
+        <v>110</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>330</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G36" s="19">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="H36" s="19">
         <f t="shared" si="2"/>
-        <v>0.38</v>
-      </c>
-      <c r="I36" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="15"/>
       <c r="J36" s="20"/>
       <c r="K36" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="34">
-        <v>30</v>
+      <c r="A37" s="33">
+        <v>31</v>
       </c>
       <c r="B37" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>41</v>
+        <v>323</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>111</v>
+        <v>333</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G37" s="19">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="H37" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="15"/>
+        <f>(B37*G37)</f>
+        <v>0.38</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>325</v>
+      </c>
       <c r="J37" s="20"/>
       <c r="K37" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="1"/>
@@ -2997,115 +2983,117 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B38" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E38" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="F38" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="G38" s="19">
+        <v>0.48</v>
+      </c>
+      <c r="H38" s="19">
+        <f t="shared" si="2"/>
+        <v>0.48</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="J38" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="G38" s="19">
-        <v>0.38</v>
-      </c>
-      <c r="H38" s="19">
-        <f>(B38*G38)</f>
-        <v>0.38</v>
-      </c>
-      <c r="I38" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="J38" s="20"/>
       <c r="K38" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="33">
-        <v>32</v>
+      <c r="A39" s="34">
+        <v>33</v>
       </c>
       <c r="B39" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>329</v>
+        <v>41</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="E39" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="F39" s="13" t="s">
-        <v>341</v>
-      </c>
       <c r="G39" s="19">
-        <v>0.48</v>
+        <v>0.34</v>
       </c>
       <c r="H39" s="19">
         <f t="shared" si="2"/>
-        <v>0.48</v>
+        <v>0.34</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="J39" s="20" t="s">
-        <v>342</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="J39" s="20"/>
       <c r="K39" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="34">
-        <v>33</v>
+      <c r="A40" s="33">
+        <v>34</v>
       </c>
       <c r="B40" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>42</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>327</v>
+        <v>231</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="G40" s="19">
-        <v>0.34</v>
+        <v>0.46</v>
       </c>
       <c r="H40" s="19">
         <f t="shared" si="2"/>
-        <v>0.34</v>
+        <v>0.46</v>
       </c>
       <c r="I40" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="J40" s="20"/>
+        <v>315</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>316</v>
+      </c>
       <c r="K40" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="1"/>
@@ -3113,292 +3101,294 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="33">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B41" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
-      </c>
-      <c r="C41" s="17" t="s">
+        <f>(2*G97)</f>
+        <v>2</v>
+      </c>
+      <c r="C41" s="27" t="s">
         <v>43</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>314</v>
+        <v>192</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>315</v>
+        <v>174</v>
       </c>
       <c r="G41" s="19">
-        <v>0.46</v>
+        <v>1.43</v>
       </c>
       <c r="H41" s="19">
         <f t="shared" si="2"/>
-        <v>0.46</v>
+        <v>2.86</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="J41" s="20" t="s">
-        <v>317</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="J41" s="21"/>
       <c r="K41" s="17" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
+      <c r="R41" s="2" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="33">
-        <v>35</v>
+      <c r="A42" s="34">
+        <v>36</v>
       </c>
       <c r="B42" s="15">
-        <f>(2*G98)</f>
-        <v>2</v>
+        <f>(1*G97)</f>
+        <v>1</v>
       </c>
       <c r="C42" s="27" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>194</v>
+        <v>344</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>175</v>
+        <v>341</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>342</v>
       </c>
       <c r="G42" s="19">
-        <v>1.43</v>
+        <v>0.97</v>
       </c>
       <c r="H42" s="19">
         <f t="shared" si="2"/>
-        <v>2.86</v>
+        <v>0.97</v>
       </c>
       <c r="I42" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="J42" s="20"/>
+      <c r="K42" s="17" t="s">
         <v>176</v>
-      </c>
-      <c r="J42" s="21"/>
-      <c r="K42" s="17" t="s">
-        <v>177</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="R42" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="34">
-        <v>36</v>
+    </row>
+    <row r="43" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="33">
+        <v>37</v>
       </c>
       <c r="B43" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
-      </c>
-      <c r="C43" s="27" t="s">
+        <f>(1*G97)</f>
+        <v>1</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="G43" s="19">
-        <v>0.97</v>
-      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="19"/>
       <c r="H43" s="19">
         <f t="shared" si="2"/>
-        <v>0.97</v>
-      </c>
-      <c r="I43" s="17" t="s">
-        <v>348</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="17"/>
       <c r="J43" s="20"/>
-      <c r="K43" s="17" t="s">
-        <v>177</v>
-      </c>
+      <c r="K43" s="17"/>
       <c r="L43" s="3"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="33">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B44" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
-      </c>
-      <c r="C44" s="17" t="s">
+        <f>(4*G97)</f>
+        <v>4</v>
+      </c>
+      <c r="C44" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="19"/>
+      <c r="D44" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G44" s="19">
+        <v>1.5</v>
+      </c>
       <c r="H44" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="17"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="I44" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="J44" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="K44" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="33">
-        <v>38</v>
+      <c r="A45" s="34">
+        <v>39</v>
       </c>
       <c r="B45" s="15">
-        <f>(4*G98)</f>
-        <v>4</v>
+        <f>(7*G97)</f>
+        <v>7</v>
       </c>
       <c r="C45" s="27" t="s">
         <v>47</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="E45" s="17"/>
+        <v>90</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>177</v>
+      </c>
       <c r="F45" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G45" s="19">
-        <v>1.5</v>
+        <v>0.72</v>
       </c>
       <c r="H45" s="19">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="I45" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="J45" s="36" t="s">
-        <v>271</v>
+        <v>5.04</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="J45" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>181</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="L45" s="3"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="34">
-        <v>39</v>
+      <c r="A46" s="33">
+        <v>40</v>
       </c>
       <c r="B46" s="15">
-        <f>(7*G98)</f>
-        <v>7</v>
-      </c>
-      <c r="C46" s="27" t="s">
+        <f>(4*G97)</f>
+        <v>4</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="27" t="s">
-        <v>91</v>
+      <c r="D46" s="17" t="s">
+        <v>199</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="G46" s="19">
-        <v>0.72</v>
+        <v>0.1</v>
       </c>
       <c r="H46" s="19">
         <f t="shared" si="2"/>
-        <v>5.04</v>
+        <v>0.4</v>
       </c>
       <c r="I46" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="J46" s="17" t="s">
-        <v>271</v>
+        <v>49</v>
+      </c>
+      <c r="J46" s="20" t="s">
+        <v>167</v>
       </c>
       <c r="K46" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="L46" s="3"/>
+        <v>169</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
+      <c r="R46" s="2" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="33">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B47" s="15">
-        <f>(4*G98)</f>
-        <v>4</v>
+        <f>(18*G97)</f>
+        <v>18</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>49</v>
+        <v>377</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>198</v>
+        <v>202</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>203</v>
       </c>
       <c r="G47" s="19">
         <v>0.1</v>
       </c>
       <c r="H47" s="19">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="I47" s="17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K47" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="R47" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="33">
-        <v>41</v>
+      <c r="A48" s="34">
+        <v>42</v>
       </c>
       <c r="B48" s="15">
-        <f>(18*G98)</f>
-        <v>18</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>382</v>
+        <f>(2*G97)</f>
+        <v>2</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="F48" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F48" s="15" t="s">
         <v>204</v>
       </c>
       <c r="G48" s="19">
@@ -3406,285 +3396,283 @@
       </c>
       <c r="H48" s="19">
         <f t="shared" si="2"/>
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="I48" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J48" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-      <c r="R48" s="2" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="34">
-        <v>42</v>
+      <c r="A49" s="33">
+        <v>43</v>
       </c>
       <c r="B49" s="15">
-        <f>(2*G98)</f>
-        <v>2</v>
+        <f>(3*G97)</f>
+        <v>3</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D49" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="F49" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>205</v>
       </c>
       <c r="G49" s="19">
         <v>0.1</v>
       </c>
       <c r="H49" s="19">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="J49" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K49" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="L49" t="s">
+        <v>211</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="33">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B50" s="15">
-        <f>(3*G98)</f>
-        <v>3</v>
-      </c>
-      <c r="C50" s="27" t="s">
+        <f>(1*G97)</f>
+        <v>1</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G50" s="19">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="H50" s="19">
         <f t="shared" si="2"/>
-        <v>0.30000000000000004</v>
+        <v>0.08</v>
       </c>
       <c r="I50" s="17" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="J50" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K50" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L50" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="33">
-        <v>44</v>
+      <c r="A51" s="34">
+        <v>45</v>
       </c>
       <c r="B51" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
+        <f>(5*G97)</f>
+        <v>5</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F51" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="G51" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H51" s="19">
+        <f t="shared" ref="H51:H88" si="3">(B51*G51)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J51" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="33">
+        <v>46</v>
+      </c>
+      <c r="B52" s="15">
+        <f>(1*G97)</f>
+        <v>1</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="D52" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="G51" s="19">
+      <c r="E52" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="G52" s="19">
         <v>0.08</v>
       </c>
-      <c r="H51" s="19">
-        <f t="shared" si="2"/>
+      <c r="H52" s="19">
+        <f t="shared" si="3"/>
         <v>0.08</v>
-      </c>
-      <c r="I51" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="J51" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="K51" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L51" t="s">
-        <v>217</v>
-      </c>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="34">
-        <v>45</v>
-      </c>
-      <c r="B52" s="15">
-        <f>(5*G98)</f>
-        <v>5</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="G52" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="H52" s="19">
-        <f t="shared" ref="H52:H89" si="3">(B52*G52)</f>
-        <v>0.5</v>
       </c>
       <c r="I52" s="17" t="s">
         <v>58</v>
       </c>
       <c r="J52" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K52" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="33">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B53" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
+        <f>(2*G97)</f>
+        <v>2</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>381</v>
+        <v>60</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G53" s="19">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="H53" s="19">
         <f t="shared" si="3"/>
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="I53" s="17" t="s">
         <v>59</v>
       </c>
       <c r="J53" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K53" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>217</v>
+        <v>169</v>
+      </c>
+      <c r="L53" s="31" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="33">
-        <v>47</v>
+      <c r="A54" s="34">
+        <v>48</v>
       </c>
       <c r="B54" s="15">
-        <f>(2*G98)</f>
-        <v>2</v>
+        <f>(1*G97)</f>
+        <v>1</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>61</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>223</v>
+        <v>199</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>225</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G54" s="19">
         <v>0.1</v>
       </c>
       <c r="H54" s="19">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K54" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L54" s="31" t="s">
-        <v>225</v>
+        <v>169</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="34">
-        <v>48</v>
+      <c r="A55" s="33">
+        <v>49</v>
       </c>
       <c r="B55" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
+        <f>(2*G97)</f>
+        <v>2</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F55" s="15" t="s">
         <v>227</v>
@@ -3694,80 +3682,80 @@
       </c>
       <c r="H55" s="19">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J55" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K55" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="33">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B56" s="15">
-        <f>(2*G98)</f>
-        <v>2</v>
+        <f>(1*G97)</f>
+        <v>1</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="E56" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="E56" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="F56" s="15" t="s">
-        <v>228</v>
+      <c r="F56" s="17" t="s">
+        <v>230</v>
       </c>
       <c r="G56" s="19">
         <v>0.1</v>
       </c>
       <c r="H56" s="19">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I56" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J56" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K56" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>202</v>
+        <v>169</v>
+      </c>
+      <c r="L56" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="33">
-        <v>50</v>
+      <c r="A57" s="34">
+        <v>51</v>
       </c>
       <c r="B57" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>231</v>
+        <v>67</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>234</v>
       </c>
       <c r="G57" s="19">
         <v>0.1</v>
@@ -3777,391 +3765,389 @@
         <v>0.1</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J57" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K57" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L57" t="s">
-        <v>233</v>
+        <v>169</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A58" s="34">
-        <v>51</v>
+      <c r="A58" s="33">
+        <v>52</v>
       </c>
       <c r="B58" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G58" s="19">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H58" s="19">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J58" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K58" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="33">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B59" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
+        <f>(8*G97)</f>
+        <v>8</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>238</v>
+        <v>71</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>243</v>
       </c>
       <c r="G59" s="19">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H59" s="19">
         <f t="shared" si="3"/>
-        <v>0.09</v>
+        <v>0.64</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K59" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>239</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="L59" s="3"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A60" s="33">
-        <v>53</v>
+      <c r="A60" s="34">
+        <v>54</v>
       </c>
       <c r="B60" s="15">
-        <f>(8*G98)</f>
-        <v>8</v>
+        <f>(1*G97)</f>
+        <v>1</v>
       </c>
       <c r="C60" s="17" t="s">
         <v>72</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>243</v>
+        <v>252</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>250</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="G60" s="19">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="H60" s="19">
         <f t="shared" si="3"/>
-        <v>0.64</v>
+        <v>0.1</v>
       </c>
       <c r="I60" s="17" t="s">
         <v>74</v>
       </c>
       <c r="J60" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K60" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L60" s="3"/>
+        <v>169</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A61" s="34">
-        <v>54</v>
+      <c r="A61" s="33">
+        <v>55</v>
       </c>
       <c r="B61" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
+        <f>(8*G97)</f>
+        <v>8</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>73</v>
+        <v>248</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>251</v>
+        <v>239</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>241</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="G61" s="19">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="H61" s="19">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.32</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="J61" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K61" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>254</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="L61" s="3"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="33">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B62" s="15">
-        <f>(8*G98)</f>
-        <v>8</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>249</v>
+        <f>(1*G97)</f>
+        <v>1</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>244</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G62" s="19">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="H62" s="19">
         <f t="shared" si="3"/>
-        <v>0.32</v>
+        <v>0.02</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="J62" s="20" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="K62" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L62" s="3"/>
+        <v>169</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A63" s="33">
-        <v>56</v>
+      <c r="A63" s="34">
+        <v>57</v>
       </c>
       <c r="B63" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>245</v>
+        <f>(1*G97)</f>
+        <v>1</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G63" s="19">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="H63" s="19">
         <f t="shared" si="3"/>
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>76</v>
+        <v>254</v>
       </c>
       <c r="J63" s="20" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="K63" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A64" s="34">
-        <v>57</v>
+      <c r="A64" s="33">
+        <v>58</v>
       </c>
       <c r="B64" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C64" s="17" t="s">
         <v>77</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G64" s="19">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="H64" s="19">
         <f t="shared" si="3"/>
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="I64" s="17" t="s">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="J64" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K64" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>258</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="L64" s="3"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="33">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B65" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
+        <f>(2*G97)</f>
+        <v>2</v>
       </c>
       <c r="C65" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>259</v>
+        <v>369</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>260</v>
+        <v>370</v>
       </c>
       <c r="G65" s="19">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="H65" s="19">
         <f t="shared" si="3"/>
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J65" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K65" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L65" s="3"/>
+        <v>169</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A66" s="33">
-        <v>59</v>
+      <c r="A66" s="34">
+        <v>60</v>
       </c>
       <c r="B66" s="15">
-        <f>(2*G98)</f>
+        <f>(2*G97)</f>
         <v>2</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D66" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="E66" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="E66" s="21" t="s">
-        <v>374</v>
-      </c>
       <c r="F66" s="21" t="s">
-        <v>375</v>
+        <v>263</v>
       </c>
       <c r="G66" s="19">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H66" s="19">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J66" s="20" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="K66" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L66" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A67" s="33">
+        <v>61</v>
+      </c>
+      <c r="B67" s="15">
+        <f>(2*G97)</f>
+        <v>2</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" s="20" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A67" s="34">
-        <v>60</v>
-      </c>
-      <c r="B67" s="15">
-        <f>(2*G98)</f>
-        <v>2</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>253</v>
-      </c>
       <c r="E67" s="21" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G67" s="19">
         <v>0.5</v>
@@ -4171,553 +4157,553 @@
         <v>1</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J67" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K67" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L67" s="3"/>
+        <v>169</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="33">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B68" s="15">
-        <f>(2*G98)</f>
-        <v>2</v>
+        <f>(3*G97)</f>
+        <v>3</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G68" s="19">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H68" s="19">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I68" s="17" t="s">
         <v>84</v>
       </c>
       <c r="J68" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K68" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A69" s="33">
-        <v>62</v>
+      <c r="A69" s="34">
+        <v>63</v>
       </c>
       <c r="B69" s="15">
-        <f>(3*G98)</f>
-        <v>3</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E69" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="F69" s="21" t="s">
-        <v>268</v>
+        <f>(7*G97)</f>
+        <v>7</v>
+      </c>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>183</v>
       </c>
       <c r="G69" s="19">
-        <v>0.1</v>
+        <v>0.31</v>
       </c>
       <c r="H69" s="19">
         <f t="shared" si="3"/>
-        <v>0.30000000000000004</v>
+        <v>2.17</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="J69" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="K69" s="17" t="s">
-        <v>170</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="J69" s="20"/>
+      <c r="K69" s="17"/>
       <c r="L69" s="3" t="s">
-        <v>270</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A70" s="34">
-        <v>63</v>
+      <c r="A70" s="33">
+        <v>64</v>
       </c>
       <c r="B70" s="15">
-        <f>(7*G98)</f>
-        <v>7</v>
+        <f>(14*G97)</f>
+        <v>14</v>
       </c>
       <c r="C70" s="17"/>
       <c r="D70" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>185</v>
+        <v>90</v>
+      </c>
+      <c r="E70" s="15">
+        <v>1722533123</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G70" s="19">
-        <v>0.31</v>
+        <v>0.152</v>
       </c>
       <c r="H70" s="19">
         <f t="shared" si="3"/>
-        <v>2.17</v>
+        <v>2.1280000000000001</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J70" s="20"/>
       <c r="K70" s="17"/>
       <c r="L70" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A71" s="33">
-        <v>64</v>
-      </c>
-      <c r="B71" s="15">
-        <f>(14*G98)</f>
-        <v>14</v>
-      </c>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" s="15">
-        <v>1722533123</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="G71" s="19">
-        <v>0.152</v>
-      </c>
-      <c r="H71" s="19">
+      <c r="A71" s="37"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A72" s="35">
+        <v>1</v>
+      </c>
+      <c r="B72" s="15">
+        <f>(1*G97)</f>
+        <v>1</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G72" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="H72" s="19">
         <f t="shared" si="3"/>
-        <v>2.1280000000000001</v>
-      </c>
-      <c r="I71" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="J71" s="20"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="R71" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A72" s="37"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="40"/>
-      <c r="K72" s="37"/>
+        <v>1.4</v>
+      </c>
+      <c r="I72" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J72" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="K72" s="17" t="s">
+        <v>169</v>
+      </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B73" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>124</v>
+        <v>357</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>25</v>
+        <v>353</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>135</v>
+        <v>354</v>
       </c>
       <c r="G73" s="19">
-        <v>1.4</v>
+        <v>0.64</v>
       </c>
       <c r="H73" s="19">
         <f t="shared" si="3"/>
-        <v>1.4</v>
+        <v>0.64</v>
       </c>
       <c r="I73" s="17" t="s">
-        <v>140</v>
+        <v>355</v>
       </c>
       <c r="J73" s="20" t="s">
-        <v>272</v>
+        <v>356</v>
       </c>
       <c r="K73" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B74" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>362</v>
+        <v>114</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G74" s="19">
-        <v>0.64</v>
+        <v>1.24</v>
       </c>
       <c r="H74" s="19">
         <f t="shared" si="3"/>
-        <v>0.64</v>
+        <v>1.24</v>
       </c>
       <c r="I74" s="17" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="J74" s="20" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="K74" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L74" s="3"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B75" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>355</v>
+        <v>93</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>119</v>
       </c>
       <c r="G75" s="19">
-        <v>1.24</v>
+        <v>5.66</v>
       </c>
       <c r="H75" s="19">
-        <f t="shared" si="3"/>
-        <v>1.24</v>
+        <f>(B75*G75)</f>
+        <v>5.66</v>
       </c>
       <c r="I75" s="17" t="s">
-        <v>356</v>
+        <v>129</v>
       </c>
       <c r="J75" s="20" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="K75" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L75" s="3"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B76" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D76" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E76" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F76" s="17" t="s">
-        <v>120</v>
+        <v>17</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>372</v>
       </c>
       <c r="G76" s="19">
-        <v>5.66</v>
+        <v>2.84</v>
       </c>
       <c r="H76" s="19">
-        <f>(B76*G76)</f>
-        <v>5.66</v>
+        <f t="shared" si="3"/>
+        <v>2.84</v>
       </c>
       <c r="I76" s="17" t="s">
-        <v>130</v>
+        <v>272</v>
       </c>
       <c r="J76" s="20" t="s">
-        <v>350</v>
+        <v>273</v>
       </c>
       <c r="K76" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L76" s="3"/>
+      <c r="R76" s="2" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B77" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D77" s="17" t="s">
         <v>312</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>376</v>
+        <v>95</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>377</v>
+        <v>274</v>
       </c>
       <c r="G77" s="19">
-        <v>2.84</v>
+        <v>0.86</v>
       </c>
       <c r="H77" s="19">
         <f t="shared" si="3"/>
-        <v>2.84</v>
+        <v>0.86</v>
       </c>
       <c r="I77" s="17" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J77" s="20" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K77" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L77" s="3"/>
-      <c r="R77" s="2" t="s">
-        <v>174</v>
-      </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B78" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>96</v>
+        <v>297</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>295</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="G78" s="19">
-        <v>0.86</v>
+        <v>0.15</v>
       </c>
       <c r="H78" s="19">
         <f t="shared" si="3"/>
-        <v>0.86</v>
+        <v>0.15</v>
       </c>
       <c r="I78" s="17" t="s">
-        <v>276</v>
+        <v>217</v>
       </c>
       <c r="J78" s="20" t="s">
-        <v>277</v>
+        <v>167</v>
       </c>
       <c r="K78" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L78" s="3"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="35">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B79" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>296</v>
+        <v>90</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="G79" s="19">
-        <v>0.15</v>
+        <v>0.67</v>
       </c>
       <c r="H79" s="19">
         <f t="shared" si="3"/>
-        <v>0.15</v>
+        <v>0.67</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>218</v>
+        <v>96</v>
       </c>
       <c r="J79" s="20" t="s">
-        <v>168</v>
+        <v>270</v>
       </c>
       <c r="K79" s="17" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="L79" s="3"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B80" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C80" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D80" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F80" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="G80" s="19">
-        <v>0.67</v>
-      </c>
+      <c r="D80" s="17"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="19"/>
       <c r="H80" s="19">
         <f t="shared" si="3"/>
-        <v>0.67</v>
-      </c>
-      <c r="I80" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="J80" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="K80" s="17" t="s">
-        <v>177</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" s="17"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="15"/>
       <c r="L80" s="3"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B81" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="D81" s="17"/>
-      <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="19"/>
       <c r="H81" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I81" s="17"/>
       <c r="J81" s="20"/>
       <c r="K81" s="15"/>
       <c r="L81" s="3"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="35">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B82" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D82" s="17"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="19"/>
+        <v>98</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="G82" s="19">
+        <v>0.1</v>
+      </c>
       <c r="H82" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="20"/>
-      <c r="K82" s="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="I82" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="J82" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="K82" s="17" t="s">
+        <v>169</v>
+      </c>
       <c r="L82" s="3"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="35">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B83" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G83" s="19">
         <v>0.1</v>
@@ -4727,32 +4713,32 @@
         <v>0.1</v>
       </c>
       <c r="I83" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J83" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K83" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L83" s="3"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="35">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B84" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
+        <f>(3*G97)</f>
+        <v>3</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>101</v>
+        <v>347</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F84" s="15" t="s">
         <v>283</v>
@@ -4762,450 +4748,412 @@
       </c>
       <c r="H84" s="19">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I84" s="17" t="s">
         <v>102</v>
       </c>
       <c r="J84" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K84" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L84" s="3"/>
+        <v>169</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="35">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B85" s="15">
-        <f>(3*G98)</f>
-        <v>3</v>
+        <f>(2*G97)</f>
+        <v>2</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>352</v>
+        <v>103</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="E85" s="15" t="s">
         <v>285</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G85" s="19">
         <v>0.1</v>
       </c>
       <c r="H85" s="19">
         <f t="shared" si="3"/>
-        <v>0.30000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="I85" s="17" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="J85" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K85" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B86" s="15">
-        <f>(2*G98)</f>
-        <v>2</v>
+        <f>(1*G97)</f>
+        <v>1</v>
       </c>
       <c r="C86" s="17" t="s">
         <v>104</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G86" s="19">
         <v>0.1</v>
       </c>
       <c r="H86" s="19">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I86" s="17" t="s">
         <v>58</v>
       </c>
       <c r="J86" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K86" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>202</v>
+        <v>291</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="35">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B87" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C87" s="17" t="s">
         <v>105</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="E87" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="F87" s="15" t="s">
-        <v>291</v>
+        <v>360</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>358</v>
       </c>
       <c r="G87" s="19">
-        <v>0.1</v>
+        <v>0.37</v>
       </c>
       <c r="H87" s="19">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.37</v>
       </c>
       <c r="I87" s="17" t="s">
-        <v>59</v>
+        <v>348</v>
       </c>
       <c r="J87" s="20" t="s">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="K87" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L87" s="3" t="s">
-        <v>292</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="L87" s="3"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="35">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B88" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C88" s="17" t="s">
         <v>106</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>365</v>
+        <v>214</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F88" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G88" s="19">
-        <v>0.37</v>
+        <v>0.1</v>
       </c>
       <c r="H88" s="19">
         <f t="shared" si="3"/>
-        <v>0.37</v>
+        <v>0.1</v>
       </c>
       <c r="I88" s="17" t="s">
-        <v>353</v>
+        <v>49</v>
       </c>
       <c r="J88" s="20" t="s">
-        <v>281</v>
+        <v>195</v>
       </c>
       <c r="K88" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L88" s="3"/>
+        <v>169</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="35">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B89" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
+        <f>(5*G97)</f>
+        <v>5</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>107</v>
+        <v>367</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="E89" s="21" t="s">
-        <v>366</v>
+        <v>239</v>
+      </c>
+      <c r="E89" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="F89" s="21" t="s">
-        <v>367</v>
+        <v>293</v>
       </c>
       <c r="G89" s="19">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H89" s="19">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>(B89*G89)</f>
+        <v>0.25</v>
       </c>
       <c r="I89" s="17" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="J89" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K89" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>292</v>
+        <v>169</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="35">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B90" s="15">
-        <f>(5*G98)</f>
-        <v>5</v>
+        <f>(1*G97)</f>
+        <v>1</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>372</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>240</v>
+        <v>279</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>252</v>
       </c>
       <c r="E90" s="20" t="s">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="F90" s="21" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="G90" s="19">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H90" s="19">
-        <f>(B90*G90)</f>
-        <v>0.25</v>
+        <f t="shared" ref="H90:H93" si="4">(B90*G90)</f>
+        <v>0.1</v>
       </c>
       <c r="I90" s="17" t="s">
         <v>74</v>
       </c>
       <c r="J90" s="20" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="K90" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>295</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="L90" s="2"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="35">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B91" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G97)</f>
         <v>1</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="E91" s="20" t="s">
-        <v>251</v>
+        <v>252</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>258</v>
       </c>
       <c r="F91" s="21" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="G91" s="19">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H91" s="19">
-        <f t="shared" ref="H91:H94" si="4">(B91*G91)</f>
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>0.11</v>
       </c>
       <c r="I91" s="17" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J91" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K91" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L91" s="2"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="35">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B92" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="D92" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="E92" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="F92" s="21" t="s">
-        <v>260</v>
+        <f>(6*G97)</f>
+        <v>6</v>
+      </c>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E92" s="15">
+        <v>500588000</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>364</v>
       </c>
       <c r="G92" s="19">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H92" s="19">
         <f t="shared" si="4"/>
-        <v>0.11</v>
-      </c>
-      <c r="I92" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="J92" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="K92" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L92" s="2"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="I92" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="J92" s="20"/>
+      <c r="K92" s="17"/>
+      <c r="R92" s="2" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="35">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B93" s="15">
-        <f>(6*G98)</f>
-        <v>6</v>
-      </c>
-      <c r="C93" s="17"/>
+        <f>(1*G97)</f>
+        <v>1</v>
+      </c>
+      <c r="C93" s="15"/>
       <c r="D93" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E93" s="15">
-        <v>500588000</v>
+        <v>90</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>365</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G93" s="19">
-        <v>0.1</v>
+        <v>0.36</v>
       </c>
       <c r="H93" s="19">
         <f t="shared" si="4"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="I93" s="27" t="s">
+        <v>0.36</v>
+      </c>
+      <c r="I93" s="27"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I96" s="12"/>
+    </row>
+    <row r="97" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F97" s="44" t="s">
         <v>368</v>
       </c>
-      <c r="J93" s="20"/>
-      <c r="K93" s="17"/>
-      <c r="R93" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A94" s="35">
-        <v>24</v>
-      </c>
-      <c r="B94" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
-      </c>
-      <c r="C94" s="15"/>
-      <c r="D94" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E94" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="F94" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="G94" s="19">
-        <v>0.36</v>
-      </c>
-      <c r="H94" s="19">
-        <f t="shared" si="4"/>
-        <v>0.36</v>
-      </c>
-      <c r="I94" s="27"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="15"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="97" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="I97" s="12"/>
+      <c r="G97" s="1">
+        <v>1</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I97" s="5"/>
     </row>
     <row r="98" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F98" s="44" t="s">
-        <v>373</v>
-      </c>
-      <c r="G98" s="1">
-        <v>1</v>
-      </c>
-      <c r="H98" s="10" t="s">
+      <c r="H98" s="9">
+        <f>SUM(H12:H70)</f>
+        <v>75.257999999999996</v>
+      </c>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H99" s="1"/>
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H100" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="I98" s="5"/>
-    </row>
-    <row r="99" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="H99" s="9">
-        <f>SUM(H12:H69)</f>
-        <v>71.699999999999989</v>
-      </c>
-      <c r="I99" s="5"/>
-    </row>
-    <row r="100" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="H100" s="1"/>
-      <c r="I100" s="6"/>
+      <c r="I100" s="3"/>
     </row>
     <row r="101" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="H101" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I101" s="3"/>
-    </row>
-    <row r="102" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="H102" s="9">
-        <f>SUM(H73:H94)</f>
+      <c r="H101" s="9">
+        <f>SUM(H72:H93)</f>
         <v>16.149999999999999</v>
       </c>
     </row>
+    <row r="103" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H103" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="104" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="H104" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="H105" s="9">
-        <f>SUM(H99+H102)</f>
-        <v>87.85</v>
-      </c>
-    </row>
-    <row r="111" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="H111" s="11"/>
+      <c r="H104" s="9">
+        <f>SUM(H98+H101)</f>
+        <v>91.407999999999987</v>
+      </c>
+    </row>
+    <row r="110" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H110" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SPEX HAB2 BOM.xlsx
+++ b/SPEX HAB2 BOM.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Turnkey" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Turnkey!$A$1:$K$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Turnkey!$A$1:$K$55</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="387">
   <si>
     <t>Description</t>
   </si>
@@ -1205,6 +1205,18 @@
   </si>
   <si>
     <t>SOT-23-6</t>
+  </si>
+  <si>
+    <t>R21,R22</t>
+  </si>
+  <si>
+    <t>51k ohm resistor</t>
+  </si>
+  <si>
+    <t>RK73B1JTTDD513J</t>
+  </si>
+  <si>
+    <t>660-RK73B1JTTDD513J</t>
   </si>
 </sst>
 </file>
@@ -1868,10 +1880,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R110"/>
+  <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2019,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C12" s="17" t="s">
@@ -2057,7 +2069,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="15">
-        <f>(3*G97)</f>
+        <f>(3*G98)</f>
         <v>3</v>
       </c>
       <c r="C13" s="17" t="s">
@@ -2094,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -2131,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C15" s="25" t="s">
@@ -2168,7 +2180,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -2205,7 +2217,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C17" s="25" t="s">
@@ -2242,7 +2254,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C18" s="25" t="s">
@@ -2279,7 +2291,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C19" s="30" t="s">
@@ -2317,7 +2329,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C20" s="17" t="s">
@@ -2355,7 +2367,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -2391,7 +2403,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C22" s="25" t="s">
@@ -2428,7 +2440,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="15">
-        <f>(2*G97)</f>
+        <f>(2*G98)</f>
         <v>2</v>
       </c>
       <c r="C23" s="25" t="s">
@@ -2465,7 +2477,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C24" s="30" t="s">
@@ -2500,7 +2512,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="15">
-        <f>(2*G97)</f>
+        <f>(2*G98)</f>
         <v>2</v>
       </c>
       <c r="C25" s="25" t="s">
@@ -2537,7 +2549,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="15">
-        <f>(3*G97)</f>
+        <f>(3*G98)</f>
         <v>3</v>
       </c>
       <c r="C26" s="25" t="s">
@@ -2574,7 +2586,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C27" s="25" t="s">
@@ -2609,7 +2621,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="15">
-        <f>(3*G97)</f>
+        <f>(3*G98)</f>
         <v>3</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -2628,7 +2640,7 @@
         <v>0.52</v>
       </c>
       <c r="H28" s="19">
-        <f t="shared" ref="H28:H50" si="2">(B28*G28)</f>
+        <f t="shared" ref="H28:H51" si="2">(B28*G28)</f>
         <v>1.56</v>
       </c>
       <c r="I28" s="17" t="s">
@@ -2644,7 +2656,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C29" s="25" t="s">
@@ -2679,7 +2691,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C30" s="25" t="s">
@@ -2719,7 +2731,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C31" s="25" t="s">
@@ -2759,7 +2771,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C32" s="25" t="s">
@@ -2796,7 +2808,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C33" s="30" t="s">
@@ -2836,7 +2848,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="15">
-        <f>(2*G97)</f>
+        <f>(2*G98)</f>
         <v>2</v>
       </c>
       <c r="C34" s="17" t="s">
@@ -2876,7 +2888,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="15">
-        <f>(2*G97)</f>
+        <f>(2*G98)</f>
         <v>2</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -2912,7 +2924,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C36" s="17" t="s">
@@ -2948,7 +2960,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C37" s="17" t="s">
@@ -2986,7 +2998,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C38" s="17" t="s">
@@ -3026,7 +3038,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C39" s="17" t="s">
@@ -3064,7 +3076,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C40" s="17" t="s">
@@ -3104,7 +3116,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="15">
-        <f>(2*G97)</f>
+        <f>(2*G98)</f>
         <v>2</v>
       </c>
       <c r="C41" s="27" t="s">
@@ -3145,7 +3157,7 @@
         <v>36</v>
       </c>
       <c r="B42" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C42" s="27" t="s">
@@ -3183,7 +3195,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C43" s="17" t="s">
@@ -3209,7 +3221,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="15">
-        <f>(4*G97)</f>
+        <f>(4*G98)</f>
         <v>4</v>
       </c>
       <c r="C44" s="27" t="s">
@@ -3249,7 +3261,7 @@
         <v>39</v>
       </c>
       <c r="B45" s="15">
-        <f>(7*G97)</f>
+        <f>(7*G98)</f>
         <v>7</v>
       </c>
       <c r="C45" s="27" t="s">
@@ -3289,7 +3301,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="15">
-        <f>(4*G97)</f>
+        <f>(4*G98)</f>
         <v>4</v>
       </c>
       <c r="C46" s="17" t="s">
@@ -3334,7 +3346,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="15">
-        <f>(18*G97)</f>
+        <f>(18*G98)</f>
         <v>18</v>
       </c>
       <c r="C47" s="17" t="s">
@@ -3372,34 +3384,32 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="34">
-        <v>42</v>
-      </c>
+      <c r="A48" s="33"/>
       <c r="B48" s="15">
-        <f>(2*G97)</f>
+        <f>(2*G98)</f>
         <v>2</v>
       </c>
-      <c r="C48" s="27" t="s">
-        <v>50</v>
+      <c r="C48" s="17" t="s">
+        <v>383</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>204</v>
+        <v>385</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>386</v>
       </c>
       <c r="G48" s="19">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="H48" s="19">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I48" s="17" t="s">
-        <v>51</v>
+        <v>384</v>
       </c>
       <c r="J48" s="20" t="s">
         <v>167</v>
@@ -3407,38 +3417,42 @@
       <c r="K48" s="17" t="s">
         <v>169</v>
       </c>
+      <c r="L48" t="s">
+        <v>216</v>
+      </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
+      <c r="R48" s="2"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="33">
-        <v>43</v>
+      <c r="A49" s="34">
+        <v>42</v>
       </c>
       <c r="B49" s="15">
-        <f>(3*G97)</f>
-        <v>3</v>
+        <f>(2*G98)</f>
+        <v>2</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G49" s="19">
         <v>0.1</v>
       </c>
       <c r="H49" s="19">
         <f t="shared" si="2"/>
-        <v>0.30000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="J49" s="20" t="s">
         <v>167</v>
@@ -3446,41 +3460,38 @@
       <c r="K49" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="L49" t="s">
-        <v>211</v>
-      </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="33">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B50" s="15">
-        <f>(1*G97)</f>
-        <v>1</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>54</v>
+        <f>(3*G98)</f>
+        <v>3</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>53</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G50" s="19">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="H50" s="19">
         <f t="shared" si="2"/>
-        <v>0.08</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I50" s="17" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="J50" s="20" t="s">
         <v>167</v>
@@ -3489,40 +3500,40 @@
         <v>169</v>
       </c>
       <c r="L50" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="34">
-        <v>45</v>
+      <c r="A51" s="33">
+        <v>44</v>
       </c>
       <c r="B51" s="15">
-        <f>(5*G97)</f>
-        <v>5</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G51" s="19">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="H51" s="19">
-        <f t="shared" ref="H51:H88" si="3">(B51*G51)</f>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>0.08</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J51" s="20" t="s">
         <v>167</v>
@@ -3530,202 +3541,204 @@
       <c r="K51" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="L51" s="3" t="s">
+      <c r="L51" t="s">
+        <v>216</v>
+      </c>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="34">
+        <v>45</v>
+      </c>
+      <c r="B52" s="15">
+        <f>(5*G98)</f>
+        <v>5</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="G52" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H52" s="19">
+        <f t="shared" ref="H52:H89" si="3">(B52*G52)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I52" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J52" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K52" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L52" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="R51" s="2" t="s">
+      <c r="R52" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="33">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="33">
         <v>46</v>
       </c>
-      <c r="B52" s="15">
-        <f>(1*G97)</f>
-        <v>1</v>
-      </c>
-      <c r="C52" s="17" t="s">
+      <c r="B53" s="15">
+        <f>(1*G98)</f>
+        <v>1</v>
+      </c>
+      <c r="C53" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D53" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="E53" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F53" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="G52" s="19">
+      <c r="G53" s="19">
         <v>0.08</v>
       </c>
-      <c r="H52" s="19">
+      <c r="H53" s="19">
         <f t="shared" si="3"/>
         <v>0.08</v>
       </c>
-      <c r="I52" s="17" t="s">
+      <c r="I53" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="J52" s="20" t="s">
+      <c r="J53" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="K52" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L52" s="3" t="s">
+      <c r="K53" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L53" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" s="33">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="33">
         <v>47</v>
       </c>
-      <c r="B53" s="15">
-        <f>(2*G97)</f>
+      <c r="B54" s="15">
+        <f>(2*G98)</f>
         <v>2</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C54" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D54" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E54" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F54" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G54" s="19">
         <v>0.1</v>
       </c>
-      <c r="H53" s="19">
+      <c r="H54" s="19">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="I53" s="17" t="s">
+      <c r="I54" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="J53" s="20" t="s">
+      <c r="J54" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="K53" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L53" s="31" t="s">
+      <c r="K54" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L54" s="31" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="34">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="34">
         <v>48</v>
       </c>
-      <c r="B54" s="15">
-        <f>(1*G97)</f>
-        <v>1</v>
-      </c>
-      <c r="C54" s="17" t="s">
+      <c r="B55" s="15">
+        <f>(1*G98)</f>
+        <v>1</v>
+      </c>
+      <c r="C55" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D55" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E55" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F55" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="G54" s="19">
+      <c r="G55" s="19">
         <v>0.1</v>
       </c>
-      <c r="H54" s="19">
+      <c r="H55" s="19">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="I54" s="17" t="s">
+      <c r="I55" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="J54" s="20" t="s">
+      <c r="J55" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="K54" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L54" s="3" t="s">
+      <c r="K55" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L55" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="33">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="33">
         <v>49</v>
       </c>
-      <c r="B55" s="15">
-        <f>(2*G97)</f>
+      <c r="B56" s="15">
+        <f>(2*G98)</f>
         <v>2</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C56" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D56" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E56" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="F55" s="15" t="s">
+      <c r="F56" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G56" s="19">
         <v>0.1</v>
       </c>
-      <c r="H55" s="19">
+      <c r="H56" s="19">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="I55" s="17" t="s">
+      <c r="I56" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="J55" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="K55" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="33">
-        <v>50</v>
-      </c>
-      <c r="B56" s="15">
-        <f>(1*G97)</f>
-        <v>1</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="E56" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="F56" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="G56" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="H56" s="19">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="I56" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="J56" s="20" t="s">
         <v>167</v>
@@ -3733,29 +3746,29 @@
       <c r="K56" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="L56" t="s">
-        <v>232</v>
+      <c r="L56" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="34">
-        <v>51</v>
+      <c r="A57" s="33">
+        <v>50</v>
       </c>
       <c r="B57" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>234</v>
+        <v>65</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>230</v>
       </c>
       <c r="G57" s="19">
         <v>0.1</v>
@@ -3765,7 +3778,7 @@
         <v>0.1</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J57" s="20" t="s">
         <v>167</v>
@@ -3773,39 +3786,39 @@
       <c r="K57" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>201</v>
+      <c r="L57" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A58" s="33">
-        <v>52</v>
+      <c r="A58" s="34">
+        <v>51</v>
       </c>
       <c r="B58" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G58" s="19">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H58" s="19">
         <f t="shared" si="3"/>
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J58" s="20" t="s">
         <v>167</v>
@@ -3814,38 +3827,38 @@
         <v>169</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="33">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B59" s="15">
-        <f>(8*G97)</f>
-        <v>8</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="F59" s="21" t="s">
-        <v>243</v>
+        <v>69</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>237</v>
       </c>
       <c r="G59" s="19">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H59" s="19">
         <f t="shared" si="3"/>
-        <v>0.64</v>
+        <v>0.09</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J59" s="20" t="s">
         <v>167</v>
@@ -3853,37 +3866,39 @@
       <c r="K59" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="L59" s="3"/>
+      <c r="L59" s="3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A60" s="34">
-        <v>54</v>
+      <c r="A60" s="33">
+        <v>53</v>
       </c>
       <c r="B60" s="15">
-        <f>(1*G97)</f>
-        <v>1</v>
+        <f>(8*G98)</f>
+        <v>8</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>250</v>
+        <v>239</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>242</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G60" s="19">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="H60" s="19">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.64</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J60" s="20" t="s">
         <v>167</v>
@@ -3891,39 +3906,37 @@
       <c r="K60" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>253</v>
-      </c>
+      <c r="L60" s="3"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A61" s="33">
-        <v>55</v>
+      <c r="A61" s="34">
+        <v>54</v>
       </c>
       <c r="B61" s="15">
-        <f>(8*G97)</f>
-        <v>8</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>248</v>
+        <v>72</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>241</v>
+        <v>252</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>250</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="G61" s="19">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="H61" s="19">
         <f t="shared" si="3"/>
-        <v>0.32</v>
+        <v>0.1</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c r="J61" s="20" t="s">
         <v>167</v>
@@ -3931,117 +3944,117 @@
       <c r="K61" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="L61" s="3"/>
+      <c r="L61" s="3" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="33">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="15">
-        <f>(1*G97)</f>
-        <v>1</v>
-      </c>
-      <c r="C62" s="32" t="s">
-        <v>244</v>
+        <f>(8*G98)</f>
+        <v>8</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="D62" s="20" t="s">
         <v>239</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G62" s="19">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="H62" s="19">
         <f t="shared" si="3"/>
-        <v>0.02</v>
+        <v>0.32</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="J62" s="20" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="K62" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>247</v>
-      </c>
+      <c r="L62" s="3"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A63" s="34">
-        <v>57</v>
+      <c r="A63" s="33">
+        <v>56</v>
       </c>
       <c r="B63" s="15">
-        <f>(1*G97)</f>
-        <v>1</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>76</v>
+        <f>(1*G98)</f>
+        <v>1</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>244</v>
       </c>
       <c r="D63" s="20" t="s">
         <v>239</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G63" s="19">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="H63" s="19">
         <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="I63" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J63" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="K63" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" s="34">
+        <v>57</v>
+      </c>
+      <c r="B64" s="15">
+        <f>(1*G98)</f>
+        <v>1</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="G64" s="19">
         <v>0.04</v>
-      </c>
-      <c r="I63" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="J63" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="K63" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A64" s="33">
-        <v>58</v>
-      </c>
-      <c r="B64" s="15">
-        <f>(1*G97)</f>
-        <v>1</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="E64" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="F64" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="G64" s="19">
-        <v>0.11</v>
       </c>
       <c r="H64" s="19">
         <f t="shared" si="3"/>
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I64" s="17" t="s">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="J64" s="20" t="s">
         <v>167</v>
@@ -4049,37 +4062,39 @@
       <c r="K64" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="L64" s="3"/>
+      <c r="L64" s="3" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="33">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B65" s="15">
-        <f>(2*G97)</f>
-        <v>2</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>369</v>
+        <v>258</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>370</v>
+        <v>259</v>
       </c>
       <c r="G65" s="19">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="H65" s="19">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0.11</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J65" s="20" t="s">
         <v>167</v>
@@ -4087,67 +4102,67 @@
       <c r="K65" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="L65" s="3" t="s">
-        <v>260</v>
-      </c>
+      <c r="L65" s="3"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A66" s="34">
-        <v>60</v>
+      <c r="A66" s="33">
+        <v>59</v>
       </c>
       <c r="B66" s="15">
-        <f>(2*G97)</f>
+        <f>(2*G98)</f>
         <v>2</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>262</v>
+        <v>369</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>263</v>
+        <v>370</v>
       </c>
       <c r="G66" s="19">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H66" s="19">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J66" s="20" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="K66" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="L66" s="3"/>
+      <c r="L66" s="3" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A67" s="33">
-        <v>61</v>
+      <c r="A67" s="34">
+        <v>60</v>
       </c>
       <c r="B67" s="15">
-        <f>(2*G97)</f>
+        <f>(2*G98)</f>
         <v>2</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G67" s="19">
         <v>0.5</v>
@@ -4157,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J67" s="20" t="s">
         <v>194</v>
@@ -4165,39 +4180,37 @@
       <c r="K67" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="L67" s="3" t="s">
-        <v>260</v>
-      </c>
+      <c r="L67" s="3"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="33">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B68" s="15">
-        <f>(3*G97)</f>
-        <v>3</v>
+        <f>(2*G98)</f>
+        <v>2</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G68" s="19">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H68" s="19">
         <f t="shared" si="3"/>
-        <v>0.30000000000000004</v>
+        <v>1</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J68" s="20" t="s">
         <v>194</v>
@@ -4206,240 +4219,242 @@
         <v>169</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A69" s="34">
-        <v>63</v>
+      <c r="A69" s="33">
+        <v>62</v>
       </c>
       <c r="B69" s="15">
-        <f>(7*G97)</f>
-        <v>7</v>
-      </c>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="F69" s="15" t="s">
-        <v>183</v>
+        <f>(3*G98)</f>
+        <v>3</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>267</v>
       </c>
       <c r="G69" s="19">
-        <v>0.31</v>
+        <v>0.1</v>
       </c>
       <c r="H69" s="19">
         <f t="shared" si="3"/>
-        <v>2.17</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="J69" s="20"/>
-      <c r="K69" s="17"/>
+        <v>84</v>
+      </c>
+      <c r="J69" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="K69" s="17" t="s">
+        <v>169</v>
+      </c>
       <c r="L69" s="3" t="s">
-        <v>185</v>
+        <v>269</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A70" s="33">
-        <v>64</v>
+      <c r="A70" s="34">
+        <v>63</v>
       </c>
       <c r="B70" s="15">
-        <f>(14*G97)</f>
-        <v>14</v>
+        <f>(7*G98)</f>
+        <v>7</v>
       </c>
       <c r="C70" s="17"/>
       <c r="D70" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E70" s="15">
-        <v>1722533123</v>
+      <c r="E70" s="15" t="s">
+        <v>184</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G70" s="19">
-        <v>0.152</v>
+        <v>0.31</v>
       </c>
       <c r="H70" s="19">
         <f t="shared" si="3"/>
-        <v>2.1280000000000001</v>
+        <v>2.17</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J70" s="20"/>
       <c r="K70" s="17"/>
       <c r="L70" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A71" s="33">
+        <v>64</v>
+      </c>
+      <c r="B71" s="15">
+        <f>(14*G98)</f>
+        <v>14</v>
+      </c>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" s="15">
+        <v>1722533123</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G71" s="19">
+        <v>0.152</v>
+      </c>
+      <c r="H71" s="19">
+        <f t="shared" si="3"/>
+        <v>2.1280000000000001</v>
+      </c>
+      <c r="I71" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="J71" s="20"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="R70" s="2" t="s">
+      <c r="R71" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A71" s="37"/>
-      <c r="B71" s="37"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="40"/>
-      <c r="K71" s="37"/>
-      <c r="L71" s="3"/>
-    </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A72" s="35">
-        <v>1</v>
-      </c>
-      <c r="B72" s="15">
-        <f>(1*G97)</f>
-        <v>1</v>
-      </c>
-      <c r="C72" s="17" t="s">
+      <c r="A72" s="37"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A73" s="35">
+        <v>1</v>
+      </c>
+      <c r="B73" s="15">
+        <f>(1*G98)</f>
+        <v>1</v>
+      </c>
+      <c r="C73" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="D73" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E72" s="17" t="s">
+      <c r="E73" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F72" s="15" t="s">
+      <c r="F73" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="G72" s="19">
+      <c r="G73" s="19">
         <v>1.4</v>
       </c>
-      <c r="H72" s="19">
+      <c r="H73" s="19">
         <f t="shared" si="3"/>
         <v>1.4</v>
       </c>
-      <c r="I72" s="17" t="s">
+      <c r="I73" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="J72" s="20" t="s">
+      <c r="J73" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="K72" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="35">
+      <c r="K73" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="35">
         <v>2</v>
       </c>
-      <c r="B73" s="15">
-        <f>(1*G97)</f>
-        <v>1</v>
-      </c>
-      <c r="C73" s="17" t="s">
+      <c r="B74" s="15">
+        <f>(1*G98)</f>
+        <v>1</v>
+      </c>
+      <c r="C74" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="D74" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="E74" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="F73" s="15" t="s">
+      <c r="F74" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="G73" s="19">
+      <c r="G74" s="19">
         <v>0.64</v>
       </c>
-      <c r="H73" s="19">
+      <c r="H74" s="19">
         <f t="shared" si="3"/>
         <v>0.64</v>
       </c>
-      <c r="I73" s="17" t="s">
+      <c r="I74" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="J73" s="20" t="s">
+      <c r="J74" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="K73" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A74" s="35">
+      <c r="K74" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A75" s="35">
         <v>3</v>
       </c>
-      <c r="B74" s="15">
-        <f>(1*G97)</f>
-        <v>1</v>
-      </c>
-      <c r="C74" s="17" t="s">
+      <c r="B75" s="15">
+        <f>(1*G98)</f>
+        <v>1</v>
+      </c>
+      <c r="C75" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="D75" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E74" s="17" t="s">
+      <c r="E75" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="F74" s="15" t="s">
+      <c r="F75" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="G74" s="19">
+      <c r="G75" s="19">
         <v>1.24</v>
       </c>
-      <c r="H74" s="19">
+      <c r="H75" s="19">
         <f t="shared" si="3"/>
         <v>1.24</v>
       </c>
-      <c r="I74" s="17" t="s">
+      <c r="I75" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="J74" s="20" t="s">
+      <c r="J75" s="20" t="s">
         <v>352</v>
-      </c>
-      <c r="K74" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A75" s="35">
-        <v>4</v>
-      </c>
-      <c r="B75" s="15">
-        <f>(1*G97)</f>
-        <v>1</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D75" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="E75" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F75" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="G75" s="19">
-        <v>5.66</v>
-      </c>
-      <c r="H75" s="19">
-        <f>(B75*G75)</f>
-        <v>5.66</v>
-      </c>
-      <c r="I75" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="J75" s="20" t="s">
-        <v>345</v>
       </c>
       <c r="K75" s="17" t="s">
         <v>169</v>
@@ -4448,262 +4463,262 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="35">
+        <v>4</v>
+      </c>
+      <c r="B76" s="15">
+        <f>(1*G98)</f>
+        <v>1</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G76" s="19">
+        <v>5.66</v>
+      </c>
+      <c r="H76" s="19">
+        <f>(B76*G76)</f>
+        <v>5.66</v>
+      </c>
+      <c r="I76" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="J76" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="K76" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A77" s="35">
         <v>5</v>
       </c>
-      <c r="B76" s="15">
-        <f>(1*G97)</f>
-        <v>1</v>
-      </c>
-      <c r="C76" s="17" t="s">
+      <c r="B77" s="15">
+        <f>(1*G98)</f>
+        <v>1</v>
+      </c>
+      <c r="C77" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="17" t="s">
+      <c r="D77" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="E76" s="17" t="s">
+      <c r="E77" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="F76" s="15" t="s">
+      <c r="F77" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="G76" s="19">
+      <c r="G77" s="19">
         <v>2.84</v>
       </c>
-      <c r="H76" s="19">
+      <c r="H77" s="19">
         <f t="shared" si="3"/>
         <v>2.84</v>
       </c>
-      <c r="I76" s="17" t="s">
+      <c r="I77" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="J76" s="20" t="s">
+      <c r="J77" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="K76" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L76" s="3"/>
-      <c r="R76" s="2" t="s">
+      <c r="K77" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L77" s="3"/>
+      <c r="R77" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A77" s="35">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A78" s="35">
         <v>6</v>
       </c>
-      <c r="B77" s="15">
-        <f>(1*G97)</f>
-        <v>1</v>
-      </c>
-      <c r="C77" s="17" t="s">
+      <c r="B78" s="15">
+        <f>(1*G98)</f>
+        <v>1</v>
+      </c>
+      <c r="C78" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D77" s="17" t="s">
+      <c r="D78" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="E77" s="17" t="s">
+      <c r="E78" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F77" s="15" t="s">
+      <c r="F78" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="G77" s="19">
+      <c r="G78" s="19">
         <v>0.86</v>
       </c>
-      <c r="H77" s="19">
+      <c r="H78" s="19">
         <f t="shared" si="3"/>
         <v>0.86</v>
       </c>
-      <c r="I77" s="17" t="s">
+      <c r="I78" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="J77" s="20" t="s">
+      <c r="J78" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="K77" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A78" s="35">
+      <c r="K78" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L78" s="3"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A79" s="35">
         <v>7</v>
       </c>
-      <c r="B78" s="15">
-        <f>(1*G97)</f>
-        <v>1</v>
-      </c>
-      <c r="C78" s="17" t="s">
+      <c r="B79" s="15">
+        <f>(1*G98)</f>
+        <v>1</v>
+      </c>
+      <c r="C79" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D78" s="17" t="s">
+      <c r="D79" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="E78" s="15" t="s">
+      <c r="E79" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="F78" s="15" t="s">
+      <c r="F79" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="G78" s="19">
+      <c r="G79" s="19">
         <v>0.15</v>
       </c>
-      <c r="H78" s="19">
+      <c r="H79" s="19">
         <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
-      <c r="I78" s="17" t="s">
+      <c r="I79" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="J78" s="20" t="s">
+      <c r="J79" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="K78" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L78" s="3"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A79" s="35">
+      <c r="K79" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L79" s="3"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A80" s="35">
         <v>8</v>
       </c>
-      <c r="B79" s="15">
-        <f>(1*G97)</f>
-        <v>1</v>
-      </c>
-      <c r="C79" s="17" t="s">
+      <c r="B80" s="15">
+        <f>(1*G98)</f>
+        <v>1</v>
+      </c>
+      <c r="C80" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D79" s="17" t="s">
+      <c r="D80" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E79" s="17" t="s">
+      <c r="E80" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F79" s="15" t="s">
+      <c r="F80" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="G79" s="19">
+      <c r="G80" s="19">
         <v>0.67</v>
       </c>
-      <c r="H79" s="19">
+      <c r="H80" s="19">
         <f t="shared" si="3"/>
         <v>0.67</v>
       </c>
-      <c r="I79" s="17" t="s">
+      <c r="I80" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="J79" s="20" t="s">
+      <c r="J80" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="K79" s="17" t="s">
+      <c r="K80" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="L79" s="3"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A80" s="35">
-        <v>9</v>
-      </c>
-      <c r="B80" s="15">
-        <f>(1*G97)</f>
-        <v>1</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D80" s="17"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I80" s="17"/>
-      <c r="J80" s="20"/>
-      <c r="K80" s="15"/>
       <c r="L80" s="3"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B81" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D81" s="17"/>
+      <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="19"/>
       <c r="H81" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="I81" s="17"/>
       <c r="J81" s="20"/>
       <c r="K81" s="15"/>
       <c r="L81" s="3"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B82" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="F82" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="G82" s="19">
-        <v>0.1</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D82" s="17"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="19"/>
       <c r="H82" s="19">
         <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="I82" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="J82" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="K82" s="17" t="s">
-        <v>169</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" s="20"/>
+      <c r="K82" s="15"/>
       <c r="L82" s="3"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="35">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B83" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="G83" s="19">
         <v>0.1</v>
@@ -4713,7 +4728,7 @@
         <v>0.1</v>
       </c>
       <c r="I83" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J83" s="20" t="s">
         <v>195</v>
@@ -4725,33 +4740,33 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="35">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B84" s="15">
-        <f>(3*G97)</f>
-        <v>3</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>347</v>
+        <v>100</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G84" s="19">
         <v>0.1</v>
       </c>
       <c r="H84" s="19">
         <f t="shared" si="3"/>
-        <v>0.30000000000000004</v>
+        <v>0.1</v>
       </c>
       <c r="I84" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J84" s="20" t="s">
         <v>195</v>
@@ -4759,39 +4774,37 @@
       <c r="K84" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="L84" s="3" t="s">
-        <v>216</v>
-      </c>
+      <c r="L84" s="3"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B85" s="15">
-        <f>(2*G97)</f>
-        <v>2</v>
+        <f>(3*G98)</f>
+        <v>3</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>103</v>
+        <v>347</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G85" s="19">
         <v>0.1</v>
       </c>
       <c r="H85" s="19">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I85" s="17" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="J85" s="20" t="s">
         <v>195</v>
@@ -4800,38 +4813,38 @@
         <v>169</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B86" s="15">
-        <f>(1*G97)</f>
-        <v>1</v>
+        <f>(2*G98)</f>
+        <v>2</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G86" s="19">
         <v>0.1</v>
       </c>
       <c r="H86" s="19">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I86" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J86" s="20" t="s">
         <v>195</v>
@@ -4840,116 +4853,116 @@
         <v>169</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>291</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="35">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B87" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="E87" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="F87" s="21" t="s">
-        <v>358</v>
+        <v>214</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>290</v>
       </c>
       <c r="G87" s="19">
-        <v>0.37</v>
+        <v>0.1</v>
       </c>
       <c r="H87" s="19">
         <f t="shared" si="3"/>
-        <v>0.37</v>
+        <v>0.1</v>
       </c>
       <c r="I87" s="17" t="s">
-        <v>348</v>
+        <v>58</v>
       </c>
       <c r="J87" s="20" t="s">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="K87" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="L87" s="3"/>
+      <c r="L87" s="3" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="35">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B88" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>214</v>
+        <v>360</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F88" s="21" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G88" s="19">
-        <v>0.1</v>
+        <v>0.37</v>
       </c>
       <c r="H88" s="19">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.37</v>
       </c>
       <c r="I88" s="17" t="s">
-        <v>49</v>
+        <v>348</v>
       </c>
       <c r="J88" s="20" t="s">
-        <v>195</v>
+        <v>280</v>
       </c>
       <c r="K88" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="L88" s="3" t="s">
-        <v>291</v>
-      </c>
+      <c r="L88" s="3"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="35">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B89" s="15">
-        <f>(5*G97)</f>
-        <v>5</v>
+        <f>(1*G98)</f>
+        <v>1</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>367</v>
+        <v>106</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="E89" s="20" t="s">
-        <v>292</v>
+        <v>214</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>361</v>
       </c>
       <c r="F89" s="21" t="s">
-        <v>293</v>
+        <v>362</v>
       </c>
       <c r="G89" s="19">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H89" s="19">
-        <f>(B89*G89)</f>
-        <v>0.25</v>
+        <f t="shared" si="3"/>
+        <v>0.1</v>
       </c>
       <c r="I89" s="17" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="J89" s="20" t="s">
         <v>195</v>
@@ -4957,203 +4970,243 @@
       <c r="K89" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="L89" s="2" t="s">
-        <v>294</v>
+      <c r="L89" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="35">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B90" s="15">
-        <f>(1*G97)</f>
-        <v>1</v>
+        <f>(5*G98)</f>
+        <v>5</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>252</v>
+        <v>367</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>239</v>
       </c>
       <c r="E90" s="20" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="F90" s="21" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="G90" s="19">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H90" s="19">
-        <f t="shared" ref="H90:H93" si="4">(B90*G90)</f>
-        <v>0.1</v>
+        <f>(B90*G90)</f>
+        <v>0.25</v>
       </c>
       <c r="I90" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J90" s="20" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="K90" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="L90" s="2"/>
+      <c r="L90" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="35">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B91" s="15">
-        <f>(1*G97)</f>
+        <f>(1*G98)</f>
         <v>1</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D91" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="E91" s="21" t="s">
+      <c r="E91" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F91" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="G91" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H91" s="19">
+        <f t="shared" ref="H91:H94" si="4">(B91*G91)</f>
+        <v>0.1</v>
+      </c>
+      <c r="I91" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J91" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K91" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L91" s="2"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A92" s="35">
+        <v>22</v>
+      </c>
+      <c r="B92" s="15">
+        <f>(1*G98)</f>
+        <v>1</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="E92" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="F91" s="21" t="s">
+      <c r="F92" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="G91" s="19">
+      <c r="G92" s="19">
         <v>0.11</v>
       </c>
-      <c r="H91" s="19">
+      <c r="H92" s="19">
         <f t="shared" si="4"/>
         <v>0.11</v>
       </c>
-      <c r="I91" s="17" t="s">
+      <c r="I92" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="J91" s="20" t="s">
+      <c r="J92" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="K91" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L91" s="2"/>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A92" s="35">
+      <c r="K92" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L92" s="2"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A93" s="35">
         <v>23</v>
       </c>
-      <c r="B92" s="15">
-        <f>(6*G97)</f>
+      <c r="B93" s="15">
+        <f>(6*G98)</f>
         <v>6</v>
       </c>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17" t="s">
+      <c r="C93" s="17"/>
+      <c r="D93" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E92" s="15">
+      <c r="E93" s="15">
         <v>500588000</v>
       </c>
-      <c r="F92" s="15" t="s">
+      <c r="F93" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="G92" s="19">
+      <c r="G93" s="19">
         <v>0.1</v>
       </c>
-      <c r="H92" s="19">
+      <c r="H93" s="19">
         <f t="shared" si="4"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="I92" s="27" t="s">
+      <c r="I93" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="J92" s="20"/>
-      <c r="K92" s="17"/>
-      <c r="R92" s="2" t="s">
+      <c r="J93" s="20"/>
+      <c r="K93" s="17"/>
+      <c r="R93" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A93" s="35">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A94" s="35">
         <v>24</v>
       </c>
-      <c r="B93" s="15">
-        <f>(1*G97)</f>
-        <v>1</v>
-      </c>
-      <c r="C93" s="15"/>
-      <c r="D93" s="17" t="s">
+      <c r="B94" s="15">
+        <f>(1*G98)</f>
+        <v>1</v>
+      </c>
+      <c r="C94" s="15"/>
+      <c r="D94" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E93" s="15" t="s">
+      <c r="E94" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="F93" s="15" t="s">
+      <c r="F94" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="G93" s="19">
+      <c r="G94" s="19">
         <v>0.36</v>
       </c>
-      <c r="H93" s="19">
+      <c r="H94" s="19">
         <f t="shared" si="4"/>
         <v>0.36</v>
       </c>
-      <c r="I93" s="27"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="15"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I96" s="12"/>
+      <c r="I94" s="27"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A95" s="1"/>
     </row>
     <row r="97" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F97" s="44" t="s">
+      <c r="I97" s="12"/>
+    </row>
+    <row r="98" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F98" s="44" t="s">
         <v>368</v>
       </c>
-      <c r="G97" s="1">
-        <v>1</v>
-      </c>
-      <c r="H97" s="10" t="s">
+      <c r="G98" s="1">
+        <v>1</v>
+      </c>
+      <c r="H98" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="I97" s="5"/>
-    </row>
-    <row r="98" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="H98" s="9">
-        <f>SUM(H12:H70)</f>
-        <v>75.257999999999996</v>
-      </c>
       <c r="I98" s="5"/>
     </row>
     <row r="99" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="H99" s="1"/>
-      <c r="I99" s="6"/>
+      <c r="H99" s="9">
+        <f>SUM(H12:H71)</f>
+        <v>75.417999999999992</v>
+      </c>
+      <c r="I99" s="5"/>
     </row>
     <row r="100" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="H100" s="7" t="s">
+      <c r="H100" s="1"/>
+      <c r="I100" s="6"/>
+    </row>
+    <row r="101" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H101" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="I100" s="3"/>
-    </row>
-    <row r="101" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="H101" s="9">
-        <f>SUM(H72:H93)</f>
+      <c r="I101" s="3"/>
+    </row>
+    <row r="102" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H102" s="9">
+        <f>SUM(H73:H94)</f>
         <v>16.149999999999999</v>
       </c>
     </row>
-    <row r="103" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="H103" s="7" t="s">
+    <row r="104" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H104" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="H104" s="9">
-        <f>SUM(H98+H101)</f>
-        <v>91.407999999999987</v>
-      </c>
-    </row>
-    <row r="110" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="H110" s="11"/>
+    <row r="105" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H105" s="9">
+        <f>SUM(H99+H102)</f>
+        <v>91.567999999999984</v>
+      </c>
+    </row>
+    <row r="111" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H111" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SPEX HAB2 BOM.xlsx
+++ b/SPEX HAB2 BOM.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechStars\Documents\GitHub\SPEX_HAB_Mainboard_Hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew\Documents\GitHub\SPEX_HAB_Mainboard_Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10910"/>
   </bookViews>
   <sheets>
     <sheet name="Turnkey" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Turnkey!$A$1:$K$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Turnkey!$A$1:$K$52</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="375">
   <si>
     <t>Description</t>
   </si>
@@ -105,9 +105,6 @@
     <t>U13</t>
   </si>
   <si>
-    <t>U14</t>
-  </si>
-  <si>
     <t>Y1</t>
   </si>
   <si>
@@ -135,12 +132,6 @@
     <t>D2</t>
   </si>
   <si>
-    <t>D5,D6</t>
-  </si>
-  <si>
-    <t>FM5819-W</t>
-  </si>
-  <si>
     <t>D106,D108</t>
   </si>
   <si>
@@ -153,9 +144,6 @@
     <t>F101</t>
   </si>
   <si>
-    <t>K1,K2</t>
-  </si>
-  <si>
     <t>P1</t>
   </si>
   <si>
@@ -237,9 +225,6 @@
     <t>100k ohm resistor</t>
   </si>
   <si>
-    <t>C1,C2,C3,C4,C18,C19,C21,C2</t>
-  </si>
-  <si>
     <t>C5</t>
   </si>
   <si>
@@ -280,9 +265,6 @@
   </si>
   <si>
     <t>C105,C122</t>
-  </si>
-  <si>
-    <t>C119,C120,C123</t>
   </si>
   <si>
     <t>Texas Instruments</t>
@@ -478,18 +460,6 @@
     <t>RS485 Transceiver</t>
   </si>
   <si>
-    <t>AT45DB641E-SHN-B</t>
-  </si>
-  <si>
-    <t>988-AT45DB641E-SHN-B</t>
-  </si>
-  <si>
-    <t>64Mbit flash storage</t>
-  </si>
-  <si>
-    <t>Adesto Technologies</t>
-  </si>
-  <si>
     <t>TPS563200DDCR</t>
   </si>
   <si>
@@ -568,24 +538,9 @@
     <t>SMD</t>
   </si>
   <si>
-    <t>583-FM5819</t>
-  </si>
-  <si>
-    <t>relay diode</t>
-  </si>
-  <si>
-    <t>DO-214AC</t>
-  </si>
-  <si>
     <t>DIGIKEY</t>
   </si>
   <si>
-    <t>Z3697-ND</t>
-  </si>
-  <si>
-    <t>10A Relay</t>
-  </si>
-  <si>
     <t>Thru Hole</t>
   </si>
   <si>
@@ -631,15 +586,6 @@
     <t>WM11561CT-ND</t>
   </si>
   <si>
-    <t>Rectron</t>
-  </si>
-  <si>
-    <t>G5LE-1A4 DC3</t>
-  </si>
-  <si>
-    <t>Omron Electronics</t>
-  </si>
-  <si>
     <t>1206</t>
   </si>
   <si>
@@ -802,9 +748,6 @@
     <t>http://www.mouser.com/ds/2/445/885012105016-611018.pdf</t>
   </si>
   <si>
-    <t>C6,C9,C10,C11,C13,C15, C19,C121</t>
-  </si>
-  <si>
     <t>100nF capacitor (0.1uf)</t>
   </si>
   <si>
@@ -1183,15 +1126,9 @@
     <t>MKL02z32VFG4</t>
   </si>
   <si>
-    <t>SW1,SW2</t>
-  </si>
-  <si>
     <t>R33</t>
   </si>
   <si>
-    <t>R2,R12,R13,R18,R19,R20,R30,R31,R35,R36,R37,R38,R109,R126,R130,R140,R141,R145</t>
-  </si>
-  <si>
     <t>TSOP-6</t>
   </si>
   <si>
@@ -1201,9 +1138,6 @@
     <t>MSOP-8</t>
   </si>
   <si>
-    <t>SOIC-8</t>
-  </si>
-  <si>
     <t>SOT-23-6</t>
   </si>
   <si>
@@ -1217,12 +1151,42 @@
   </si>
   <si>
     <t>660-RK73B1JTTDD513J</t>
+  </si>
+  <si>
+    <t>R2,R12,R13,R20,R30,R31,R35,R36,R37,R38,R109,R126,R130,R140,R145</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>C1,C2,C3,C4,C18,C21,C2</t>
+  </si>
+  <si>
+    <t>C6,C9,C10,C11,C13,C15,C19,C121</t>
+  </si>
+  <si>
+    <t>C119, C123</t>
+  </si>
+  <si>
+    <t>C120</t>
+  </si>
+  <si>
+    <t>1uF capacitor (100V)</t>
+  </si>
+  <si>
+    <t>963-HMK316B7105KL-T</t>
+  </si>
+  <si>
+    <t>HMK316B7105KL-T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -1666,6 +1630,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1701,6 +1682,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1880,27 +1878,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R111"/>
+  <dimension ref="A1:R109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="85.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="4.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="85.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.1796875" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="45" t="s">
         <v>9</v>
       </c>
@@ -1913,7 +1911,7 @@
       <c r="H1" s="45"/>
       <c r="I1" s="45"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1921,9 +1919,9 @@
       <c r="G2" s="1"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1932,7 +1930,7 @@
       <c r="G3" s="1"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1940,7 +1938,7 @@
       <c r="G4" s="1"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1948,7 +1946,7 @@
       <c r="G5" s="1"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1956,7 +1954,7 @@
       <c r="G6" s="1"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1964,7 +1962,7 @@
       <c r="G7" s="1"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1972,7 +1970,7 @@
       <c r="G8" s="1"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
@@ -2010,10 +2008,10 @@
         <v>12</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -2026,22 +2024,22 @@
       <c r="J11" s="43"/>
       <c r="K11" s="43"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
         <v>1</v>
       </c>
       <c r="B12" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G96)</f>
         <v>1</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="19">
@@ -2052,37 +2050,37 @@
         <v>6.8</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
         <v>2</v>
       </c>
       <c r="B13" s="15">
-        <f>(3*G98)</f>
+        <f>(3*G96)</f>
         <v>3</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G13" s="19">
         <v>0.55000000000000004</v>
@@ -2092,34 +2090,34 @@
         <v>1.6500000000000001</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>3</v>
       </c>
       <c r="B14" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G96)</f>
         <v>1</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G14" s="19">
         <v>7.07</v>
@@ -2129,34 +2127,34 @@
         <v>7.07</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>4</v>
       </c>
       <c r="B15" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G96)</f>
         <v>1</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G15" s="19">
         <v>0.48</v>
@@ -2166,34 +2164,34 @@
         <v>0.48</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>5</v>
       </c>
       <c r="B16" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G96)</f>
         <v>1</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G16" s="19">
         <v>1.22</v>
@@ -2203,34 +2201,34 @@
         <v>1.22</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>6</v>
       </c>
       <c r="B17" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G96)</f>
         <v>1</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G17" s="19">
         <v>5.66</v>
@@ -2240,34 +2238,34 @@
         <v>5.66</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
         <v>7</v>
       </c>
       <c r="B18" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G96)</f>
         <v>1</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G18" s="26">
         <v>6.21</v>
@@ -2277,34 +2275,34 @@
         <v>6.21</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
         <v>8</v>
       </c>
       <c r="B19" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G96)</f>
         <v>1</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G19" s="28">
         <v>2.12</v>
@@ -2314,35 +2312,35 @@
         <v>2.12</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>10</v>
       </c>
       <c r="B20" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G96)</f>
         <v>1</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G20" s="19">
         <v>1.4</v>
@@ -2352,35 +2350,35 @@
         <v>1.4</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>11</v>
       </c>
       <c r="B21" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G96)</f>
         <v>1</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G21" s="19">
         <v>0.8</v>
@@ -2390,143 +2388,132 @@
         <v>0.8</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="J21" s="20"/>
       <c r="K21" s="17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
+        <f>(2*G96)</f>
+        <v>2</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>141</v>
+        <v>81</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="G22" s="19">
-        <v>4</v>
+        <v>1.45</v>
       </c>
       <c r="H22" s="19">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="15">
-        <f>(2*G98)</f>
-        <v>2</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="G23" s="19">
-        <v>1.45</v>
+        <f>(1*G96)</f>
+        <v>1</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="28">
+        <v>0.72</v>
       </c>
       <c r="H23" s="19">
         <f t="shared" si="1"/>
-        <v>2.9</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>382</v>
-      </c>
+        <v>0.72</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" s="20"/>
       <c r="K23" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="14">
-        <v>14</v>
-      </c>
-      <c r="B24" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
-      </c>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="G24" s="28">
-        <v>0.72</v>
+        <v>367</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="G24" s="19">
+        <v>0.42</v>
       </c>
       <c r="H24" s="19">
-        <f t="shared" si="1"/>
-        <v>0.72</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="J24" s="20"/>
+        <f t="shared" ref="H24" si="2">(B24*G24)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>291</v>
+      </c>
       <c r="K24" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>15</v>
       </c>
       <c r="B25" s="15">
-        <f>(2*G98)</f>
+        <f>(2*G96)</f>
         <v>2</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>375</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>308</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="29"/>
       <c r="G25" s="19">
         <v>0.42</v>
       </c>
@@ -2534,35 +2521,31 @@
         <f t="shared" si="1"/>
         <v>0.84</v>
       </c>
-      <c r="I25" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>310</v>
-      </c>
+      <c r="I25" s="17"/>
+      <c r="J25" s="20"/>
       <c r="K25" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>16</v>
       </c>
       <c r="B26" s="15">
-        <f>(3*G98)</f>
+        <f>(3*G96)</f>
         <v>3</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="G26" s="19">
         <v>0.26</v>
@@ -2572,34 +2555,34 @@
         <v>0.78</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>19</v>
       </c>
       <c r="B27" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G96)</f>
         <v>1</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G27" s="19">
         <v>0.46</v>
@@ -2609,2604 +2592,2533 @@
         <v>0.46</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="J27" s="20"/>
       <c r="K27" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>20</v>
       </c>
       <c r="B28" s="15">
-        <f>(3*G98)</f>
+        <f>(3*G96)</f>
         <v>3</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="G28" s="19">
         <v>0.52</v>
       </c>
       <c r="H28" s="19">
-        <f t="shared" ref="H28:H51" si="2">(B28*G28)</f>
+        <f t="shared" ref="H28:H48" si="3">(B28*G28)</f>
         <v>1.56</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="J28" s="20"/>
       <c r="K28" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>22</v>
       </c>
       <c r="B29" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G96)</f>
         <v>1</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G29" s="19">
         <v>0.52</v>
       </c>
       <c r="H29" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.52</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="J29" s="20"/>
       <c r="K29" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>23</v>
       </c>
       <c r="B30" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G96)</f>
         <v>1</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="G30" s="19">
         <v>0.1</v>
       </c>
       <c r="H30" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L30" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>24</v>
       </c>
       <c r="B31" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G96)</f>
         <v>1</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G31" s="19">
         <v>0.13</v>
       </c>
       <c r="H31" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L31" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>25</v>
       </c>
       <c r="B32" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G96)</f>
         <v>1</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="G32" s="19">
         <v>0.15</v>
       </c>
       <c r="H32" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>26</v>
       </c>
       <c r="B33" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G96)</f>
         <v>1</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="G33" s="19">
         <v>0.1</v>
       </c>
       <c r="H33" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L33" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="33">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B34" s="15">
-        <f>(2*G98)</f>
+        <f>(2*G96)</f>
         <v>2</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>37</v>
+      <c r="C34" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>170</v>
+        <v>303</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>309</v>
       </c>
       <c r="G34" s="19">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="H34" s="19">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>172</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.38</v>
+      </c>
+      <c r="I34" s="17"/>
+      <c r="J34" s="20"/>
       <c r="K34" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L34" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="L34" s="3"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="33">
-        <v>29</v>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="34">
+        <v>30</v>
       </c>
       <c r="B35" s="15">
-        <f>(2*G98)</f>
-        <v>2</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>39</v>
+        <f>(1*G96)</f>
+        <v>1</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>327</v>
+        <v>104</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>311</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="G35" s="19">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="H35" s="19">
-        <f t="shared" si="2"/>
-        <v>0.38</v>
-      </c>
-      <c r="I35" s="17"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="15"/>
       <c r="J35" s="20"/>
       <c r="K35" s="17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="34">
-        <v>30</v>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="33">
+        <v>31</v>
       </c>
       <c r="B36" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G96)</f>
         <v>1</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>40</v>
+        <v>304</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>110</v>
+        <v>314</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="G36" s="19">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="H36" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="15"/>
+        <f>(B36*G36)</f>
+        <v>0.38</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>306</v>
+      </c>
       <c r="J36" s="20"/>
       <c r="K36" s="17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B37" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G96)</f>
         <v>1</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="G37" s="19">
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
       <c r="H37" s="19">
-        <f>(B37*G37)</f>
-        <v>0.38</v>
+        <f t="shared" si="3"/>
+        <v>0.48</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="J37" s="20"/>
+        <v>307</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>318</v>
+      </c>
       <c r="K37" s="17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="33">
-        <v>32</v>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="34">
+        <v>33</v>
       </c>
       <c r="B38" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G96)</f>
         <v>1</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>324</v>
+        <v>38</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>336</v>
+        <v>319</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>320</v>
       </c>
       <c r="G38" s="19">
-        <v>0.48</v>
+        <v>0.34</v>
       </c>
       <c r="H38" s="19">
-        <f t="shared" si="2"/>
-        <v>0.48</v>
+        <f t="shared" si="3"/>
+        <v>0.34</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="J38" s="20" t="s">
-        <v>337</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="J38" s="20"/>
       <c r="K38" s="17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="34">
-        <v>33</v>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="33">
+        <v>34</v>
       </c>
       <c r="B39" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G96)</f>
         <v>1</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>322</v>
+        <v>213</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>339</v>
+        <v>295</v>
       </c>
       <c r="G39" s="19">
-        <v>0.34</v>
+        <v>0.46</v>
       </c>
       <c r="H39" s="19">
-        <f t="shared" si="2"/>
-        <v>0.34</v>
+        <f t="shared" si="3"/>
+        <v>0.46</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="J39" s="20"/>
+        <v>296</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>297</v>
+      </c>
       <c r="K39" s="17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="33">
-        <v>34</v>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="34">
+        <v>36</v>
       </c>
       <c r="B40" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>42</v>
+        <f>(1*G96)</f>
+        <v>1</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>40</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>231</v>
+        <v>325</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>314</v>
+        <v>322</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>323</v>
       </c>
       <c r="G40" s="19">
-        <v>0.46</v>
+        <v>0.97</v>
       </c>
       <c r="H40" s="19">
-        <f t="shared" si="2"/>
-        <v>0.46</v>
+        <f t="shared" si="3"/>
+        <v>0.97</v>
       </c>
       <c r="I40" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="J40" s="20" t="s">
-        <v>316</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="J40" s="20"/>
       <c r="K40" s="17" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="33">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B41" s="15">
-        <f>(2*G98)</f>
-        <v>2</v>
+        <f>(4*G96)</f>
+        <v>4</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>192</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="17"/>
       <c r="F41" s="15" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G41" s="19">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="H41" s="19">
-        <f t="shared" si="2"/>
-        <v>2.86</v>
-      </c>
-      <c r="I41" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="J41" s="21"/>
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I41" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="J41" s="36" t="s">
+        <v>251</v>
+      </c>
       <c r="K41" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="L41" s="3"/>
+        <v>161</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="R41" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="34">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B42" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
+        <f>(7*G96)</f>
+        <v>7</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>344</v>
+        <v>43</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>84</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>342</v>
+        <v>162</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>163</v>
       </c>
       <c r="G42" s="19">
-        <v>0.97</v>
+        <v>0.72</v>
       </c>
       <c r="H42" s="19">
-        <f t="shared" si="2"/>
-        <v>0.97</v>
+        <f t="shared" si="3"/>
+        <v>5.04</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="J42" s="20"/>
+        <v>172</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>251</v>
+      </c>
       <c r="K42" s="17" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="33">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B43" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
+        <f>(4*G96)</f>
+        <v>4</v>
       </c>
       <c r="C43" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="G43" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H43" s="19">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="I43" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="17"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="3"/>
+      <c r="J43" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="K43" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R43" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="33">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B44" s="15">
-        <f>(4*G98)</f>
-        <v>4</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="15" t="s">
+        <f>(14*G96)</f>
+        <v>14</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="D44" s="17" t="s">
         <v>181</v>
       </c>
+      <c r="E44" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>185</v>
+      </c>
       <c r="G44" s="19">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="H44" s="19">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="I44" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="J44" s="36" t="s">
-        <v>270</v>
+        <f t="shared" si="3"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J44" s="20" t="s">
+        <v>157</v>
       </c>
       <c r="K44" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="34">
-        <v>39</v>
-      </c>
+      <c r="R44" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="33"/>
       <c r="B45" s="15">
-        <f>(7*G98)</f>
-        <v>7</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>90</v>
+        <f>(2*G96)</f>
+        <v>2</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>196</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>178</v>
+        <v>363</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>364</v>
       </c>
       <c r="G45" s="19">
-        <v>0.72</v>
+        <v>0.08</v>
       </c>
       <c r="H45" s="19">
-        <f t="shared" si="2"/>
-        <v>5.04</v>
+        <f t="shared" si="3"/>
+        <v>0.16</v>
       </c>
       <c r="I45" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="J45" s="17" t="s">
-        <v>270</v>
+        <v>362</v>
+      </c>
+      <c r="J45" s="20" t="s">
+        <v>157</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="L45" s="3"/>
+        <v>159</v>
+      </c>
+      <c r="L45" t="s">
+        <v>198</v>
+      </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="33">
-        <v>40</v>
+      <c r="R45" s="2"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="34">
+        <v>42</v>
       </c>
       <c r="B46" s="15">
-        <f>(4*G98)</f>
-        <v>4</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>48</v>
+        <f>(2*G96)</f>
+        <v>2</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G46" s="19">
         <v>0.1</v>
       </c>
       <c r="H46" s="19">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
+        <f t="shared" si="3"/>
+        <v>0.2</v>
       </c>
       <c r="I46" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="K46" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
-      <c r="R46" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="33">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B47" s="15">
-        <f>(18*G98)</f>
-        <v>18</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>377</v>
+        <f>(3*G96)</f>
+        <v>3</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>203</v>
+        <v>191</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="G47" s="19">
         <v>0.1</v>
       </c>
       <c r="H47" s="19">
-        <f t="shared" si="2"/>
-        <v>1.8</v>
+        <f t="shared" si="3"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I47" s="17" t="s">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="K47" s="17" t="s">
-        <v>169</v>
+        <v>159</v>
+      </c>
+      <c r="L47" t="s">
+        <v>193</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
-      <c r="R47" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="33"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="33">
+        <v>44</v>
+      </c>
       <c r="B48" s="15">
-        <f>(2*G98)</f>
-        <v>2</v>
+        <f>(1*G96)</f>
+        <v>1</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>383</v>
+        <v>50</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>386</v>
+        <v>197</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>195</v>
       </c>
       <c r="G48" s="19">
         <v>0.08</v>
       </c>
       <c r="H48" s="19">
-        <f t="shared" si="2"/>
-        <v>0.16</v>
+        <f t="shared" si="3"/>
+        <v>0.08</v>
       </c>
       <c r="I48" s="17" t="s">
-        <v>384</v>
+        <v>51</v>
       </c>
       <c r="J48" s="20" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L48" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-      <c r="R48" s="2"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="34">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B49" s="15">
-        <f>(2*G98)</f>
-        <v>2</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>50</v>
+        <f>(5*G96)</f>
+        <v>5</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G49" s="19">
         <v>0.1</v>
       </c>
       <c r="H49" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H49:H87" si="4">(B49*G49)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="J49" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="K49" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="33">
+        <v>46</v>
+      </c>
+      <c r="B50" s="15">
+        <f>(1*G96)</f>
+        <v>1</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="G50" s="19">
+        <v>0.08</v>
+      </c>
+      <c r="H50" s="19">
+        <f t="shared" si="4"/>
+        <v>0.08</v>
+      </c>
+      <c r="I50" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J50" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="K50" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="33">
+        <v>47</v>
+      </c>
+      <c r="B51" s="15">
+        <f>(2*G96)</f>
+        <v>2</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="G51" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H51" s="19">
+        <f t="shared" si="4"/>
         <v>0.2</v>
-      </c>
-      <c r="I49" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="J49" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="K49" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="33">
-        <v>43</v>
-      </c>
-      <c r="B50" s="15">
-        <f>(3*G98)</f>
-        <v>3</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="G50" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="H50" s="19">
-        <f t="shared" si="2"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="I50" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="J50" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="K50" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L50" t="s">
-        <v>211</v>
-      </c>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="33">
-        <v>44</v>
-      </c>
-      <c r="B51" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="G51" s="19">
-        <v>0.08</v>
-      </c>
-      <c r="H51" s="19">
-        <f t="shared" si="2"/>
-        <v>0.08</v>
       </c>
       <c r="I51" s="17" t="s">
         <v>55</v>
       </c>
       <c r="J51" s="20" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="K51" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L51" t="s">
-        <v>216</v>
-      </c>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="L51" s="31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="34">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B52" s="15">
-        <f>(5*G98)</f>
-        <v>5</v>
+        <f>(1*G96)</f>
+        <v>1</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G52" s="19">
         <v>0.1</v>
       </c>
       <c r="H52" s="19">
-        <f t="shared" ref="H52:H89" si="3">(B52*G52)</f>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.1</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J52" s="20" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="K52" s="17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="33">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B53" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
+        <f>(2*G96)</f>
+        <v>2</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>220</v>
+        <v>181</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G53" s="19">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="H53" s="19">
-        <f t="shared" si="3"/>
-        <v>0.08</v>
+        <f t="shared" si="4"/>
+        <v>0.2</v>
       </c>
       <c r="I53" s="17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J53" s="20" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="K53" s="17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="33">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B54" s="15">
-        <f>(2*G98)</f>
-        <v>2</v>
+        <f>(1*G96)</f>
+        <v>1</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>223</v>
+        <v>61</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>212</v>
       </c>
       <c r="G54" s="19">
         <v>0.1</v>
       </c>
       <c r="H54" s="19">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
+        <f t="shared" si="4"/>
+        <v>0.1</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="K54" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L54" s="31" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="L54" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="34">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B55" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G96)</f>
         <v>1</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="G55" s="19">
         <v>0.1</v>
       </c>
       <c r="H55" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J55" s="20" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="K55" s="17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="33">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B56" s="15">
-        <f>(2*G98)</f>
-        <v>2</v>
+        <f>(1*G96)</f>
+        <v>1</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G56" s="19">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H56" s="19">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
+        <f t="shared" si="4"/>
+        <v>0.09</v>
       </c>
       <c r="I56" s="17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J56" s="20" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="K56" s="17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="33">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B57" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
+        <f>(8*G96)</f>
+        <v>8</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>230</v>
+        <v>368</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>225</v>
       </c>
       <c r="G57" s="19">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="H57" s="19">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>0.64</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J57" s="20" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="K57" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L57" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="34">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B58" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G96)</f>
         <v>1</v>
       </c>
       <c r="C58" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E58" s="15" t="s">
+      <c r="D58" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="F58" s="15" t="s">
-        <v>234</v>
+      <c r="E58" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>232</v>
       </c>
       <c r="G58" s="19">
         <v>0.1</v>
       </c>
       <c r="H58" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J58" s="20" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="K58" s="17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="33">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B59" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
+        <f>(8*G96)</f>
+        <v>8</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D59" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="G59" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="H59" s="19">
+        <f t="shared" si="4"/>
+        <v>0.32</v>
+      </c>
+      <c r="I59" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="J59" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="K59" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="33">
+        <v>56</v>
+      </c>
+      <c r="B60" s="15">
+        <f>(1*G96)</f>
+        <v>1</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="G60" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="H60" s="19">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="I60" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="J60" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="K60" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="34">
+        <v>57</v>
+      </c>
+      <c r="B61" s="15">
+        <f>(1*G96)</f>
+        <v>1</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="E61" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E59" s="15" t="s">
+      <c r="F61" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="G61" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="H61" s="19">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="I61" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="F59" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="G59" s="19">
-        <v>0.09</v>
-      </c>
-      <c r="H59" s="19">
-        <f t="shared" si="3"/>
-        <v>0.09</v>
-      </c>
-      <c r="I59" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="J59" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="K59" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L59" s="3" t="s">
+      <c r="J61" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="K61" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L61" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A60" s="33">
-        <v>53</v>
-      </c>
-      <c r="B60" s="15">
-        <f>(8*G98)</f>
-        <v>8</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D60" s="20" t="s">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="33">
+        <v>58</v>
+      </c>
+      <c r="B62" s="15">
+        <f>(1*G96)</f>
+        <v>1</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="E62" s="21" t="s">
         <v>239</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="F60" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="G60" s="19">
-        <v>0.08</v>
-      </c>
-      <c r="H60" s="19">
-        <f t="shared" si="3"/>
-        <v>0.64</v>
-      </c>
-      <c r="I60" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J60" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="K60" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A61" s="34">
-        <v>54</v>
-      </c>
-      <c r="B61" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="F61" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="G61" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="H61" s="19">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="I61" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J61" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="K61" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A62" s="33">
-        <v>55</v>
-      </c>
-      <c r="B62" s="15">
-        <f>(8*G98)</f>
-        <v>8</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>241</v>
       </c>
       <c r="F62" s="21" t="s">
         <v>240</v>
       </c>
       <c r="G62" s="19">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="H62" s="19">
-        <f t="shared" si="3"/>
-        <v>0.32</v>
+        <f t="shared" si="4"/>
+        <v>0.11</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="J62" s="20" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="K62" s="17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="33">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B63" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
-      </c>
-      <c r="C63" s="32" t="s">
+        <f>(2*G96)</f>
+        <v>2</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="G63" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="H63" s="19">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="I63" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J63" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="K63" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="34">
+        <v>60</v>
+      </c>
+      <c r="B64" s="15">
+        <f>(2*G96)</f>
+        <v>2</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="F64" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="D63" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="F63" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="G63" s="19">
-        <v>0.02</v>
-      </c>
-      <c r="H63" s="19">
-        <f t="shared" si="3"/>
-        <v>0.02</v>
-      </c>
-      <c r="I63" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="J63" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="K63" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A64" s="34">
-        <v>57</v>
-      </c>
-      <c r="B64" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
-      </c>
-      <c r="C64" s="17" t="s">
+      <c r="G64" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="H64" s="19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I64" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D64" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="E64" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="F64" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="G64" s="19">
-        <v>0.04</v>
-      </c>
-      <c r="H64" s="19">
-        <f t="shared" si="3"/>
-        <v>0.04</v>
-      </c>
-      <c r="I64" s="17" t="s">
-        <v>254</v>
-      </c>
       <c r="J64" s="20" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="K64" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="33">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B65" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
+        <f>(2*G96)</f>
+        <v>2</v>
       </c>
       <c r="C65" s="17" t="s">
         <v>77</v>
       </c>
       <c r="D65" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="G65" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="H65" s="19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I65" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J65" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="K65" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="33">
+        <v>62</v>
+      </c>
+      <c r="B66" s="15">
+        <v>2</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="G66" s="19">
+        <v>0.43</v>
+      </c>
+      <c r="H66" s="19">
+        <f t="shared" si="4"/>
+        <v>0.86</v>
+      </c>
+      <c r="I66" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="J66" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="K66" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="34">
+        <v>63</v>
+      </c>
+      <c r="B67" s="15">
+        <v>1</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="G67" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H67" s="19">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="I67" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="J67" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="K67" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="33">
+        <v>64</v>
+      </c>
+      <c r="B68" s="15">
+        <f>(7*G96)</f>
+        <v>7</v>
+      </c>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="G68" s="19">
+        <v>0.31</v>
+      </c>
+      <c r="H68" s="19">
+        <f t="shared" si="4"/>
+        <v>2.17</v>
+      </c>
+      <c r="I68" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="J68" s="20"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="33">
+        <v>65</v>
+      </c>
+      <c r="B69" s="15">
+        <f>(14*G96)</f>
+        <v>14</v>
+      </c>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69" s="15">
+        <v>1722533123</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="G69" s="19">
+        <v>0.152</v>
+      </c>
+      <c r="H69" s="19">
+        <f t="shared" si="4"/>
+        <v>2.1280000000000001</v>
+      </c>
+      <c r="I69" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="J69" s="20"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="37"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="35">
+        <v>1</v>
+      </c>
+      <c r="B71" s="15">
+        <f>(1*G96)</f>
+        <v>1</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G71" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="H71" s="19">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="I71" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J71" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="E65" s="21" t="s">
+      <c r="K71" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="35">
+        <v>2</v>
+      </c>
+      <c r="B72" s="15">
+        <f>(1*G96)</f>
+        <v>1</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="G72" s="19">
+        <v>0.64</v>
+      </c>
+      <c r="H72" s="19">
+        <f t="shared" si="4"/>
+        <v>0.64</v>
+      </c>
+      <c r="I72" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="J72" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="K72" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="35">
+        <v>3</v>
+      </c>
+      <c r="B73" s="15">
+        <f>(1*G96)</f>
+        <v>1</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="G73" s="19">
+        <v>1.24</v>
+      </c>
+      <c r="H73" s="19">
+        <f t="shared" si="4"/>
+        <v>1.24</v>
+      </c>
+      <c r="I73" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="J73" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="K73" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="35">
+        <v>4</v>
+      </c>
+      <c r="B74" s="15">
+        <f>(1*G96)</f>
+        <v>1</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G74" s="19">
+        <v>5.66</v>
+      </c>
+      <c r="H74" s="19">
+        <f>(B74*G74)</f>
+        <v>5.66</v>
+      </c>
+      <c r="I74" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="J74" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="K74" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" s="35">
+        <v>5</v>
+      </c>
+      <c r="B75" s="15">
+        <f>(1*G96)</f>
+        <v>1</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="G75" s="19">
+        <v>2.84</v>
+      </c>
+      <c r="H75" s="19">
+        <f t="shared" si="4"/>
+        <v>2.84</v>
+      </c>
+      <c r="I75" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="J75" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="K75" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L75" s="3"/>
+      <c r="R75" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="35">
+        <v>6</v>
+      </c>
+      <c r="B76" s="15">
+        <f>(1*G96)</f>
+        <v>1</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="G76" s="19">
+        <v>0.86</v>
+      </c>
+      <c r="H76" s="19">
+        <f t="shared" si="4"/>
+        <v>0.86</v>
+      </c>
+      <c r="I76" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="J76" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="K76" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" s="35">
+        <v>7</v>
+      </c>
+      <c r="B77" s="15">
+        <f>(1*G96)</f>
+        <v>1</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="G77" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="H77" s="19">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="I77" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="J77" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="K77" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78" s="35">
+        <v>8</v>
+      </c>
+      <c r="B78" s="15">
+        <f>(1*G96)</f>
+        <v>1</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F78" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="F65" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="G65" s="19">
-        <v>0.11</v>
-      </c>
-      <c r="H65" s="19">
-        <f t="shared" si="3"/>
-        <v>0.11</v>
-      </c>
-      <c r="I65" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="J65" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="K65" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A66" s="33">
-        <v>59</v>
-      </c>
-      <c r="B66" s="15">
-        <f>(2*G98)</f>
-        <v>2</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="F66" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="G66" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="H66" s="19">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="I66" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="J66" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="K66" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A67" s="34">
-        <v>60</v>
-      </c>
-      <c r="B67" s="15">
-        <f>(2*G98)</f>
-        <v>2</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="E67" s="21" t="s">
+      <c r="G78" s="19">
+        <v>0.67</v>
+      </c>
+      <c r="H78" s="19">
+        <f t="shared" si="4"/>
+        <v>0.67</v>
+      </c>
+      <c r="I78" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="J78" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="K78" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="L78" s="3"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" s="35">
+        <v>9</v>
+      </c>
+      <c r="B79" s="15">
+        <f>(1*G96)</f>
+        <v>1</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" s="17"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="17"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="3"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" s="35">
+        <v>10</v>
+      </c>
+      <c r="B80" s="15">
+        <f>(1*G96)</f>
+        <v>1</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" s="17"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="20"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="3"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81" s="35">
+        <v>11</v>
+      </c>
+      <c r="B81" s="15">
+        <f>(1*G96)</f>
+        <v>1</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="G81" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H81" s="19">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="I81" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="J81" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="K81" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82" s="35">
+        <v>12</v>
+      </c>
+      <c r="B82" s="15">
+        <f>(1*G96)</f>
+        <v>1</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E82" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="F67" s="21" t="s">
+      <c r="F82" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="G67" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="H67" s="19">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I67" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="J67" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="K67" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A68" s="33">
-        <v>61</v>
-      </c>
-      <c r="B68" s="15">
-        <f>(2*G98)</f>
-        <v>2</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="E68" s="21" t="s">
+      <c r="G82" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H82" s="19">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="I82" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="J82" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="K82" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83" s="35">
+        <v>13</v>
+      </c>
+      <c r="B83" s="15">
+        <f>(3*G96)</f>
+        <v>3</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="F83" s="15" t="s">
         <v>264</v>
-      </c>
-      <c r="F68" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="G68" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="H68" s="19">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I68" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="J68" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="K68" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A69" s="33">
-        <v>62</v>
-      </c>
-      <c r="B69" s="15">
-        <f>(3*G98)</f>
-        <v>3</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="E69" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="F69" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="G69" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="H69" s="19">
-        <f t="shared" si="3"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="I69" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="J69" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="K69" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A70" s="34">
-        <v>63</v>
-      </c>
-      <c r="B70" s="15">
-        <f>(7*G98)</f>
-        <v>7</v>
-      </c>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="F70" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="G70" s="19">
-        <v>0.31</v>
-      </c>
-      <c r="H70" s="19">
-        <f t="shared" si="3"/>
-        <v>2.17</v>
-      </c>
-      <c r="I70" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="J70" s="20"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A71" s="33">
-        <v>64</v>
-      </c>
-      <c r="B71" s="15">
-        <f>(14*G98)</f>
-        <v>14</v>
-      </c>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E71" s="15">
-        <v>1722533123</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="G71" s="19">
-        <v>0.152</v>
-      </c>
-      <c r="H71" s="19">
-        <f t="shared" si="3"/>
-        <v>2.1280000000000001</v>
-      </c>
-      <c r="I71" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="J71" s="20"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="R71" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A72" s="37"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="40"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A73" s="35">
-        <v>1</v>
-      </c>
-      <c r="B73" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F73" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="G73" s="19">
-        <v>1.4</v>
-      </c>
-      <c r="H73" s="19">
-        <f t="shared" si="3"/>
-        <v>1.4</v>
-      </c>
-      <c r="I73" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="J73" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="K73" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="35">
-        <v>2</v>
-      </c>
-      <c r="B74" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="F74" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="G74" s="19">
-        <v>0.64</v>
-      </c>
-      <c r="H74" s="19">
-        <f t="shared" si="3"/>
-        <v>0.64</v>
-      </c>
-      <c r="I74" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="J74" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="K74" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A75" s="35">
-        <v>3</v>
-      </c>
-      <c r="B75" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="G75" s="19">
-        <v>1.24</v>
-      </c>
-      <c r="H75" s="19">
-        <f t="shared" si="3"/>
-        <v>1.24</v>
-      </c>
-      <c r="I75" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="J75" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="K75" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A76" s="35">
-        <v>4</v>
-      </c>
-      <c r="B76" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D76" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="E76" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F76" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="G76" s="19">
-        <v>5.66</v>
-      </c>
-      <c r="H76" s="19">
-        <f>(B76*G76)</f>
-        <v>5.66</v>
-      </c>
-      <c r="I76" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="J76" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="K76" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A77" s="35">
-        <v>5</v>
-      </c>
-      <c r="B77" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="G77" s="19">
-        <v>2.84</v>
-      </c>
-      <c r="H77" s="19">
-        <f t="shared" si="3"/>
-        <v>2.84</v>
-      </c>
-      <c r="I77" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="J77" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="K77" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L77" s="3"/>
-      <c r="R77" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A78" s="35">
-        <v>6</v>
-      </c>
-      <c r="B78" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="G78" s="19">
-        <v>0.86</v>
-      </c>
-      <c r="H78" s="19">
-        <f t="shared" si="3"/>
-        <v>0.86</v>
-      </c>
-      <c r="I78" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="J78" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="K78" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L78" s="3"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A79" s="35">
-        <v>7</v>
-      </c>
-      <c r="B79" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="G79" s="19">
-        <v>0.15</v>
-      </c>
-      <c r="H79" s="19">
-        <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="I79" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="J79" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="K79" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L79" s="3"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A80" s="35">
-        <v>8</v>
-      </c>
-      <c r="B80" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F80" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="G80" s="19">
-        <v>0.67</v>
-      </c>
-      <c r="H80" s="19">
-        <f t="shared" si="3"/>
-        <v>0.67</v>
-      </c>
-      <c r="I80" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="J80" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="K80" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="L80" s="3"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A81" s="35">
-        <v>9</v>
-      </c>
-      <c r="B81" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D81" s="17"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I81" s="17"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A82" s="35">
-        <v>10</v>
-      </c>
-      <c r="B82" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D82" s="17"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="20"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A83" s="35">
-        <v>11</v>
-      </c>
-      <c r="B83" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="F83" s="15" t="s">
-        <v>288</v>
       </c>
       <c r="G83" s="19">
         <v>0.1</v>
       </c>
       <c r="H83" s="19">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I83" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J83" s="20" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="K83" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="35">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B84" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
+        <f>(2*G96)</f>
+        <v>2</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="G84" s="19">
         <v>0.1</v>
       </c>
       <c r="H84" s="19">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>0.2</v>
       </c>
       <c r="I84" s="17" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="J84" s="20" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="K84" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B85" s="15">
-        <f>(3*G98)</f>
-        <v>3</v>
+        <f>(1*G96)</f>
+        <v>1</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>347</v>
+        <v>98</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="G85" s="19">
         <v>0.1</v>
       </c>
       <c r="H85" s="19">
-        <f t="shared" si="3"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="4"/>
+        <v>0.1</v>
       </c>
       <c r="I85" s="17" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="J85" s="20" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="K85" s="17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="35">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B86" s="15">
-        <f>(2*G98)</f>
-        <v>2</v>
+        <f>(1*G96)</f>
+        <v>1</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="F86" s="15" t="s">
-        <v>286</v>
+        <v>341</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>339</v>
       </c>
       <c r="G86" s="19">
-        <v>0.1</v>
+        <v>0.37</v>
       </c>
       <c r="H86" s="19">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
+        <f t="shared" si="4"/>
+        <v>0.37</v>
       </c>
       <c r="I86" s="17" t="s">
-        <v>57</v>
+        <v>329</v>
       </c>
       <c r="J86" s="20" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="K86" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="35">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B87" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G96)</f>
         <v>1</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="E87" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="F87" s="15" t="s">
-        <v>290</v>
+        <v>196</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>343</v>
       </c>
       <c r="G87" s="19">
         <v>0.1</v>
       </c>
       <c r="H87" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="I87" s="17" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="J87" s="20" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="K87" s="17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="35">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B88" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
+        <f>(5*G96)</f>
+        <v>5</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>105</v>
+        <v>348</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="E88" s="21" t="s">
-        <v>359</v>
+        <v>221</v>
+      </c>
+      <c r="E88" s="20" t="s">
+        <v>273</v>
       </c>
       <c r="F88" s="21" t="s">
-        <v>358</v>
+        <v>274</v>
       </c>
       <c r="G88" s="19">
-        <v>0.37</v>
+        <v>0.05</v>
       </c>
       <c r="H88" s="19">
-        <f t="shared" si="3"/>
-        <v>0.37</v>
+        <f>(B88*G88)</f>
+        <v>0.25</v>
       </c>
       <c r="I88" s="17" t="s">
-        <v>348</v>
+        <v>68</v>
       </c>
       <c r="J88" s="20" t="s">
-        <v>280</v>
+        <v>177</v>
       </c>
       <c r="K88" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="35">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B89" s="15">
-        <f>(1*G98)</f>
+        <f>(1*G96)</f>
         <v>1</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="E89" s="21" t="s">
-        <v>361</v>
+        <v>260</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="E89" s="20" t="s">
+        <v>231</v>
       </c>
       <c r="F89" s="21" t="s">
-        <v>362</v>
+        <v>232</v>
       </c>
       <c r="G89" s="19">
         <v>0.1</v>
       </c>
       <c r="H89" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H89:H92" si="5">(B89*G89)</f>
         <v>0.1</v>
       </c>
       <c r="I89" s="17" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="J89" s="20" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="K89" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="L89" s="2"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="35">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B90" s="15">
-        <f>(5*G98)</f>
-        <v>5</v>
+        <f>(1*G96)</f>
+        <v>1</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="D90" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="E90" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E90" s="20" t="s">
-        <v>292</v>
-      </c>
       <c r="F90" s="21" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
       <c r="G90" s="19">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="H90" s="19">
-        <f>(B90*G90)</f>
-        <v>0.25</v>
+        <f t="shared" si="5"/>
+        <v>0.11</v>
       </c>
       <c r="I90" s="17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J90" s="20" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="K90" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="L90" s="2"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="35">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B91" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="D91" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="E91" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="F91" s="21" t="s">
-        <v>251</v>
+        <f>(6*G96)</f>
+        <v>6</v>
+      </c>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E91" s="15">
+        <v>500588000</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>345</v>
       </c>
       <c r="G91" s="19">
         <v>0.1</v>
       </c>
       <c r="H91" s="19">
-        <f t="shared" ref="H91:H94" si="4">(B91*G91)</f>
-        <v>0.1</v>
-      </c>
-      <c r="I91" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J91" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="K91" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L91" s="2"/>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="I91" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="J91" s="20"/>
+      <c r="K91" s="17"/>
+      <c r="R91" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="35">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B92" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="D92" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="E92" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="F92" s="21" t="s">
-        <v>259</v>
+        <f>(1*G96)</f>
+        <v>1</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>347</v>
       </c>
       <c r="G92" s="19">
-        <v>0.11</v>
+        <v>0.36</v>
       </c>
       <c r="H92" s="19">
-        <f t="shared" si="4"/>
-        <v>0.11</v>
-      </c>
-      <c r="I92" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="J92" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="K92" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L92" s="2"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A93" s="35">
-        <v>23</v>
-      </c>
-      <c r="B93" s="15">
-        <f>(6*G98)</f>
-        <v>6</v>
-      </c>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E93" s="15">
-        <v>500588000</v>
-      </c>
-      <c r="F93" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="G93" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="H93" s="19">
-        <f t="shared" si="4"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="I93" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="J93" s="20"/>
-      <c r="K93" s="17"/>
-      <c r="R93" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A94" s="35">
-        <v>24</v>
-      </c>
-      <c r="B94" s="15">
-        <f>(1*G98)</f>
-        <v>1</v>
-      </c>
-      <c r="C94" s="15"/>
-      <c r="D94" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E94" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F94" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="G94" s="19">
+        <f t="shared" si="5"/>
         <v>0.36</v>
       </c>
-      <c r="H94" s="19">
-        <f t="shared" si="4"/>
-        <v>0.36</v>
-      </c>
-      <c r="I94" s="27"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="15"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="97" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="I97" s="12"/>
-    </row>
-    <row r="98" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F98" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="G98" s="1">
-        <v>1</v>
-      </c>
-      <c r="H98" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="I98" s="5"/>
-    </row>
-    <row r="99" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="H99" s="9">
-        <f>SUM(H12:H71)</f>
-        <v>75.417999999999992</v>
-      </c>
-      <c r="I99" s="5"/>
-    </row>
-    <row r="100" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="H100" s="1"/>
-      <c r="I100" s="6"/>
-    </row>
-    <row r="101" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="H101" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I101" s="3"/>
-    </row>
-    <row r="102" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="H102" s="9">
-        <f>SUM(H73:H94)</f>
+      <c r="I92" s="27"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="15"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I95" s="12"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F96" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H97" s="9">
+        <f>SUM(H12:H69)</f>
+        <v>68.518000000000015</v>
+      </c>
+      <c r="I97" s="5"/>
+    </row>
+    <row r="98" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H98" s="1"/>
+      <c r="I98" s="6"/>
+    </row>
+    <row r="99" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H99" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I99" s="3"/>
+    </row>
+    <row r="100" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H100" s="9">
+        <f>SUM(H71:H92)</f>
         <v>16.149999999999999</v>
       </c>
     </row>
-    <row r="104" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="H104" s="7" t="s">
+    <row r="102" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H102" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="H105" s="9">
-        <f>SUM(H99+H102)</f>
-        <v>91.567999999999984</v>
-      </c>
-    </row>
-    <row r="111" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="H111" s="11"/>
+    <row r="103" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H103" s="9">
+        <f>SUM(H97+H100)</f>
+        <v>84.668000000000006</v>
+      </c>
+    </row>
+    <row r="109" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H109" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SPEX HAB2 BOM.xlsx
+++ b/SPEX HAB2 BOM.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="373">
   <si>
     <t>Description</t>
   </si>
@@ -147,9 +147,6 @@
     <t>P1</t>
   </si>
   <si>
-    <t>P2</t>
-  </si>
-  <si>
     <t>P3,P4,P5,P6</t>
   </si>
   <si>
@@ -271,9 +268,6 @@
   </si>
   <si>
     <t>PJRC</t>
-  </si>
-  <si>
-    <t>P3</t>
   </si>
   <si>
     <t>Molex</t>
@@ -1190,7 +1184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1203,12 +1197,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1241,12 +1229,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1327,14 +1309,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1364,7 +1342,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1383,7 +1361,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1395,10 +1373,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1431,9 +1409,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1460,12 +1435,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1878,10 +1852,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R109"/>
+  <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1899,17 +1873,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
@@ -1921,7 +1895,7 @@
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2008,38 +1982,38 @@
         <v>12</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
         <v>1</v>
       </c>
       <c r="B12" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="19">
@@ -2050,16 +2024,16 @@
         <v>6.8</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -2067,20 +2041,20 @@
         <v>2</v>
       </c>
       <c r="B13" s="15">
-        <f>(3*G96)</f>
+        <f>(3*G94)</f>
         <v>3</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E13" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="G13" s="19">
         <v>0.55000000000000004</v>
@@ -2090,13 +2064,13 @@
         <v>1.6500000000000001</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -2104,20 +2078,20 @@
         <v>3</v>
       </c>
       <c r="B14" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G14" s="19">
         <v>7.07</v>
@@ -2127,13 +2101,13 @@
         <v>7.07</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -2141,20 +2115,20 @@
         <v>4</v>
       </c>
       <c r="B15" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G15" s="19">
         <v>0.48</v>
@@ -2164,13 +2138,13 @@
         <v>0.48</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2178,20 +2152,20 @@
         <v>5</v>
       </c>
       <c r="B16" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G16" s="19">
         <v>1.22</v>
@@ -2201,13 +2175,13 @@
         <v>1.22</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2215,20 +2189,20 @@
         <v>6</v>
       </c>
       <c r="B17" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G17" s="19">
         <v>5.66</v>
@@ -2238,13 +2212,13 @@
         <v>5.66</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -2252,20 +2226,20 @@
         <v>7</v>
       </c>
       <c r="B18" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G18" s="26">
         <v>6.21</v>
@@ -2275,13 +2249,13 @@
         <v>6.21</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2289,20 +2263,20 @@
         <v>8</v>
       </c>
       <c r="B19" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G19" s="28">
         <v>2.12</v>
@@ -2312,13 +2286,13 @@
         <v>2.12</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L19" s="2"/>
     </row>
@@ -2327,20 +2301,20 @@
         <v>10</v>
       </c>
       <c r="B20" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G20" s="19">
         <v>1.4</v>
@@ -2350,13 +2324,13 @@
         <v>1.4</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L20" s="2"/>
     </row>
@@ -2365,20 +2339,20 @@
         <v>11</v>
       </c>
       <c r="B21" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G21" s="19">
         <v>0.8</v>
@@ -2388,33 +2362,33 @@
         <v>0.8</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J21" s="20"/>
       <c r="K21" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="15">
-        <f>(2*G96)</f>
+        <f>(2*G94)</f>
         <v>2</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G22" s="19">
         <v>1.45</v>
@@ -2424,34 +2398,34 @@
         <v>2.9</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C23" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G23" s="28">
         <v>0.72</v>
@@ -2461,43 +2435,48 @@
         <v>0.72</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J23" s="20"/>
       <c r="K23" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="14">
+        <v>14</v>
+      </c>
+      <c r="B24" s="15">
+        <f>(1*G94)</f>
+        <v>1</v>
+      </c>
       <c r="C24" s="30" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G24" s="19">
         <v>0.42</v>
       </c>
       <c r="H24" s="19">
         <f t="shared" ref="H24" si="2">(B24*G24)</f>
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -2505,26 +2484,26 @@
         <v>15</v>
       </c>
       <c r="B25" s="15">
-        <f>(2*G96)</f>
-        <v>2</v>
+        <f>(1*G94)</f>
+        <v>1</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="17"/>
       <c r="F25" s="29"/>
       <c r="G25" s="19">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="H25" s="19">
         <f t="shared" si="1"/>
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="20"/>
       <c r="K25" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2532,20 +2511,20 @@
         <v>16</v>
       </c>
       <c r="B26" s="15">
-        <f>(3*G96)</f>
+        <f>(3*G94)</f>
         <v>3</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G26" s="19">
         <v>0.26</v>
@@ -2555,34 +2534,34 @@
         <v>0.78</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B27" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G27" s="19">
         <v>0.46</v>
@@ -2592,32 +2571,32 @@
         <v>0.46</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J27" s="20"/>
       <c r="K27" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B28" s="15">
-        <f>(3*G96)</f>
+        <f>(3*G94)</f>
         <v>3</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G28" s="19">
         <v>0.52</v>
@@ -2627,32 +2606,32 @@
         <v>1.56</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J28" s="20"/>
       <c r="K28" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B29" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>32</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G29" s="19">
         <v>0.52</v>
@@ -2662,32 +2641,32 @@
         <v>0.52</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J29" s="20"/>
       <c r="K29" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B30" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G30" s="19">
         <v>0.1</v>
@@ -2697,37 +2676,37 @@
         <v>0.1</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L30" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B31" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G31" s="19">
         <v>0.13</v>
@@ -2737,37 +2716,37 @@
         <v>0.13</v>
       </c>
       <c r="I31" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L31" t="s">
         <v>156</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="K31" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="L31" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B32" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G32" s="19">
         <v>0.15</v>
@@ -2777,34 +2756,34 @@
         <v>0.15</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B33" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C33" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="F33" s="17" t="s">
         <v>279</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>281</v>
       </c>
       <c r="G33" s="19">
         <v>0.1</v>
@@ -2814,37 +2793,37 @@
         <v>0.1</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L33" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="33">
-        <v>29</v>
+      <c r="A34" s="14">
+        <v>24</v>
       </c>
       <c r="B34" s="15">
-        <f>(2*G96)</f>
+        <f>(2*G94)</f>
         <v>2</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>36</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G34" s="19">
         <v>0.19</v>
@@ -2856,31 +2835,31 @@
       <c r="I34" s="17"/>
       <c r="J34" s="20"/>
       <c r="K34" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="34">
-        <v>30</v>
+      <c r="A35" s="14">
+        <v>25</v>
       </c>
       <c r="B35" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G35" s="19">
         <v>0</v>
@@ -2892,31 +2871,31 @@
       <c r="I35" s="15"/>
       <c r="J35" s="20"/>
       <c r="K35" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="33">
-        <v>31</v>
+      <c r="A36" s="14">
+        <v>26</v>
       </c>
       <c r="B36" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G36" s="19">
         <v>0.38</v>
@@ -2926,35 +2905,35 @@
         <v>0.38</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J36" s="20"/>
       <c r="K36" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="33">
-        <v>32</v>
+      <c r="A37" s="14">
+        <v>27</v>
       </c>
       <c r="B37" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E37" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="F37" s="13" t="s">
         <v>315</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>317</v>
       </c>
       <c r="G37" s="19">
         <v>0.48</v>
@@ -2964,37 +2943,37 @@
         <v>0.48</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="34">
-        <v>33</v>
+      <c r="A38" s="14">
+        <v>28</v>
       </c>
       <c r="B38" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>38</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G38" s="19">
         <v>0.34</v>
@@ -3004,35 +2983,35 @@
         <v>0.34</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J38" s="20"/>
       <c r="K38" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="33">
-        <v>34</v>
+      <c r="A39" s="14">
+        <v>29</v>
       </c>
       <c r="B39" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G39" s="19">
         <v>0.46</v>
@@ -3042,37 +3021,37 @@
         <v>0.46</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="34">
-        <v>36</v>
+      <c r="A40" s="14">
+        <v>30</v>
       </c>
       <c r="B40" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>40</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G40" s="19">
         <v>0.97</v>
@@ -3082,33 +3061,33 @@
         <v>0.97</v>
       </c>
       <c r="I40" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J40" s="20"/>
       <c r="K40" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="33">
-        <v>38</v>
+      <c r="A41" s="14">
+        <v>31</v>
       </c>
       <c r="B41" s="15">
-        <f>(4*G96)</f>
+        <f>(4*G94)</f>
         <v>4</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G41" s="19">
         <v>1.5</v>
@@ -3118,39 +3097,39 @@
         <v>6</v>
       </c>
       <c r="I41" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="J41" s="36" t="s">
-        <v>251</v>
+        <v>165</v>
+      </c>
+      <c r="J41" s="35" t="s">
+        <v>249</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="34">
-        <v>39</v>
+      <c r="A42" s="14">
+        <v>32</v>
       </c>
       <c r="B42" s="15">
-        <f>(7*G96)</f>
+        <f>(7*G94)</f>
         <v>7</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G42" s="19">
         <v>0.72</v>
@@ -3160,37 +3139,37 @@
         <v>5.04</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K42" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="33">
-        <v>40</v>
+      <c r="A43" s="14">
+        <v>33</v>
       </c>
       <c r="B43" s="15">
-        <f>(4*G96)</f>
+        <f>(4*G94)</f>
         <v>4</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G43" s="19">
         <v>0.1</v>
@@ -3200,42 +3179,42 @@
         <v>0.4</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K43" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="R43" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <v>34</v>
+      </c>
+      <c r="B44" s="15">
+        <f>(14*G94)</f>
+        <v>14</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44" s="15" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="33">
-        <v>41</v>
-      </c>
-      <c r="B44" s="15">
-        <f>(14*G96)</f>
-        <v>14</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>184</v>
-      </c>
       <c r="F44" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G44" s="19">
         <v>0.1</v>
@@ -3245,37 +3224,39 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K44" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="R44" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
+      <c r="A45" s="14">
+        <v>35</v>
+      </c>
       <c r="B45" s="15">
-        <f>(2*G96)</f>
+        <f>(2*G94)</f>
         <v>2</v>
       </c>
       <c r="C45" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E45" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="D45" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>363</v>
-      </c>
       <c r="F45" s="16" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G45" s="19">
         <v>0.08</v>
@@ -3285,40 +3266,40 @@
         <v>0.16</v>
       </c>
       <c r="I45" s="17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L45" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="R45" s="2"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="34">
-        <v>42</v>
+      <c r="A46" s="14">
+        <v>36</v>
       </c>
       <c r="B46" s="15">
-        <f>(2*G96)</f>
+        <f>(2*G94)</f>
         <v>2</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G46" s="19">
         <v>0.1</v>
@@ -3328,36 +3309,36 @@
         <v>0.2</v>
       </c>
       <c r="I46" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K46" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="33">
-        <v>43</v>
+      <c r="A47" s="14">
+        <v>37</v>
       </c>
       <c r="B47" s="15">
-        <f>(3*G96)</f>
+        <f>(3*G94)</f>
         <v>3</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G47" s="19">
         <v>0.1</v>
@@ -3367,39 +3348,39 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="I47" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K47" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L47" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="33">
-        <v>44</v>
+      <c r="A48" s="14">
+        <v>38</v>
       </c>
       <c r="B48" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G48" s="19">
         <v>0.08</v>
@@ -3409,82 +3390,82 @@
         <v>0.08</v>
       </c>
       <c r="I48" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J48" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L48" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="34">
-        <v>45</v>
+      <c r="A49" s="14">
+        <v>39</v>
       </c>
       <c r="B49" s="15">
-        <f>(5*G96)</f>
+        <f>(5*G94)</f>
         <v>5</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G49" s="19">
         <v>0.1</v>
       </c>
       <c r="H49" s="19">
-        <f t="shared" ref="H49:H87" si="4">(B49*G49)</f>
+        <f t="shared" ref="H49:H85" si="4">(B49*G49)</f>
         <v>0.5</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J49" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K49" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="33">
-        <v>46</v>
+      <c r="A50" s="14">
+        <v>40</v>
       </c>
       <c r="B50" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G50" s="19">
         <v>0.08</v>
@@ -3494,37 +3475,37 @@
         <v>0.08</v>
       </c>
       <c r="I50" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J50" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K50" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="33">
-        <v>47</v>
+      <c r="A51" s="14">
+        <v>41</v>
       </c>
       <c r="B51" s="15">
-        <f>(2*G96)</f>
+        <f>(2*G94)</f>
         <v>2</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G51" s="19">
         <v>0.1</v>
@@ -3534,37 +3515,37 @@
         <v>0.2</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J51" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K51" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L51" s="31" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
+        <v>42</v>
+      </c>
+      <c r="B52" s="15">
+        <f>(1*G94)</f>
+        <v>1</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="F52" s="15" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="34">
-        <v>48</v>
-      </c>
-      <c r="B52" s="15">
-        <f>(1*G96)</f>
-        <v>1</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>208</v>
       </c>
       <c r="G52" s="19">
         <v>0.1</v>
@@ -3574,37 +3555,37 @@
         <v>0.1</v>
       </c>
       <c r="I52" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J52" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K52" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
+        <v>43</v>
+      </c>
+      <c r="B53" s="15">
+        <f>(2*G94)</f>
+        <v>2</v>
+      </c>
+      <c r="C53" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="J52" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="K52" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="33">
-        <v>49</v>
-      </c>
-      <c r="B53" s="15">
-        <f>(2*G96)</f>
-        <v>2</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>59</v>
-      </c>
       <c r="D53" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G53" s="19">
         <v>0.1</v>
@@ -3614,37 +3595,37 @@
         <v>0.2</v>
       </c>
       <c r="I53" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J53" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K53" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
+        <v>44</v>
+      </c>
+      <c r="B54" s="15">
+        <f>(1*G94)</f>
+        <v>1</v>
+      </c>
+      <c r="C54" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="J53" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="K53" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="33">
-        <v>50</v>
-      </c>
-      <c r="B54" s="15">
-        <f>(1*G96)</f>
-        <v>1</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>61</v>
-      </c>
       <c r="D54" s="25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G54" s="19">
         <v>0.1</v>
@@ -3654,37 +3635,37 @@
         <v>0.1</v>
       </c>
       <c r="I54" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J54" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K54" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L54" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
+        <v>45</v>
+      </c>
+      <c r="B55" s="15">
+        <f>(1*G94)</f>
+        <v>1</v>
+      </c>
+      <c r="C55" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="J54" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="K54" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="L54" t="s">
+      <c r="D55" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F55" s="15" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="34">
-        <v>51</v>
-      </c>
-      <c r="B55" s="15">
-        <f>(1*G96)</f>
-        <v>1</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>216</v>
       </c>
       <c r="G55" s="19">
         <v>0.1</v>
@@ -3694,37 +3675,37 @@
         <v>0.1</v>
       </c>
       <c r="I55" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J55" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K55" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
+        <v>46</v>
+      </c>
+      <c r="B56" s="15">
+        <f>(1*G94)</f>
+        <v>1</v>
+      </c>
+      <c r="C56" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="J55" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="K55" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="33">
-        <v>52</v>
-      </c>
-      <c r="B56" s="15">
-        <f>(1*G96)</f>
-        <v>1</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>65</v>
-      </c>
       <c r="D56" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E56" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F56" s="15" t="s">
         <v>217</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>219</v>
       </c>
       <c r="G56" s="19">
         <v>0.09</v>
@@ -3734,37 +3715,37 @@
         <v>0.09</v>
       </c>
       <c r="I56" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J56" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K56" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="33">
-        <v>53</v>
+      <c r="A57" s="14">
+        <v>47</v>
       </c>
       <c r="B57" s="15">
-        <f>(8*G96)</f>
+        <f>(8*G94)</f>
         <v>8</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G57" s="19">
         <v>0.08</v>
@@ -3774,35 +3755,35 @@
         <v>0.64</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J57" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K57" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L57" s="3"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="34">
-        <v>54</v>
+      <c r="A58" s="14">
+        <v>48</v>
       </c>
       <c r="B58" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G58" s="19">
         <v>0.1</v>
@@ -3812,37 +3793,37 @@
         <v>0.1</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J58" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K58" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="33">
-        <v>55</v>
+      <c r="A59" s="14">
+        <v>49</v>
       </c>
       <c r="B59" s="15">
-        <f>(8*G96)</f>
+        <f>(8*G94)</f>
         <v>8</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D59" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E59" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="E59" s="21" t="s">
-        <v>223</v>
-      </c>
       <c r="F59" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G59" s="19">
         <v>0.04</v>
@@ -3852,35 +3833,35 @@
         <v>0.32</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K59" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L59" s="3"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="33">
-        <v>56</v>
+      <c r="A60" s="14">
+        <v>50</v>
       </c>
       <c r="B60" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C60" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="F60" s="21" t="s">
         <v>226</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="F60" s="21" t="s">
-        <v>228</v>
       </c>
       <c r="G60" s="19">
         <v>0.02</v>
@@ -3890,37 +3871,37 @@
         <v>0.02</v>
       </c>
       <c r="I60" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J60" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="K60" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="14">
+        <v>51</v>
+      </c>
+      <c r="B61" s="15">
+        <f>(1*G94)</f>
+        <v>1</v>
+      </c>
+      <c r="C61" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="J60" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="K60" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="34">
-        <v>57</v>
-      </c>
-      <c r="B61" s="15">
-        <f>(1*G96)</f>
-        <v>1</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>71</v>
-      </c>
       <c r="D61" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G61" s="19">
         <v>0.04</v>
@@ -3930,37 +3911,37 @@
         <v>0.04</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J61" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K61" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L61" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="14">
+        <v>52</v>
+      </c>
+      <c r="B62" s="15">
+        <f>(1*G94)</f>
+        <v>1</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="F62" s="21" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="33">
-        <v>58</v>
-      </c>
-      <c r="B62" s="15">
-        <f>(1*G96)</f>
-        <v>1</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="F62" s="21" t="s">
-        <v>240</v>
       </c>
       <c r="G62" s="19">
         <v>0.11</v>
@@ -3970,35 +3951,35 @@
         <v>0.11</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J62" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K62" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L62" s="3"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="33">
-        <v>59</v>
+      <c r="A63" s="14">
+        <v>53</v>
       </c>
       <c r="B63" s="15">
-        <f>(2*G96)</f>
+        <f>(2*G94)</f>
         <v>2</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G63" s="19">
         <v>0.2</v>
@@ -4008,37 +3989,37 @@
         <v>0.4</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J63" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K63" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L63" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="14">
+        <v>54</v>
+      </c>
+      <c r="B64" s="15">
+        <f>(2*G94)</f>
+        <v>2</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="E64" s="21" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="34">
-        <v>60</v>
-      </c>
-      <c r="B64" s="15">
-        <f>(2*G96)</f>
-        <v>2</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="E64" s="21" t="s">
-        <v>243</v>
-      </c>
       <c r="F64" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G64" s="19">
         <v>0.5</v>
@@ -4048,35 +4029,35 @@
         <v>1</v>
       </c>
       <c r="I64" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J64" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K64" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="14">
+        <v>55</v>
+      </c>
+      <c r="B65" s="15">
+        <f>(2*G94)</f>
+        <v>2</v>
+      </c>
+      <c r="C65" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="J64" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="K64" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="33">
-        <v>61</v>
-      </c>
-      <c r="B65" s="15">
-        <f>(2*G96)</f>
-        <v>2</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>77</v>
-      </c>
       <c r="D65" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G65" s="19">
         <v>0.5</v>
@@ -4086,36 +4067,37 @@
         <v>1</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J65" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K65" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="33">
-        <v>62</v>
+      <c r="A66" s="14">
+        <v>56</v>
       </c>
       <c r="B66" s="15">
+        <f>(2*G94)</f>
         <v>2</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G66" s="19">
         <v>0.43</v>
@@ -4125,34 +4107,35 @@
         <v>0.86</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J66" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K66" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L66" s="3"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="34">
-        <v>63</v>
+      <c r="A67" s="14">
+        <v>57</v>
       </c>
       <c r="B67" s="15">
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G67" s="19">
         <v>0.1</v>
@@ -4162,35 +4145,35 @@
         <v>0.1</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J67" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K67" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="33">
-        <v>64</v>
+      <c r="A68" s="14">
+        <v>58</v>
       </c>
       <c r="B68" s="15">
-        <f>(7*G96)</f>
+        <f>(7*G94)</f>
         <v>7</v>
       </c>
       <c r="C68" s="17"/>
       <c r="D68" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G68" s="19">
         <v>0.31</v>
@@ -4200,31 +4183,31 @@
         <v>2.17</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J68" s="20"/>
       <c r="K68" s="17"/>
       <c r="L68" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="33">
-        <v>65</v>
+      <c r="A69" s="14">
+        <v>59</v>
       </c>
       <c r="B69" s="15">
-        <f>(14*G96)</f>
+        <f>(14*G94)</f>
         <v>14</v>
       </c>
       <c r="C69" s="17"/>
       <c r="D69" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E69" s="15">
         <v>1722533123</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G69" s="19">
         <v>0.152</v>
@@ -4234,50 +4217,50 @@
         <v>2.1280000000000001</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J69" s="20"/>
       <c r="K69" s="17"/>
       <c r="L69" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
-      <c r="B70" s="37"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="40"/>
-      <c r="K70" s="37"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="36"/>
       <c r="L70" s="3"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="35">
+      <c r="A71" s="34">
         <v>1</v>
       </c>
       <c r="B71" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E71" s="17" t="s">
         <v>25</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G71" s="19">
         <v>1.4</v>
@@ -4287,35 +4270,35 @@
         <v>1.4</v>
       </c>
       <c r="I71" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J71" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K71" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L71" s="3"/>
     </row>
     <row r="72" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="35">
+      <c r="A72" s="34">
         <v>2</v>
       </c>
       <c r="B72" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G72" s="19">
         <v>0.64</v>
@@ -4325,35 +4308,35 @@
         <v>0.64</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J72" s="20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K72" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L72" s="3"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="35">
+      <c r="A73" s="34">
         <v>3</v>
       </c>
       <c r="B73" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C73" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G73" s="19">
         <v>1.24</v>
@@ -4363,35 +4346,35 @@
         <v>1.24</v>
       </c>
       <c r="I73" s="17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J73" s="20" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K73" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L73" s="3"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="35">
+      <c r="A74" s="34">
         <v>4</v>
       </c>
       <c r="B74" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E74" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G74" s="19">
         <v>5.66</v>
@@ -4401,35 +4384,35 @@
         <v>5.66</v>
       </c>
       <c r="I74" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J74" s="20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K74" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L74" s="3"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="35">
+      <c r="A75" s="34">
         <v>5</v>
       </c>
       <c r="B75" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C75" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G75" s="19">
         <v>2.84</v>
@@ -4439,38 +4422,38 @@
         <v>2.84</v>
       </c>
       <c r="I75" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J75" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K75" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L75" s="3"/>
       <c r="R75" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="35">
+      <c r="A76" s="34">
         <v>6</v>
       </c>
       <c r="B76" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G76" s="19">
         <v>0.86</v>
@@ -4480,35 +4463,35 @@
         <v>0.86</v>
       </c>
       <c r="I76" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J76" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K76" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L76" s="3"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="35">
+      <c r="A77" s="34">
         <v>7</v>
       </c>
       <c r="B77" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C77" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G77" s="19">
         <v>0.15</v>
@@ -4518,35 +4501,35 @@
         <v>0.15</v>
       </c>
       <c r="I77" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J77" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K77" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L77" s="3"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="35">
+      <c r="A78" s="34">
         <v>8</v>
       </c>
       <c r="B78" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C78" s="17" t="s">
         <v>40</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G78" s="19">
         <v>0.67</v>
@@ -4556,237 +4539,269 @@
         <v>0.67</v>
       </c>
       <c r="I78" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="J78" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="K78" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L78" s="3"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" s="34">
+        <v>9</v>
+      </c>
+      <c r="B79" s="15">
+        <f>(1*G94)</f>
+        <v>1</v>
+      </c>
+      <c r="C79" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="J78" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="K78" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="L78" s="3"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="35">
-        <v>9</v>
-      </c>
-      <c r="B79" s="15">
-        <f>(1*G96)</f>
-        <v>1</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D79" s="17"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="19"/>
+      <c r="D79" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="G79" s="19">
+        <v>0.1</v>
+      </c>
       <c r="H79" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I79" s="17"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="I79" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J79" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="K79" s="17" t="s">
+        <v>157</v>
+      </c>
       <c r="L79" s="3"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="35">
+      <c r="A80" s="34">
         <v>10</v>
       </c>
       <c r="B80" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D80" s="17"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="19"/>
+        <v>92</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="G80" s="19">
+        <v>0.1</v>
+      </c>
       <c r="H80" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="20"/>
-      <c r="K80" s="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="I80" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="J80" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="K80" s="17" t="s">
+        <v>157</v>
+      </c>
       <c r="L80" s="3"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="35">
+      <c r="A81" s="34">
         <v>11</v>
       </c>
       <c r="B81" s="15">
-        <f>(1*G96)</f>
-        <v>1</v>
+        <f>(3*G94)</f>
+        <v>3</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>92</v>
+        <v>326</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G81" s="19">
         <v>0.1</v>
       </c>
       <c r="H81" s="19">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I81" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J81" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K81" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="L81" s="3"/>
+        <v>157</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="35">
+      <c r="A82" s="34">
         <v>12</v>
       </c>
       <c r="B82" s="15">
-        <f>(1*G96)</f>
-        <v>1</v>
+        <f>(2*G94)</f>
+        <v>2</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G82" s="19">
         <v>0.1</v>
       </c>
       <c r="H82" s="19">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I82" s="17" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="J82" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K82" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="L82" s="3"/>
+        <v>157</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="35">
+      <c r="A83" s="34">
         <v>13</v>
       </c>
       <c r="B83" s="15">
-        <f>(3*G96)</f>
-        <v>3</v>
+        <f>(1*G94)</f>
+        <v>1</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>328</v>
+        <v>96</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G83" s="19">
         <v>0.1</v>
       </c>
       <c r="H83" s="19">
         <f t="shared" si="4"/>
-        <v>0.30000000000000004</v>
+        <v>0.1</v>
       </c>
       <c r="I83" s="17" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="J83" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K83" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>198</v>
+        <v>270</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="35">
+      <c r="A84" s="34">
         <v>14</v>
       </c>
       <c r="B84" s="15">
-        <f>(2*G96)</f>
-        <v>2</v>
+        <f>(1*G94)</f>
+        <v>1</v>
       </c>
       <c r="C84" s="17" t="s">
         <v>97</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>267</v>
+        <v>339</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="F84" s="21" t="s">
+        <v>337</v>
       </c>
       <c r="G84" s="19">
-        <v>0.1</v>
+        <v>0.37</v>
       </c>
       <c r="H84" s="19">
         <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.37</v>
       </c>
       <c r="I84" s="17" t="s">
-        <v>53</v>
+        <v>327</v>
       </c>
       <c r="J84" s="20" t="s">
-        <v>177</v>
+        <v>259</v>
       </c>
       <c r="K84" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>183</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="L84" s="3"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="35">
+      <c r="A85" s="34">
         <v>15</v>
       </c>
       <c r="B85" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C85" s="17" t="s">
         <v>98</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="F85" s="15" t="s">
-        <v>271</v>
+        <v>194</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="F85" s="21" t="s">
+        <v>341</v>
       </c>
       <c r="G85" s="19">
         <v>0.1</v>
@@ -4796,329 +4811,251 @@
         <v>0.1</v>
       </c>
       <c r="I85" s="17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J85" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K85" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L85" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86" s="34">
+        <v>16</v>
+      </c>
+      <c r="B86" s="15">
+        <f>(5*G94)</f>
+        <v>5</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="F86" s="21" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="35">
-        <v>18</v>
-      </c>
-      <c r="B86" s="15">
-        <f>(1*G96)</f>
-        <v>1</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="E86" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="F86" s="21" t="s">
-        <v>339</v>
-      </c>
       <c r="G86" s="19">
-        <v>0.37</v>
+        <v>0.05</v>
       </c>
       <c r="H86" s="19">
-        <f t="shared" si="4"/>
-        <v>0.37</v>
+        <f>(B86*G86)</f>
+        <v>0.25</v>
       </c>
       <c r="I86" s="17" t="s">
-        <v>329</v>
+        <v>67</v>
       </c>
       <c r="J86" s="20" t="s">
-        <v>261</v>
+        <v>175</v>
       </c>
       <c r="K86" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="L86" s="3"/>
+        <v>157</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="35">
-        <v>19</v>
+      <c r="A87" s="34">
+        <v>17</v>
       </c>
       <c r="B87" s="15">
-        <f>(1*G96)</f>
+        <f>(1*G94)</f>
         <v>1</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E87" s="21" t="s">
-        <v>342</v>
+        <v>258</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>229</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>343</v>
+        <v>230</v>
       </c>
       <c r="G87" s="19">
         <v>0.1</v>
       </c>
       <c r="H87" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H87:H90" si="5">(B87*G87)</f>
         <v>0.1</v>
       </c>
       <c r="I87" s="17" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="J87" s="20" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="K87" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="L87" s="3" t="s">
-        <v>272</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="L87" s="2"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="35">
-        <v>20</v>
+      <c r="A88" s="34">
+        <v>18</v>
       </c>
       <c r="B88" s="15">
-        <f>(5*G96)</f>
-        <v>5</v>
+        <f>(1*G94)</f>
+        <v>1</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="E88" s="20" t="s">
-        <v>273</v>
+        <v>257</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>237</v>
       </c>
       <c r="F88" s="21" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="G88" s="19">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="H88" s="19">
-        <f>(B88*G88)</f>
-        <v>0.25</v>
+        <f t="shared" si="5"/>
+        <v>0.11</v>
       </c>
       <c r="I88" s="17" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="J88" s="20" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="K88" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>275</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="L88" s="2"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="35">
-        <v>21</v>
+      <c r="A89" s="34">
+        <v>19</v>
       </c>
       <c r="B89" s="15">
-        <f>(1*G96)</f>
-        <v>1</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="D89" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="E89" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="F89" s="21" t="s">
-        <v>232</v>
+        <f>(6*G94)</f>
+        <v>6</v>
+      </c>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E89" s="15">
+        <v>500588000</v>
+      </c>
+      <c r="F89" s="15" t="s">
+        <v>343</v>
       </c>
       <c r="G89" s="19">
         <v>0.1</v>
       </c>
       <c r="H89" s="19">
-        <f t="shared" ref="H89:H92" si="5">(B89*G89)</f>
-        <v>0.1</v>
-      </c>
-      <c r="I89" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="J89" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="K89" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="L89" s="2"/>
+        <f t="shared" si="5"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="I89" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="J89" s="20"/>
+      <c r="K89" s="17"/>
+      <c r="R89" s="2" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="35">
-        <v>22</v>
+      <c r="A90" s="34">
+        <v>20</v>
       </c>
       <c r="B90" s="15">
-        <f>(1*G96)</f>
-        <v>1</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="E90" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="F90" s="21" t="s">
-        <v>240</v>
+        <f>(1*G94)</f>
+        <v>1</v>
+      </c>
+      <c r="C90" s="15"/>
+      <c r="D90" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>345</v>
       </c>
       <c r="G90" s="19">
-        <v>0.11</v>
+        <v>0.36</v>
       </c>
       <c r="H90" s="19">
         <f t="shared" si="5"/>
-        <v>0.11</v>
-      </c>
-      <c r="I90" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="J90" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="K90" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="L90" s="2"/>
+        <v>0.36</v>
+      </c>
+      <c r="I90" s="27"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="35">
-        <v>23</v>
-      </c>
-      <c r="B91" s="15">
-        <f>(6*G96)</f>
-        <v>6</v>
-      </c>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E91" s="15">
-        <v>500588000</v>
-      </c>
-      <c r="F91" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="G91" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="H91" s="19">
-        <f t="shared" si="5"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="I91" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="J91" s="20"/>
-      <c r="K91" s="17"/>
-      <c r="R91" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="35">
-        <v>24</v>
-      </c>
-      <c r="B92" s="15">
-        <f>(1*G96)</f>
-        <v>1</v>
-      </c>
-      <c r="C92" s="15"/>
-      <c r="D92" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E92" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="F92" s="15" t="s">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I93" s="12"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F94" s="43" t="s">
         <v>347</v>
       </c>
-      <c r="G92" s="19">
-        <v>0.36</v>
-      </c>
-      <c r="H92" s="19">
-        <f t="shared" si="5"/>
-        <v>0.36</v>
-      </c>
-      <c r="I92" s="27"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="15"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
+      <c r="G94" s="1">
+        <v>1</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I94" s="5"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I95" s="12"/>
+      <c r="H95" s="9">
+        <f>SUM(H12:H69)</f>
+        <v>68.098000000000013</v>
+      </c>
+      <c r="I95" s="5"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F96" s="44" t="s">
-        <v>349</v>
-      </c>
-      <c r="G96" s="1">
-        <v>1</v>
-      </c>
-      <c r="H96" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I96" s="5"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="6"/>
     </row>
     <row r="97" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H97" s="9">
-        <f>SUM(H12:H69)</f>
-        <v>68.518000000000015</v>
-      </c>
-      <c r="I97" s="5"/>
+      <c r="H97" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I97" s="3"/>
     </row>
     <row r="98" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H98" s="1"/>
-      <c r="I98" s="6"/>
-    </row>
-    <row r="99" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H99" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I99" s="3"/>
+      <c r="H98" s="9">
+        <f>SUM(H71:H90)</f>
+        <v>16.149999999999999</v>
+      </c>
     </row>
     <row r="100" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H100" s="9">
-        <f>SUM(H71:H92)</f>
-        <v>16.149999999999999</v>
-      </c>
-    </row>
-    <row r="102" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H102" s="7" t="s">
+      <c r="H100" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H103" s="9">
-        <f>SUM(H97+H100)</f>
-        <v>84.668000000000006</v>
-      </c>
-    </row>
-    <row r="109" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H109" s="11"/>
+    <row r="101" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H101" s="9">
+        <f>SUM(H95+H98)</f>
+        <v>84.248000000000019</v>
+      </c>
+    </row>
+    <row r="107" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H107" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
